--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4654,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="6">
-        <v>126144.88</v>
+        <v>126164.38</v>
       </c>
       <c r="E136" s="6">
-        <v>181153.22</v>
+        <v>181183.22</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="6">
-        <v>307298.09999999998</v>
+        <v>307347.59999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="6">
-        <v>462660</v>
+        <v>462770</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>462660</v>
+        <v>462770</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="6">
-        <v>2407008.29</v>
+        <v>2407254.02</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>13811.41</v>
+        <v>13817</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2347480.29</v>
+        <v>2347731.61</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="6">
-        <v>4303285.0199999996</v>
+        <v>4303639.92</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26001.42</v>
+        <v>26009.15</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4205014.28</v>
+        <v>4205376.91</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="6">
-        <v>4522801.6900000004</v>
+        <v>4523486.33</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>29647.9</v>
+        <v>29666.57</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4361828.8600000003</v>
+        <v>4362532.17</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="6">
-        <v>9129330.1199999992</v>
+        <v>9130752.5500000007</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62068.26</v>
+        <v>62109.66</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8867592.6799999997</v>
+        <v>8869056.5099999998</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>77</v>
       </c>
       <c r="D204" s="6">
-        <v>40831.5</v>
+        <v>40847.800000000003</v>
       </c>
       <c r="E204" s="6">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="6">
-        <v>40831.5</v>
+        <v>40847.800000000003</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="6">
-        <v>215752.37</v>
+        <v>215856.37</v>
       </c>
       <c r="E210" s="6">
-        <v>240091.69</v>
+        <v>240251.69</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="6">
-        <v>455844.06</v>
+        <v>456108.06</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="6">
-        <v>14734581.16</v>
+        <v>14736103.01</v>
       </c>
       <c r="E238" s="6">
-        <v>214399.2</v>
+        <v>214406.41</v>
       </c>
       <c r="F238" s="6">
-        <v>71793.36</v>
+        <v>71807.61</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15020773.720000001</v>
+        <v>15022317.029999999</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>190</v>
       </c>
       <c r="D321" s="6">
-        <v>8001.7</v>
+        <v>8011.5</v>
       </c>
       <c r="E321" s="6">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="6">
-        <v>8001.7</v>
+        <v>8011.5</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -21,6 +21,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="224">
   <si>
+    <t>AÑO DEUDA</t>
+  </si>
+  <si>
+    <t>CONCEPTO DE PAGO</t>
+  </si>
+  <si>
     <t>SUBCONCEPTO DE PAGO</t>
   </si>
   <si>
@@ -685,12 +691,6 @@
   </si>
   <si>
     <t>VÓLEY, BÁSQUET Y FÚTBOL DE 16 A MÁS AÑOS(12:00 A 13:00)-LU,MI Y VI(1 H)</t>
-  </si>
-  <si>
-    <t>anio_deuda</t>
-  </si>
-  <si>
-    <t>concepto</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,28 +1135,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>1999</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>80</v>
@@ -1190,10 +1190,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6">
         <v>49.13</v>
@@ -1216,10 +1216,10 @@
         <v>2001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>50.24</v>
@@ -1242,10 +1242,10 @@
         <v>2002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6">
         <v>68.319999999999993</v>
@@ -1268,10 +1268,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6">
         <v>37.6</v>
@@ -1294,10 +1294,10 @@
         <v>2002</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
         <v>82.96</v>
@@ -1320,10 +1320,10 @@
         <v>2003</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6">
         <v>4.8</v>
@@ -1346,10 +1346,10 @@
         <v>2003</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>202.56</v>
@@ -1372,10 +1372,10 @@
         <v>2003</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6">
         <v>59.04</v>
@@ -1398,10 +1398,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
         <v>74.64</v>
@@ -1424,10 +1424,10 @@
         <v>2003</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6">
         <v>137.33000000000001</v>
@@ -1450,10 +1450,10 @@
         <v>2004</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6">
         <v>5.76</v>
@@ -1476,10 +1476,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6">
         <v>184.2</v>
@@ -1502,10 +1502,10 @@
         <v>2004</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6">
         <v>58.2</v>
@@ -1528,10 +1528,10 @@
         <v>2004</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
         <v>92.16</v>
@@ -1554,10 +1554,10 @@
         <v>2004</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6">
         <v>71.040000000000006</v>
@@ -1580,10 +1580,10 @@
         <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="6">
         <v>19.8</v>
@@ -1606,10 +1606,10 @@
         <v>2006</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="6">
         <v>137.38</v>
@@ -1632,10 +1632,10 @@
         <v>2007</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="6">
         <v>8.1999999999999993</v>
@@ -1658,10 +1658,10 @@
         <v>2007</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6">
         <v>16.48</v>
@@ -1684,10 +1684,10 @@
         <v>2007</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6">
         <v>6</v>
@@ -1710,10 +1710,10 @@
         <v>2007</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="6">
         <v>11.35</v>
@@ -1736,10 +1736,10 @@
         <v>2007</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6">
         <v>280.19</v>
@@ -1762,10 +1762,10 @@
         <v>2008</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="6">
         <v>40.89</v>
@@ -1788,10 +1788,10 @@
         <v>2008</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6">
         <v>60.29</v>
@@ -1814,10 +1814,10 @@
         <v>2008</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6">
         <v>46.35</v>
@@ -1840,10 +1840,10 @@
         <v>2008</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28" s="6">
         <v>49.64</v>
@@ -1866,10 +1866,10 @@
         <v>2008</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>255.35</v>
@@ -1892,10 +1892,10 @@
         <v>2009</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="6">
         <v>121.61</v>
@@ -1918,10 +1918,10 @@
         <v>2009</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <v>208.98</v>
@@ -1944,10 +1944,10 @@
         <v>2009</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="6">
         <v>162.24</v>
@@ -1970,10 +1970,10 @@
         <v>2009</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" s="6">
         <v>185.02</v>
@@ -1996,10 +1996,10 @@
         <v>2009</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="6">
         <v>78.5</v>
@@ -2022,10 +2022,10 @@
         <v>2010</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="6">
         <v>104.52</v>
@@ -2048,10 +2048,10 @@
         <v>2010</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6">
         <v>148.07</v>
@@ -2074,10 +2074,10 @@
         <v>2010</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="6">
         <v>141.93</v>
@@ -2100,10 +2100,10 @@
         <v>2010</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6">
         <v>151.16999999999999</v>
@@ -2126,10 +2126,10 @@
         <v>2010</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" s="6">
         <v>13</v>
@@ -2152,10 +2152,10 @@
         <v>2010</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40" s="6">
         <v>189.31</v>
@@ -2178,10 +2178,10 @@
         <v>2011</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="6">
         <v>111.69</v>
@@ -2204,10 +2204,10 @@
         <v>2011</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6">
         <v>177.77</v>
@@ -2230,10 +2230,10 @@
         <v>2011</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="6">
         <v>169</v>
@@ -2256,10 +2256,10 @@
         <v>2011</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" s="6">
         <v>113.62</v>
@@ -2282,10 +2282,10 @@
         <v>2011</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="6">
         <v>39</v>
@@ -2308,10 +2308,10 @@
         <v>2011</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="6">
         <v>1151.28</v>
@@ -2334,10 +2334,10 @@
         <v>2011</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D47" s="6">
         <v>501.24</v>
@@ -2360,10 +2360,10 @@
         <v>2012</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" s="6">
         <v>117.43</v>
@@ -2386,10 +2386,10 @@
         <v>2012</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49" s="6">
         <v>453.46</v>
@@ -2412,10 +2412,10 @@
         <v>2012</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6">
         <v>388.38</v>
@@ -2438,10 +2438,10 @@
         <v>2012</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D51" s="6">
         <v>502.02</v>
@@ -2464,10 +2464,10 @@
         <v>2012</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" s="6">
         <v>257</v>
@@ -2490,10 +2490,10 @@
         <v>2012</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D53" s="6">
         <v>873.19</v>
@@ -2516,10 +2516,10 @@
         <v>2013</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" s="6">
         <v>218.44</v>
@@ -2542,10 +2542,10 @@
         <v>2013</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55" s="6">
         <v>720.2</v>
@@ -2568,10 +2568,10 @@
         <v>2013</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" s="6">
         <v>623.39</v>
@@ -2594,10 +2594,10 @@
         <v>2013</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D57" s="6">
         <v>1099.81</v>
@@ -2620,10 +2620,10 @@
         <v>2013</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D58" s="6">
         <v>239</v>
@@ -2646,10 +2646,10 @@
         <v>2013</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" s="6">
         <v>955.74</v>
@@ -2672,10 +2672,10 @@
         <v>2013</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" s="6">
         <v>1411.66</v>
@@ -2698,10 +2698,10 @@
         <v>2014</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6">
         <v>521.62</v>
@@ -2724,10 +2724,10 @@
         <v>2014</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" s="6">
         <v>2832.41</v>
@@ -2750,10 +2750,10 @@
         <v>2014</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D63" s="6">
         <v>1058.42</v>
@@ -2776,10 +2776,10 @@
         <v>2014</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64" s="6">
         <v>2099</v>
@@ -2802,10 +2802,10 @@
         <v>2014</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" s="6">
         <v>25</v>
@@ -2828,10 +2828,10 @@
         <v>2014</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" s="6">
         <v>1399.39</v>
@@ -2854,10 +2854,10 @@
         <v>2014</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D67" s="6">
         <v>3671.16</v>
@@ -2880,10 +2880,10 @@
         <v>2014</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" s="6">
         <v>3800</v>
@@ -2906,10 +2906,10 @@
         <v>2015</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="6">
         <v>1304.98</v>
@@ -2932,10 +2932,10 @@
         <v>2015</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D70" s="6">
         <v>4215.99</v>
@@ -2958,10 +2958,10 @@
         <v>2015</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D71" s="6">
         <v>2324.52</v>
@@ -2984,10 +2984,10 @@
         <v>2015</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72" s="6">
         <v>4807.57</v>
@@ -3010,10 +3010,10 @@
         <v>2015</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D73" s="6">
         <v>128.55000000000001</v>
@@ -3036,10 +3036,10 @@
         <v>2015</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D74" s="6">
         <v>2110.85</v>
@@ -3062,10 +3062,10 @@
         <v>2015</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D75" s="6">
         <v>6067.4</v>
@@ -3088,10 +3088,10 @@
         <v>2016</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D76" s="6">
         <v>1516.7</v>
@@ -3114,10 +3114,10 @@
         <v>2016</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D77" s="6">
         <v>4289.24</v>
@@ -3140,10 +3140,10 @@
         <v>2016</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78" s="6">
         <v>3397.74</v>
@@ -3166,10 +3166,10 @@
         <v>2016</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79" s="6">
         <v>7200.36</v>
@@ -3192,10 +3192,10 @@
         <v>2016</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D80" s="6">
         <v>152</v>
@@ -3218,10 +3218,10 @@
         <v>2016</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" s="6">
         <v>4367.12</v>
@@ -3244,10 +3244,10 @@
         <v>2016</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D82" s="6">
         <v>9946.7900000000009</v>
@@ -3270,10 +3270,10 @@
         <v>2016</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D83" s="6">
         <v>86.22</v>
@@ -3296,10 +3296,10 @@
         <v>2017</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D84" s="6">
         <v>3441.84</v>
@@ -3322,10 +3322,10 @@
         <v>2017</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85" s="6">
         <v>10541.15</v>
@@ -3348,10 +3348,10 @@
         <v>2017</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D86" s="6">
         <v>9185.4</v>
@@ -3374,10 +3374,10 @@
         <v>2017</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87" s="6">
         <v>16317.05</v>
@@ -3400,10 +3400,10 @@
         <v>2017</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D88" s="6">
         <v>297</v>
@@ -3426,10 +3426,10 @@
         <v>2017</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89" s="6">
         <v>546</v>
@@ -3452,10 +3452,10 @@
         <v>2017</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D90" s="6">
         <v>27739.75</v>
@@ -3478,10 +3478,10 @@
         <v>2017</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D91" s="6">
         <v>90.12</v>
@@ -3504,10 +3504,10 @@
         <v>2018</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" s="6">
         <v>5318.88</v>
@@ -3530,10 +3530,10 @@
         <v>2018</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" s="6">
         <v>21398.31</v>
@@ -3556,10 +3556,10 @@
         <v>2018</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D94" s="6">
         <v>14466.03</v>
@@ -3582,10 +3582,10 @@
         <v>2018</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95" s="6">
         <v>26484.83</v>
@@ -3608,10 +3608,10 @@
         <v>2018</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D96" s="6">
         <v>442</v>
@@ -3634,10 +3634,10 @@
         <v>2018</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D97" s="6">
         <v>37751.339999999997</v>
@@ -3660,10 +3660,10 @@
         <v>2018</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="6">
         <v>2380</v>
@@ -3686,10 +3686,10 @@
         <v>2018</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D99" s="6">
         <v>4816.8100000000004</v>
@@ -3712,10 +3712,10 @@
         <v>2019</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D100" s="6">
         <v>10359.44</v>
@@ -3738,10 +3738,10 @@
         <v>2019</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101" s="6">
         <v>32220.7</v>
@@ -3764,10 +3764,10 @@
         <v>2019</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102" s="6">
         <v>23709.05</v>
@@ -3790,10 +3790,10 @@
         <v>2019</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D103" s="6">
         <v>45329.22</v>
@@ -3816,10 +3816,10 @@
         <v>2019</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D104" s="6">
         <v>2471.4699999999998</v>
@@ -3842,10 +3842,10 @@
         <v>2019</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D105" s="6">
         <v>55887.27</v>
@@ -3868,10 +3868,10 @@
         <v>2019</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D106" s="6">
         <v>4574.45</v>
@@ -3894,10 +3894,10 @@
         <v>2019</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D107" s="6">
         <v>59876.82</v>
@@ -3920,10 +3920,10 @@
         <v>2020</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D108" s="6">
         <v>23432.78</v>
@@ -3946,10 +3946,10 @@
         <v>2020</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D109" s="6">
         <v>50010.79</v>
@@ -3972,10 +3972,10 @@
         <v>2020</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D110" s="6">
         <v>47005.55</v>
@@ -3998,10 +3998,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D111" s="6">
         <v>99148.38</v>
@@ -4024,10 +4024,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D112" s="6">
         <v>1420.5</v>
@@ -4050,10 +4050,10 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D113" s="6">
         <v>112735.81</v>
@@ -4076,10 +4076,10 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D114" s="6">
         <v>27472.33</v>
@@ -4102,10 +4102,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D115" s="6">
         <v>850401.12</v>
@@ -4128,10 +4128,10 @@
         <v>2021</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D116" s="6">
         <v>39095.480000000003</v>
@@ -4154,10 +4154,10 @@
         <v>2021</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D117" s="6">
         <v>89585.36</v>
@@ -4180,10 +4180,10 @@
         <v>2021</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D118" s="6">
         <v>80199.75</v>
@@ -4206,10 +4206,10 @@
         <v>2021</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D119" s="6">
         <v>171552.39</v>
@@ -4232,10 +4232,10 @@
         <v>2021</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D120" s="6">
         <v>5624.59</v>
@@ -4258,10 +4258,10 @@
         <v>2021</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D121" s="6">
         <v>187017.56</v>
@@ -4284,10 +4284,10 @@
         <v>2021</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D122" s="6">
         <v>102865.16</v>
@@ -4310,10 +4310,10 @@
         <v>2021</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D123" s="6">
         <v>752479.15</v>
@@ -4336,10 +4336,10 @@
         <v>2022</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D124" s="6">
         <v>83886.51</v>
@@ -4362,10 +4362,10 @@
         <v>2022</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D125" s="6">
         <v>172809.84</v>
@@ -4388,10 +4388,10 @@
         <v>2022</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D126" s="6">
         <v>204427.94</v>
@@ -4414,10 +4414,10 @@
         <v>2022</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D127" s="6">
         <v>420890.02</v>
@@ -4440,10 +4440,10 @@
         <v>2022</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D128" s="6">
         <v>16105.45</v>
@@ -4466,10 +4466,10 @@
         <v>2022</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D129" s="6">
         <v>411213.99</v>
@@ -4492,10 +4492,10 @@
         <v>2022</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130" s="6">
         <v>316283.38</v>
@@ -4518,10 +4518,10 @@
         <v>2022</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D131" s="6">
         <v>979297.25</v>
@@ -4544,10 +4544,10 @@
         <v>2023</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D132" s="6">
         <v>283071.78999999998</v>
@@ -4570,10 +4570,10 @@
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D133" s="6">
         <v>626769.46</v>
@@ -4596,10 +4596,10 @@
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D134" s="6">
         <v>681109.37</v>
@@ -4622,10 +4622,10 @@
         <v>2023</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D135" s="6">
         <v>1433004.15</v>
@@ -4648,10 +4648,10 @@
         <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D136" s="6">
         <v>126164.38</v>
@@ -4674,25 +4674,25 @@
         <v>2023</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D137" s="6">
-        <v>1442524.69</v>
+        <v>1442617.97</v>
       </c>
       <c r="E137" s="6">
         <v>21061.87</v>
       </c>
       <c r="F137" s="6">
-        <v>135133.26999999999</v>
+        <v>135143.97</v>
       </c>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="H137" s="6">
-        <v>1598719.83</v>
+        <v>1598823.81</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,10 +4700,10 @@
         <v>2023</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D138" s="6">
         <v>577037.43000000005</v>
@@ -4726,10 +4726,10 @@
         <v>2023</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D139" s="6">
         <v>1398489.52</v>
@@ -4752,10 +4752,10 @@
         <v>2024</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D140" s="6">
         <v>5414.8</v>
@@ -4778,10 +4778,10 @@
         <v>2024</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D141" s="6">
         <v>4530</v>
@@ -4804,10 +4804,10 @@
         <v>2024</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D142" s="6">
         <v>8100</v>
@@ -4830,10 +4830,10 @@
         <v>2024</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D143" s="6">
         <v>12240</v>
@@ -4856,10 +4856,10 @@
         <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D144" s="6">
         <v>192150</v>
@@ -4882,10 +4882,10 @@
         <v>2024</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D145" s="6">
         <v>0.3</v>
@@ -4908,10 +4908,10 @@
         <v>2024</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D146" s="6">
         <v>3940.14</v>
@@ -4934,13 +4934,13 @@
         <v>2024</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D147" s="6">
-        <v>462770</v>
+        <v>463495</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>462770</v>
+        <v>463495</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4960,10 +4960,10 @@
         <v>2024</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D148" s="6">
         <v>362592.4</v>
@@ -4986,10 +4986,10 @@
         <v>2024</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D149" s="6">
         <v>2203</v>
@@ -5012,10 +5012,10 @@
         <v>2024</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="6">
         <v>120</v>
@@ -5038,10 +5038,10 @@
         <v>2024</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D151" s="6">
         <v>3</v>
@@ -5064,10 +5064,10 @@
         <v>2024</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D152" s="6">
         <v>4164.3</v>
@@ -5090,10 +5090,10 @@
         <v>2024</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D153" s="6">
         <v>13629.6</v>
@@ -5116,10 +5116,10 @@
         <v>2024</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D154" s="6">
         <v>565.20000000000005</v>
@@ -5142,25 +5142,25 @@
         <v>2024</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D155" s="6">
-        <v>2407254.02</v>
+        <v>2407458.73</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>13817</v>
+        <v>13820.96</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2347731.61</v>
+        <v>2347940.2799999998</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5168,25 +5168,25 @@
         <v>2024</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D156" s="6">
-        <v>4303639.92</v>
+        <v>4304220.92</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26009.15</v>
+        <v>26022.75</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4205376.91</v>
+        <v>4205971.51</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5194,25 +5194,25 @@
         <v>2024</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D157" s="6">
-        <v>4523486.33</v>
+        <v>4524611.91</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>29666.57</v>
+        <v>29691.63</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4362532.17</v>
+        <v>4363682.8099999996</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5220,25 +5220,25 @@
         <v>2024</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D158" s="6">
-        <v>9130752.5500000007</v>
+        <v>9132557.9900000002</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62109.66</v>
+        <v>62151.62</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8869056.5099999998</v>
+        <v>8870903.9100000001</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,10 +5246,10 @@
         <v>2024</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D159" s="6">
         <v>160</v>
@@ -5272,10 +5272,10 @@
         <v>2024</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D160" s="6">
         <v>135.30000000000001</v>
@@ -5298,10 +5298,10 @@
         <v>2024</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D161" s="6">
         <v>60.3</v>
@@ -5324,10 +5324,10 @@
         <v>2024</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D162" s="6">
         <v>120.6</v>
@@ -5350,10 +5350,10 @@
         <v>2024</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D163" s="6">
         <v>60.3</v>
@@ -5376,10 +5376,10 @@
         <v>2024</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D164" s="6">
         <v>301.5</v>
@@ -5402,10 +5402,10 @@
         <v>2024</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D165" s="6">
         <v>6696</v>
@@ -5428,10 +5428,10 @@
         <v>2024</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D166" s="6">
         <v>144</v>
@@ -5454,10 +5454,10 @@
         <v>2024</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D167" s="6">
         <v>6798</v>
@@ -5480,10 +5480,10 @@
         <v>2024</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D168" s="6">
         <v>618</v>
@@ -5506,10 +5506,10 @@
         <v>2024</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D169" s="6">
         <v>25358</v>
@@ -5532,10 +5532,10 @@
         <v>2024</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D170" s="6">
         <v>145</v>
@@ -5558,10 +5558,10 @@
         <v>2024</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D171" s="6">
         <v>217.5</v>
@@ -5584,10 +5584,10 @@
         <v>2024</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D172" s="6">
         <v>117.3</v>
@@ -5610,10 +5610,10 @@
         <v>2024</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D173" s="6">
         <v>34.5</v>
@@ -5636,10 +5636,10 @@
         <v>2024</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D174" s="6">
         <v>1775.6</v>
@@ -5662,10 +5662,10 @@
         <v>2024</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D175" s="6">
         <v>230</v>
@@ -5688,10 +5688,10 @@
         <v>2024</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D176" s="6">
         <v>1412.4</v>
@@ -5714,10 +5714,10 @@
         <v>2024</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D177" s="6">
         <v>60.3</v>
@@ -5740,10 +5740,10 @@
         <v>2024</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D178" s="6">
         <v>41.4</v>
@@ -5766,10 +5766,10 @@
         <v>2024</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D179" s="6">
         <v>2773.8</v>
@@ -5792,10 +5792,10 @@
         <v>2024</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D180" s="6">
         <v>171.6</v>
@@ -5818,10 +5818,10 @@
         <v>2024</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D181" s="6">
         <v>288.60000000000002</v>
@@ -5844,10 +5844,10 @@
         <v>2024</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D182" s="6">
         <v>18596.599999999999</v>
@@ -5870,10 +5870,10 @@
         <v>2024</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D183" s="6">
         <v>10479.799999999999</v>
@@ -5896,10 +5896,10 @@
         <v>2024</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D184" s="6">
         <v>924.5</v>
@@ -5922,10 +5922,10 @@
         <v>2024</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D185" s="6">
         <v>693.5</v>
@@ -5948,10 +5948,10 @@
         <v>2024</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D186" s="6">
         <v>22568</v>
@@ -5974,10 +5974,10 @@
         <v>2024</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D187" s="6">
         <v>521</v>
@@ -6000,10 +6000,10 @@
         <v>2024</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D188" s="6">
         <v>29670</v>
@@ -6026,10 +6026,10 @@
         <v>2024</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D189" s="6">
         <v>396</v>
@@ -6052,10 +6052,10 @@
         <v>2024</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D190" s="6">
         <v>5214</v>
@@ -6078,10 +6078,10 @@
         <v>2024</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D191" s="6">
         <v>58145</v>
@@ -6104,10 +6104,10 @@
         <v>2024</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D192" s="6">
         <v>950.4</v>
@@ -6130,10 +6130,10 @@
         <v>2024</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D193" s="6">
         <v>2280</v>
@@ -6156,10 +6156,10 @@
         <v>2024</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D194" s="6">
         <v>957</v>
@@ -6182,10 +6182,10 @@
         <v>2024</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D195" s="6">
         <v>3979</v>
@@ -6208,10 +6208,10 @@
         <v>2024</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D196" s="6">
         <v>15381.9</v>
@@ -6234,10 +6234,10 @@
         <v>2024</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D197" s="6">
         <v>620.70000000000005</v>
@@ -6260,10 +6260,10 @@
         <v>2024</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D198" s="6">
         <v>288.8</v>
@@ -6286,10 +6286,10 @@
         <v>2024</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D199" s="6">
         <v>2272</v>
@@ -6312,10 +6312,10 @@
         <v>2024</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D200" s="6">
         <v>4302</v>
@@ -6338,10 +6338,10 @@
         <v>2024</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D201" s="6">
         <v>391.1</v>
@@ -6364,10 +6364,10 @@
         <v>2024</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D202" s="6">
         <v>150</v>
@@ -6390,10 +6390,10 @@
         <v>2024</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D203" s="6">
         <v>520.79999999999995</v>
@@ -6416,10 +6416,10 @@
         <v>2024</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D204" s="6">
         <v>40847.800000000003</v>
@@ -6442,10 +6442,10 @@
         <v>2024</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D205" s="6">
         <v>449.8</v>
@@ -6468,10 +6468,10 @@
         <v>2024</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D206" s="6">
         <v>136500</v>
@@ -6494,10 +6494,10 @@
         <v>2024</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D207" s="6">
         <v>111.3</v>
@@ -6520,10 +6520,10 @@
         <v>2024</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D208" s="6">
         <v>52.95</v>
@@ -6546,10 +6546,10 @@
         <v>2024</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D209" s="6">
         <v>2175.1999999999998</v>
@@ -6572,16 +6572,16 @@
         <v>2024</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D210" s="6">
-        <v>215856.37</v>
+        <v>215869.37</v>
       </c>
       <c r="E210" s="6">
-        <v>240251.69</v>
+        <v>240271.69</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="6">
-        <v>456108.06</v>
+        <v>456141.06</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,10 +6598,10 @@
         <v>2024</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D211" s="6">
         <v>400</v>
@@ -6624,10 +6624,10 @@
         <v>2024</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D212" s="6">
         <v>420</v>
@@ -6650,10 +6650,10 @@
         <v>2024</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D213" s="6">
         <v>210</v>
@@ -6676,10 +6676,10 @@
         <v>2024</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D214" s="6">
         <v>15525</v>
@@ -6702,10 +6702,10 @@
         <v>2024</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D215" s="6">
         <v>200</v>
@@ -6728,10 +6728,10 @@
         <v>2024</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D216" s="6">
         <v>16650</v>
@@ -6754,10 +6754,10 @@
         <v>2024</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D217" s="6">
         <v>900</v>
@@ -6780,10 +6780,10 @@
         <v>2024</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D218" s="6">
         <v>14350</v>
@@ -6806,10 +6806,10 @@
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D219" s="6">
         <v>7405</v>
@@ -6832,10 +6832,10 @@
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D220" s="6">
         <v>75</v>
@@ -6858,10 +6858,10 @@
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D221" s="6">
         <v>26114.400000000001</v>
@@ -6884,10 +6884,10 @@
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D222" s="6">
         <v>12503.8</v>
@@ -6910,10 +6910,10 @@
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D223" s="6">
         <v>482.9</v>
@@ -6936,10 +6936,10 @@
         <v>2024</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D224" s="6">
         <v>1253.2</v>
@@ -6962,10 +6962,10 @@
         <v>2024</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D225" s="6">
         <v>47.6</v>
@@ -6988,10 +6988,10 @@
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D226" s="6">
         <v>4149.6000000000004</v>
@@ -7014,10 +7014,10 @@
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D227" s="6">
         <v>3172.5</v>
@@ -7040,10 +7040,10 @@
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D228" s="6">
         <v>2301</v>
@@ -7066,10 +7066,10 @@
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D229" s="6">
         <v>1092</v>
@@ -7092,10 +7092,10 @@
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D230" s="6">
         <v>732</v>
@@ -7118,10 +7118,10 @@
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D231" s="6">
         <v>688.5</v>
@@ -7144,10 +7144,10 @@
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D232" s="6">
         <v>39355</v>
@@ -7170,10 +7170,10 @@
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D233" s="6">
         <v>1320</v>
@@ -7196,10 +7196,10 @@
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D234" s="6">
         <v>1400</v>
@@ -7222,10 +7222,10 @@
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D235" s="6">
         <v>7150</v>
@@ -7248,10 +7248,10 @@
         <v>2024</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D236" s="6">
         <v>4770</v>
@@ -7274,10 +7274,10 @@
         <v>2024</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D237" s="6">
         <v>6050</v>
@@ -7300,25 +7300,25 @@
         <v>2024</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D238" s="6">
-        <v>14736103.01</v>
+        <v>14738753.119999999</v>
       </c>
       <c r="E238" s="6">
-        <v>214406.41</v>
+        <v>214428.04</v>
       </c>
       <c r="F238" s="6">
-        <v>71807.61</v>
+        <v>71857.279999999999</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15022317.029999999</v>
+        <v>15025038.439999999</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7326,10 +7326,10 @@
         <v>2024</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D239" s="6">
         <v>330</v>
@@ -7352,10 +7352,10 @@
         <v>2024</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D240" s="6">
         <v>233902.3</v>
@@ -7378,10 +7378,10 @@
         <v>2024</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D241" s="6">
         <v>5645205.0300000003</v>
@@ -7404,10 +7404,10 @@
         <v>2024</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D242" s="6">
         <v>571.65</v>
@@ -7430,10 +7430,10 @@
         <v>2024</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D243" s="6">
         <v>1088</v>
@@ -7456,10 +7456,10 @@
         <v>2024</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D244" s="6">
         <v>98272</v>
@@ -7482,10 +7482,10 @@
         <v>2024</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D245" s="6">
         <v>8375</v>
@@ -7508,10 +7508,10 @@
         <v>2024</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D246" s="6">
         <v>96077</v>
@@ -7534,10 +7534,10 @@
         <v>2024</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D247" s="6">
         <v>37.6</v>
@@ -7560,10 +7560,10 @@
         <v>2024</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D248" s="6">
         <v>37.6</v>
@@ -7586,10 +7586,10 @@
         <v>2024</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D249" s="6">
         <v>37.6</v>
@@ -7612,10 +7612,10 @@
         <v>2024</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D250" s="6">
         <v>100.5</v>
@@ -7638,10 +7638,10 @@
         <v>2024</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D251" s="6">
         <v>426.1</v>
@@ -7664,10 +7664,10 @@
         <v>2024</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D252" s="6">
         <v>225.6</v>
@@ -7690,10 +7690,10 @@
         <v>2024</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D253" s="6">
         <v>426.1</v>
@@ -7716,10 +7716,10 @@
         <v>2024</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D254" s="6">
         <v>9560.4</v>
@@ -7742,10 +7742,10 @@
         <v>2024</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D255" s="6">
         <v>179318.26</v>
@@ -7768,10 +7768,10 @@
         <v>2024</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D256" s="6">
         <v>126.6</v>
@@ -7794,10 +7794,10 @@
         <v>2024</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D257" s="6">
         <v>100.5</v>
@@ -7820,10 +7820,10 @@
         <v>2024</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D258" s="6">
         <v>11436.6</v>
@@ -7846,10 +7846,10 @@
         <v>2024</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D259" s="6">
         <v>150.4</v>
@@ -7872,10 +7872,10 @@
         <v>2024</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D260" s="6">
         <v>37.6</v>
@@ -7898,10 +7898,10 @@
         <v>2024</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D261" s="6">
         <v>37.6</v>
@@ -7924,10 +7924,10 @@
         <v>2024</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D262" s="6">
         <v>37.6</v>
@@ -7950,10 +7950,10 @@
         <v>2024</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D263" s="6">
         <v>2935.2</v>
@@ -7976,10 +7976,10 @@
         <v>2024</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D264" s="6">
         <v>1530</v>
@@ -8002,10 +8002,10 @@
         <v>2024</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D265" s="6">
         <v>140.1</v>
@@ -8028,10 +8028,10 @@
         <v>2024</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D266" s="6">
         <v>140.1</v>
@@ -8054,10 +8054,10 @@
         <v>2024</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D267" s="6">
         <v>4355.8999999999996</v>
@@ -8080,10 +8080,10 @@
         <v>2024</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D268" s="6">
         <v>110.8</v>
@@ -8106,10 +8106,10 @@
         <v>2024</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D269" s="6">
         <v>140.1</v>
@@ -8132,10 +8132,10 @@
         <v>2024</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D270" s="6">
         <v>136</v>
@@ -8158,10 +8158,10 @@
         <v>2024</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D271" s="6">
         <v>9225.2999999999993</v>
@@ -8184,10 +8184,10 @@
         <v>2024</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D272" s="6">
         <v>5605.2</v>
@@ -8210,10 +8210,10 @@
         <v>2024</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D273" s="6">
         <v>227.9</v>
@@ -8236,10 +8236,10 @@
         <v>2024</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D274" s="6">
         <v>1341</v>
@@ -8262,10 +8262,10 @@
         <v>2024</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D275" s="6">
         <v>3072.3</v>
@@ -8288,10 +8288,10 @@
         <v>2024</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D276" s="6">
         <v>368.1</v>
@@ -8314,10 +8314,10 @@
         <v>2024</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D277" s="6">
         <v>796.7</v>
@@ -8340,10 +8340,10 @@
         <v>2024</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D278" s="6">
         <v>2390.1</v>
@@ -8366,10 +8366,10 @@
         <v>2024</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D279" s="6">
         <v>3983.5</v>
@@ -8392,10 +8392,10 @@
         <v>2024</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D280" s="6">
         <v>3345.3</v>
@@ -8418,10 +8418,10 @@
         <v>2024</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D281" s="6">
         <v>2247</v>
@@ -8444,10 +8444,10 @@
         <v>2024</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D282" s="6">
         <v>108855</v>
@@ -8470,10 +8470,10 @@
         <v>2024</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D283" s="6">
         <v>27972</v>
@@ -8496,10 +8496,10 @@
         <v>2024</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D284" s="6">
         <v>1874</v>
@@ -8522,10 +8522,10 @@
         <v>2024</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D285" s="6">
         <v>54.6</v>
@@ -8548,10 +8548,10 @@
         <v>2024</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D286" s="6">
         <v>1680</v>
@@ -8574,10 +8574,10 @@
         <v>2024</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D287" s="6">
         <v>2100</v>
@@ -8600,10 +8600,10 @@
         <v>2024</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D288" s="6">
         <v>70</v>
@@ -8626,10 +8626,10 @@
         <v>2024</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D289" s="6">
         <v>4980</v>
@@ -8652,10 +8652,10 @@
         <v>2024</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D290" s="6">
         <v>3760</v>
@@ -8678,10 +8678,10 @@
         <v>2024</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D291" s="6">
         <v>409.2</v>
@@ -8704,10 +8704,10 @@
         <v>2024</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D292" s="6">
         <v>33.5</v>
@@ -8730,10 +8730,10 @@
         <v>2024</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D293" s="6">
         <v>167.5</v>
@@ -8756,10 +8756,10 @@
         <v>2024</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D294" s="6">
         <v>23052.1</v>
@@ -8782,10 +8782,10 @@
         <v>2024</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D295" s="6">
         <v>916.1</v>
@@ -8808,10 +8808,10 @@
         <v>2024</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D296" s="6">
         <v>4380</v>
@@ -8834,10 +8834,10 @@
         <v>2024</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D297" s="6">
         <v>261</v>
@@ -8860,10 +8860,10 @@
         <v>2024</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D298" s="6">
         <v>744.5</v>
@@ -8886,10 +8886,10 @@
         <v>2024</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D299" s="6">
         <v>234.5</v>
@@ -8912,13 +8912,13 @@
         <v>2024</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D300" s="6">
-        <v>2485467.0299999998</v>
+        <v>2486497.0299999998</v>
       </c>
       <c r="E300" s="6">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="6">
-        <v>1170829.82</v>
+        <v>1171344.82</v>
       </c>
       <c r="H300" s="6">
-        <v>1314637.21</v>
+        <v>1315152.21</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,10 +8938,10 @@
         <v>2024</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D301" s="6">
         <v>1994860.19</v>
@@ -8964,10 +8964,10 @@
         <v>2024</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D302" s="6">
         <v>5073</v>
@@ -8990,10 +8990,10 @@
         <v>2024</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D303" s="6">
         <v>3078</v>
@@ -9016,10 +9016,10 @@
         <v>2024</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D304" s="6">
         <v>570.64</v>
@@ -9042,10 +9042,10 @@
         <v>2024</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D305" s="6">
         <v>2828.87</v>
@@ -9068,10 +9068,10 @@
         <v>2024</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D306" s="6">
         <v>6</v>
@@ -9094,10 +9094,10 @@
         <v>2024</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D307" s="6">
         <v>2191</v>
@@ -9120,10 +9120,10 @@
         <v>2024</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D308" s="6">
         <v>1510</v>
@@ -9146,10 +9146,10 @@
         <v>2024</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D309" s="6">
         <v>220</v>
@@ -9172,10 +9172,10 @@
         <v>2024</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D310" s="6">
         <v>1560</v>
@@ -9198,10 +9198,10 @@
         <v>2024</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D311" s="6">
         <v>7882</v>
@@ -9224,10 +9224,10 @@
         <v>2024</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D312" s="6">
         <v>3645</v>
@@ -9250,10 +9250,10 @@
         <v>2024</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D313" s="6">
         <v>13090</v>
@@ -9276,10 +9276,10 @@
         <v>2024</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D314" s="6">
         <v>90</v>
@@ -9302,10 +9302,10 @@
         <v>2024</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D315" s="6">
         <v>33</v>
@@ -9328,10 +9328,10 @@
         <v>2024</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D316" s="6">
         <v>15439.41</v>
@@ -9354,10 +9354,10 @@
         <v>2024</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D317" s="6">
         <v>268.39999999999998</v>
@@ -9380,10 +9380,10 @@
         <v>2024</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D318" s="6">
         <v>1908</v>
@@ -9406,10 +9406,10 @@
         <v>2024</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D319" s="6">
         <v>533.70000000000005</v>
@@ -9432,10 +9432,10 @@
         <v>2024</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D320" s="6">
         <v>847</v>
@@ -9458,10 +9458,10 @@
         <v>2024</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D321" s="6">
         <v>8011.5</v>
@@ -9484,10 +9484,10 @@
         <v>2024</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D322" s="6">
         <v>327.3</v>
@@ -9510,10 +9510,10 @@
         <v>2024</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D323" s="6">
         <v>1447.2</v>
@@ -9536,10 +9536,10 @@
         <v>2024</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D324" s="6">
         <v>9751.5</v>
@@ -9562,10 +9562,10 @@
         <v>2024</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D325" s="6">
         <v>840</v>
@@ -9588,10 +9588,10 @@
         <v>2024</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D326" s="6">
         <v>1071</v>
@@ -9614,10 +9614,10 @@
         <v>2024</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D327" s="6">
         <v>52</v>
@@ -9640,10 +9640,10 @@
         <v>2024</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D328" s="6">
         <v>4320</v>
@@ -9666,10 +9666,10 @@
         <v>2024</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D329" s="6">
         <v>2300</v>
@@ -9692,10 +9692,10 @@
         <v>2024</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D330" s="6">
         <v>62968</v>
@@ -9718,10 +9718,10 @@
         <v>2024</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D331" s="6">
         <v>6</v>
@@ -9744,10 +9744,10 @@
         <v>2024</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D332" s="6">
         <v>16.8</v>
@@ -9770,10 +9770,10 @@
         <v>2024</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D333" s="6">
         <v>1</v>
@@ -9796,10 +9796,10 @@
         <v>2024</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D334" s="6">
         <v>2</v>
@@ -9822,10 +9822,10 @@
         <v>2024</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D335" s="6">
         <v>18810</v>
@@ -9848,10 +9848,10 @@
         <v>2024</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D336" s="6">
         <v>140</v>
@@ -9874,10 +9874,10 @@
         <v>2024</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D337" s="6">
         <v>75</v>
@@ -9900,10 +9900,10 @@
         <v>2024</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D338" s="6">
         <v>750</v>
@@ -9926,10 +9926,10 @@
         <v>2024</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D339" s="6">
         <v>450</v>
@@ -9952,10 +9952,10 @@
         <v>2024</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D340" s="6">
         <v>225</v>
@@ -9978,10 +9978,10 @@
         <v>2024</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D341" s="6">
         <v>140</v>
@@ -10004,10 +10004,10 @@
         <v>2024</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D342" s="6">
         <v>70</v>
@@ -10030,10 +10030,10 @@
         <v>2024</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D343" s="6">
         <v>75</v>
@@ -10056,10 +10056,10 @@
         <v>2024</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D344" s="6">
         <v>160</v>
@@ -10082,10 +10082,10 @@
         <v>2024</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D345" s="6">
         <v>525</v>
@@ -10108,10 +10108,10 @@
         <v>2024</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D346" s="6">
         <v>300</v>
@@ -10134,10 +10134,10 @@
         <v>2024</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D347" s="6">
         <v>225</v>
@@ -10160,10 +10160,10 @@
         <v>2024</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D348" s="6">
         <v>75</v>
@@ -10186,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D349" s="6">
         <v>75</v>
@@ -10212,10 +10212,10 @@
         <v>2024</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D350" s="6">
         <v>1024</v>
@@ -10238,10 +10238,10 @@
         <v>2024</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D351" s="6">
         <v>5255</v>
@@ -10264,10 +10264,10 @@
         <v>2024</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D352" s="6">
         <v>75</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="224">
   <si>
-    <t>AÑO DEUDA</t>
-  </si>
-  <si>
-    <t>CONCEPTO DE PAGO</t>
-  </si>
-  <si>
     <t>SUBCONCEPTO DE PAGO</t>
   </si>
   <si>
@@ -691,6 +685,12 @@
   </si>
   <si>
     <t>VÓLEY, BÁSQUET Y FÚTBOL DE 16 A MÁS AÑOS(12:00 A 13:00)-LU,MI Y VI(1 H)</t>
+  </si>
+  <si>
+    <t>anio_deuda</t>
+  </si>
+  <si>
+    <t>concepto</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,28 +1135,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>1999</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6">
         <v>80</v>
@@ -1190,10 +1190,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6">
         <v>49.13</v>
@@ -1216,10 +1216,10 @@
         <v>2001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6">
         <v>50.24</v>
@@ -1242,10 +1242,10 @@
         <v>2002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6">
         <v>68.319999999999993</v>
@@ -1268,10 +1268,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="6">
         <v>37.6</v>
@@ -1294,10 +1294,10 @@
         <v>2002</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>82.96</v>
@@ -1320,10 +1320,10 @@
         <v>2003</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6">
         <v>4.8</v>
@@ -1346,10 +1346,10 @@
         <v>2003</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6">
         <v>202.56</v>
@@ -1372,10 +1372,10 @@
         <v>2003</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="6">
         <v>59.04</v>
@@ -1398,10 +1398,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6">
         <v>74.64</v>
@@ -1424,10 +1424,10 @@
         <v>2003</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6">
         <v>137.33000000000001</v>
@@ -1450,10 +1450,10 @@
         <v>2004</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6">
         <v>5.76</v>
@@ -1476,10 +1476,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6">
         <v>184.2</v>
@@ -1502,10 +1502,10 @@
         <v>2004</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="6">
         <v>58.2</v>
@@ -1528,10 +1528,10 @@
         <v>2004</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6">
         <v>92.16</v>
@@ -1554,10 +1554,10 @@
         <v>2004</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="6">
         <v>71.040000000000006</v>
@@ -1580,10 +1580,10 @@
         <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6">
         <v>19.8</v>
@@ -1606,10 +1606,10 @@
         <v>2006</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="6">
         <v>137.38</v>
@@ -1632,10 +1632,10 @@
         <v>2007</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6">
         <v>8.1999999999999993</v>
@@ -1658,10 +1658,10 @@
         <v>2007</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="6">
         <v>16.48</v>
@@ -1684,10 +1684,10 @@
         <v>2007</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D22" s="6">
         <v>6</v>
@@ -1710,10 +1710,10 @@
         <v>2007</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="6">
         <v>11.35</v>
@@ -1736,10 +1736,10 @@
         <v>2007</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="6">
         <v>280.19</v>
@@ -1762,10 +1762,10 @@
         <v>2008</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="6">
         <v>40.89</v>
@@ -1788,10 +1788,10 @@
         <v>2008</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="6">
         <v>60.29</v>
@@ -1814,10 +1814,10 @@
         <v>2008</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D27" s="6">
         <v>46.35</v>
@@ -1840,10 +1840,10 @@
         <v>2008</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
         <v>49.64</v>
@@ -1866,10 +1866,10 @@
         <v>2008</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="6">
         <v>255.35</v>
@@ -1892,10 +1892,10 @@
         <v>2009</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="6">
         <v>121.61</v>
@@ -1918,10 +1918,10 @@
         <v>2009</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6">
         <v>208.98</v>
@@ -1944,10 +1944,10 @@
         <v>2009</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D32" s="6">
         <v>162.24</v>
@@ -1970,10 +1970,10 @@
         <v>2009</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="6">
         <v>185.02</v>
@@ -1996,10 +1996,10 @@
         <v>2009</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="6">
         <v>78.5</v>
@@ -2022,10 +2022,10 @@
         <v>2010</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="6">
         <v>104.52</v>
@@ -2048,10 +2048,10 @@
         <v>2010</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="6">
         <v>148.07</v>
@@ -2074,10 +2074,10 @@
         <v>2010</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D37" s="6">
         <v>141.93</v>
@@ -2100,10 +2100,10 @@
         <v>2010</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="6">
         <v>151.16999999999999</v>
@@ -2126,10 +2126,10 @@
         <v>2010</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6">
         <v>13</v>
@@ -2152,10 +2152,10 @@
         <v>2010</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="6">
         <v>189.31</v>
@@ -2178,10 +2178,10 @@
         <v>2011</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="6">
         <v>111.69</v>
@@ -2204,10 +2204,10 @@
         <v>2011</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6">
         <v>177.77</v>
@@ -2230,10 +2230,10 @@
         <v>2011</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D43" s="6">
         <v>169</v>
@@ -2256,10 +2256,10 @@
         <v>2011</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" s="6">
         <v>113.62</v>
@@ -2282,10 +2282,10 @@
         <v>2011</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="6">
         <v>39</v>
@@ -2308,10 +2308,10 @@
         <v>2011</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="6">
         <v>1151.28</v>
@@ -2334,10 +2334,10 @@
         <v>2011</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="6">
         <v>501.24</v>
@@ -2360,10 +2360,10 @@
         <v>2012</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="6">
         <v>117.43</v>
@@ -2386,10 +2386,10 @@
         <v>2012</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="6">
         <v>453.46</v>
@@ -2412,10 +2412,10 @@
         <v>2012</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D50" s="6">
         <v>388.38</v>
@@ -2438,10 +2438,10 @@
         <v>2012</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="6">
         <v>502.02</v>
@@ -2464,10 +2464,10 @@
         <v>2012</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="6">
         <v>257</v>
@@ -2490,10 +2490,10 @@
         <v>2012</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" s="6">
         <v>873.19</v>
@@ -2516,10 +2516,10 @@
         <v>2013</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="6">
         <v>218.44</v>
@@ -2542,10 +2542,10 @@
         <v>2013</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="6">
         <v>720.2</v>
@@ -2568,10 +2568,10 @@
         <v>2013</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D56" s="6">
         <v>623.39</v>
@@ -2594,10 +2594,10 @@
         <v>2013</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D57" s="6">
         <v>1099.81</v>
@@ -2620,10 +2620,10 @@
         <v>2013</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6">
         <v>239</v>
@@ -2646,10 +2646,10 @@
         <v>2013</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="6">
         <v>955.74</v>
@@ -2672,10 +2672,10 @@
         <v>2013</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60" s="6">
         <v>1411.66</v>
@@ -2698,10 +2698,10 @@
         <v>2014</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D61" s="6">
         <v>521.62</v>
@@ -2724,10 +2724,10 @@
         <v>2014</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="6">
         <v>2832.41</v>
@@ -2750,10 +2750,10 @@
         <v>2014</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D63" s="6">
         <v>1058.42</v>
@@ -2776,10 +2776,10 @@
         <v>2014</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="6">
         <v>2099</v>
@@ -2802,10 +2802,10 @@
         <v>2014</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" s="6">
         <v>25</v>
@@ -2828,10 +2828,10 @@
         <v>2014</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="6">
         <v>1399.39</v>
@@ -2854,10 +2854,10 @@
         <v>2014</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D67" s="6">
         <v>3671.16</v>
@@ -2880,10 +2880,10 @@
         <v>2014</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6">
         <v>3800</v>
@@ -2906,10 +2906,10 @@
         <v>2015</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69" s="6">
         <v>1304.98</v>
@@ -2932,10 +2932,10 @@
         <v>2015</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" s="6">
         <v>4215.99</v>
@@ -2958,10 +2958,10 @@
         <v>2015</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D71" s="6">
         <v>2324.52</v>
@@ -2984,10 +2984,10 @@
         <v>2015</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="6">
         <v>4807.57</v>
@@ -3010,10 +3010,10 @@
         <v>2015</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" s="6">
         <v>128.55000000000001</v>
@@ -3036,10 +3036,10 @@
         <v>2015</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" s="6">
         <v>2110.85</v>
@@ -3062,10 +3062,10 @@
         <v>2015</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" s="6">
         <v>6067.4</v>
@@ -3088,10 +3088,10 @@
         <v>2016</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D76" s="6">
         <v>1516.7</v>
@@ -3114,10 +3114,10 @@
         <v>2016</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="6">
         <v>4289.24</v>
@@ -3140,10 +3140,10 @@
         <v>2016</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D78" s="6">
         <v>3397.74</v>
@@ -3166,10 +3166,10 @@
         <v>2016</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" s="6">
         <v>7200.36</v>
@@ -3192,10 +3192,10 @@
         <v>2016</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="6">
         <v>152</v>
@@ -3218,10 +3218,10 @@
         <v>2016</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="6">
         <v>4367.12</v>
@@ -3244,10 +3244,10 @@
         <v>2016</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D82" s="6">
         <v>9946.7900000000009</v>
@@ -3270,10 +3270,10 @@
         <v>2016</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" s="6">
         <v>86.22</v>
@@ -3296,10 +3296,10 @@
         <v>2017</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D84" s="6">
         <v>3441.84</v>
@@ -3322,10 +3322,10 @@
         <v>2017</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" s="6">
         <v>10541.15</v>
@@ -3348,10 +3348,10 @@
         <v>2017</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D86" s="6">
         <v>9185.4</v>
@@ -3374,10 +3374,10 @@
         <v>2017</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87" s="6">
         <v>16317.05</v>
@@ -3400,10 +3400,10 @@
         <v>2017</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="6">
         <v>297</v>
@@ -3426,10 +3426,10 @@
         <v>2017</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" s="6">
         <v>546</v>
@@ -3452,10 +3452,10 @@
         <v>2017</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D90" s="6">
         <v>27739.75</v>
@@ -3478,10 +3478,10 @@
         <v>2017</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D91" s="6">
         <v>90.12</v>
@@ -3504,10 +3504,10 @@
         <v>2018</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" s="6">
         <v>5318.88</v>
@@ -3530,10 +3530,10 @@
         <v>2018</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" s="6">
         <v>21398.31</v>
@@ -3556,10 +3556,10 @@
         <v>2018</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D94" s="6">
         <v>14466.03</v>
@@ -3582,10 +3582,10 @@
         <v>2018</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" s="6">
         <v>26484.83</v>
@@ -3608,10 +3608,10 @@
         <v>2018</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" s="6">
         <v>442</v>
@@ -3634,10 +3634,10 @@
         <v>2018</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D97" s="6">
         <v>37751.339999999997</v>
@@ -3660,10 +3660,10 @@
         <v>2018</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="6">
         <v>2380</v>
@@ -3686,10 +3686,10 @@
         <v>2018</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" s="6">
         <v>4816.8100000000004</v>
@@ -3712,10 +3712,10 @@
         <v>2019</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" s="6">
         <v>10359.44</v>
@@ -3738,10 +3738,10 @@
         <v>2019</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="6">
         <v>32220.7</v>
@@ -3764,10 +3764,10 @@
         <v>2019</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D102" s="6">
         <v>23709.05</v>
@@ -3790,10 +3790,10 @@
         <v>2019</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" s="6">
         <v>45329.22</v>
@@ -3816,10 +3816,10 @@
         <v>2019</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" s="6">
         <v>2471.4699999999998</v>
@@ -3842,10 +3842,10 @@
         <v>2019</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D105" s="6">
         <v>55887.27</v>
@@ -3868,10 +3868,10 @@
         <v>2019</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106" s="6">
         <v>4574.45</v>
@@ -3894,10 +3894,10 @@
         <v>2019</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D107" s="6">
         <v>59876.82</v>
@@ -3920,10 +3920,10 @@
         <v>2020</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" s="6">
         <v>23432.78</v>
@@ -3946,10 +3946,10 @@
         <v>2020</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="6">
         <v>50010.79</v>
@@ -3972,10 +3972,10 @@
         <v>2020</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D110" s="6">
         <v>47005.55</v>
@@ -3998,10 +3998,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111" s="6">
         <v>99148.38</v>
@@ -4024,10 +4024,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D112" s="6">
         <v>1420.5</v>
@@ -4050,10 +4050,10 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D113" s="6">
         <v>112735.81</v>
@@ -4076,10 +4076,10 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D114" s="6">
         <v>27472.33</v>
@@ -4102,10 +4102,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D115" s="6">
         <v>850401.12</v>
@@ -4128,10 +4128,10 @@
         <v>2021</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D116" s="6">
         <v>39095.480000000003</v>
@@ -4154,10 +4154,10 @@
         <v>2021</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" s="6">
         <v>89585.36</v>
@@ -4180,10 +4180,10 @@
         <v>2021</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D118" s="6">
         <v>80199.75</v>
@@ -4206,10 +4206,10 @@
         <v>2021</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D119" s="6">
         <v>171552.39</v>
@@ -4232,10 +4232,10 @@
         <v>2021</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120" s="6">
         <v>5624.59</v>
@@ -4258,10 +4258,10 @@
         <v>2021</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D121" s="6">
         <v>187017.56</v>
@@ -4284,10 +4284,10 @@
         <v>2021</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D122" s="6">
         <v>102865.16</v>
@@ -4310,10 +4310,10 @@
         <v>2021</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D123" s="6">
         <v>752479.15</v>
@@ -4336,10 +4336,10 @@
         <v>2022</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D124" s="6">
         <v>83886.51</v>
@@ -4362,10 +4362,10 @@
         <v>2022</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125" s="6">
         <v>172809.84</v>
@@ -4388,10 +4388,10 @@
         <v>2022</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D126" s="6">
         <v>204427.94</v>
@@ -4414,10 +4414,10 @@
         <v>2022</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127" s="6">
         <v>420890.02</v>
@@ -4440,10 +4440,10 @@
         <v>2022</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D128" s="6">
         <v>16105.45</v>
@@ -4466,10 +4466,10 @@
         <v>2022</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D129" s="6">
         <v>411213.99</v>
@@ -4492,10 +4492,10 @@
         <v>2022</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D130" s="6">
         <v>316283.38</v>
@@ -4518,10 +4518,10 @@
         <v>2022</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D131" s="6">
         <v>979297.25</v>
@@ -4544,10 +4544,10 @@
         <v>2023</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D132" s="6">
         <v>283071.78999999998</v>
@@ -4570,10 +4570,10 @@
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" s="6">
         <v>626769.46</v>
@@ -4596,10 +4596,10 @@
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D134" s="6">
         <v>681109.37</v>
@@ -4622,10 +4622,10 @@
         <v>2023</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D135" s="6">
         <v>1433004.15</v>
@@ -4648,10 +4648,10 @@
         <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="6">
         <v>126164.38</v>
@@ -4674,10 +4674,10 @@
         <v>2023</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D137" s="6">
         <v>1442617.97</v>
@@ -4700,10 +4700,10 @@
         <v>2023</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D138" s="6">
         <v>577037.43000000005</v>
@@ -4726,10 +4726,10 @@
         <v>2023</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D139" s="6">
         <v>1398489.52</v>
@@ -4752,10 +4752,10 @@
         <v>2024</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D140" s="6">
         <v>5414.8</v>
@@ -4778,10 +4778,10 @@
         <v>2024</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D141" s="6">
         <v>4530</v>
@@ -4804,10 +4804,10 @@
         <v>2024</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D142" s="6">
         <v>8100</v>
@@ -4830,10 +4830,10 @@
         <v>2024</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D143" s="6">
         <v>12240</v>
@@ -4856,10 +4856,10 @@
         <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D144" s="6">
         <v>192150</v>
@@ -4882,10 +4882,10 @@
         <v>2024</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D145" s="6">
         <v>0.3</v>
@@ -4908,10 +4908,10 @@
         <v>2024</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D146" s="6">
         <v>3940.14</v>
@@ -4934,10 +4934,10 @@
         <v>2024</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D147" s="6">
         <v>463495</v>
@@ -4960,10 +4960,10 @@
         <v>2024</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D148" s="6">
         <v>362592.4</v>
@@ -4986,10 +4986,10 @@
         <v>2024</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D149" s="6">
         <v>2203</v>
@@ -5012,10 +5012,10 @@
         <v>2024</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="6">
         <v>120</v>
@@ -5038,10 +5038,10 @@
         <v>2024</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D151" s="6">
         <v>3</v>
@@ -5064,10 +5064,10 @@
         <v>2024</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D152" s="6">
         <v>4164.3</v>
@@ -5090,10 +5090,10 @@
         <v>2024</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D153" s="6">
         <v>13629.6</v>
@@ -5116,10 +5116,10 @@
         <v>2024</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D154" s="6">
         <v>565.20000000000005</v>
@@ -5142,10 +5142,10 @@
         <v>2024</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" s="6">
         <v>2407458.73</v>
@@ -5168,10 +5168,10 @@
         <v>2024</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156" s="6">
         <v>4304220.92</v>
@@ -5194,10 +5194,10 @@
         <v>2024</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D157" s="6">
         <v>4524611.91</v>
@@ -5220,10 +5220,10 @@
         <v>2024</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D158" s="6">
         <v>9132557.9900000002</v>
@@ -5246,10 +5246,10 @@
         <v>2024</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D159" s="6">
         <v>160</v>
@@ -5272,10 +5272,10 @@
         <v>2024</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D160" s="6">
         <v>135.30000000000001</v>
@@ -5298,10 +5298,10 @@
         <v>2024</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D161" s="6">
         <v>60.3</v>
@@ -5324,10 +5324,10 @@
         <v>2024</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D162" s="6">
         <v>120.6</v>
@@ -5350,10 +5350,10 @@
         <v>2024</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D163" s="6">
         <v>60.3</v>
@@ -5376,10 +5376,10 @@
         <v>2024</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D164" s="6">
         <v>301.5</v>
@@ -5402,10 +5402,10 @@
         <v>2024</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D165" s="6">
         <v>6696</v>
@@ -5428,10 +5428,10 @@
         <v>2024</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D166" s="6">
         <v>144</v>
@@ -5454,10 +5454,10 @@
         <v>2024</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D167" s="6">
         <v>6798</v>
@@ -5480,10 +5480,10 @@
         <v>2024</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D168" s="6">
         <v>618</v>
@@ -5506,10 +5506,10 @@
         <v>2024</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D169" s="6">
         <v>25358</v>
@@ -5532,10 +5532,10 @@
         <v>2024</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D170" s="6">
         <v>145</v>
@@ -5558,10 +5558,10 @@
         <v>2024</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D171" s="6">
         <v>217.5</v>
@@ -5584,10 +5584,10 @@
         <v>2024</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D172" s="6">
         <v>117.3</v>
@@ -5610,10 +5610,10 @@
         <v>2024</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D173" s="6">
         <v>34.5</v>
@@ -5636,10 +5636,10 @@
         <v>2024</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D174" s="6">
         <v>1775.6</v>
@@ -5662,10 +5662,10 @@
         <v>2024</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D175" s="6">
         <v>230</v>
@@ -5688,10 +5688,10 @@
         <v>2024</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D176" s="6">
         <v>1412.4</v>
@@ -5714,10 +5714,10 @@
         <v>2024</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D177" s="6">
         <v>60.3</v>
@@ -5740,10 +5740,10 @@
         <v>2024</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D178" s="6">
         <v>41.4</v>
@@ -5766,10 +5766,10 @@
         <v>2024</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D179" s="6">
         <v>2773.8</v>
@@ -5792,10 +5792,10 @@
         <v>2024</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D180" s="6">
         <v>171.6</v>
@@ -5818,10 +5818,10 @@
         <v>2024</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D181" s="6">
         <v>288.60000000000002</v>
@@ -5844,10 +5844,10 @@
         <v>2024</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D182" s="6">
         <v>18596.599999999999</v>
@@ -5870,10 +5870,10 @@
         <v>2024</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D183" s="6">
         <v>10479.799999999999</v>
@@ -5896,10 +5896,10 @@
         <v>2024</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D184" s="6">
         <v>924.5</v>
@@ -5922,10 +5922,10 @@
         <v>2024</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D185" s="6">
         <v>693.5</v>
@@ -5948,10 +5948,10 @@
         <v>2024</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D186" s="6">
         <v>22568</v>
@@ -5974,10 +5974,10 @@
         <v>2024</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D187" s="6">
         <v>521</v>
@@ -6000,10 +6000,10 @@
         <v>2024</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D188" s="6">
         <v>29670</v>
@@ -6026,10 +6026,10 @@
         <v>2024</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D189" s="6">
         <v>396</v>
@@ -6052,10 +6052,10 @@
         <v>2024</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D190" s="6">
         <v>5214</v>
@@ -6078,10 +6078,10 @@
         <v>2024</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D191" s="6">
         <v>58145</v>
@@ -6104,10 +6104,10 @@
         <v>2024</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D192" s="6">
         <v>950.4</v>
@@ -6130,10 +6130,10 @@
         <v>2024</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D193" s="6">
         <v>2280</v>
@@ -6156,10 +6156,10 @@
         <v>2024</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D194" s="6">
         <v>957</v>
@@ -6182,10 +6182,10 @@
         <v>2024</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D195" s="6">
         <v>3979</v>
@@ -6208,10 +6208,10 @@
         <v>2024</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D196" s="6">
         <v>15381.9</v>
@@ -6234,10 +6234,10 @@
         <v>2024</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D197" s="6">
         <v>620.70000000000005</v>
@@ -6260,10 +6260,10 @@
         <v>2024</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D198" s="6">
         <v>288.8</v>
@@ -6286,10 +6286,10 @@
         <v>2024</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D199" s="6">
         <v>2272</v>
@@ -6312,10 +6312,10 @@
         <v>2024</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D200" s="6">
         <v>4302</v>
@@ -6338,10 +6338,10 @@
         <v>2024</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D201" s="6">
         <v>391.1</v>
@@ -6364,10 +6364,10 @@
         <v>2024</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D202" s="6">
         <v>150</v>
@@ -6390,10 +6390,10 @@
         <v>2024</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D203" s="6">
         <v>520.79999999999995</v>
@@ -6416,10 +6416,10 @@
         <v>2024</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D204" s="6">
         <v>40847.800000000003</v>
@@ -6442,10 +6442,10 @@
         <v>2024</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D205" s="6">
         <v>449.8</v>
@@ -6468,10 +6468,10 @@
         <v>2024</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D206" s="6">
         <v>136500</v>
@@ -6494,10 +6494,10 @@
         <v>2024</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D207" s="6">
         <v>111.3</v>
@@ -6520,10 +6520,10 @@
         <v>2024</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D208" s="6">
         <v>52.95</v>
@@ -6546,10 +6546,10 @@
         <v>2024</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D209" s="6">
         <v>2175.1999999999998</v>
@@ -6572,10 +6572,10 @@
         <v>2024</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D210" s="6">
         <v>215869.37</v>
@@ -6598,10 +6598,10 @@
         <v>2024</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D211" s="6">
         <v>400</v>
@@ -6624,10 +6624,10 @@
         <v>2024</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D212" s="6">
         <v>420</v>
@@ -6650,10 +6650,10 @@
         <v>2024</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D213" s="6">
         <v>210</v>
@@ -6676,10 +6676,10 @@
         <v>2024</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D214" s="6">
         <v>15525</v>
@@ -6702,10 +6702,10 @@
         <v>2024</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D215" s="6">
         <v>200</v>
@@ -6728,10 +6728,10 @@
         <v>2024</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D216" s="6">
         <v>16650</v>
@@ -6754,10 +6754,10 @@
         <v>2024</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D217" s="6">
         <v>900</v>
@@ -6780,10 +6780,10 @@
         <v>2024</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D218" s="6">
         <v>14350</v>
@@ -6806,10 +6806,10 @@
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D219" s="6">
         <v>7405</v>
@@ -6832,10 +6832,10 @@
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D220" s="6">
         <v>75</v>
@@ -6858,10 +6858,10 @@
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D221" s="6">
         <v>26114.400000000001</v>
@@ -6884,10 +6884,10 @@
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D222" s="6">
         <v>12503.8</v>
@@ -6910,10 +6910,10 @@
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D223" s="6">
         <v>482.9</v>
@@ -6936,10 +6936,10 @@
         <v>2024</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D224" s="6">
         <v>1253.2</v>
@@ -6962,10 +6962,10 @@
         <v>2024</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D225" s="6">
         <v>47.6</v>
@@ -6988,10 +6988,10 @@
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D226" s="6">
         <v>4149.6000000000004</v>
@@ -7014,10 +7014,10 @@
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D227" s="6">
         <v>3172.5</v>
@@ -7040,10 +7040,10 @@
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D228" s="6">
         <v>2301</v>
@@ -7066,10 +7066,10 @@
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D229" s="6">
         <v>1092</v>
@@ -7092,10 +7092,10 @@
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D230" s="6">
         <v>732</v>
@@ -7118,10 +7118,10 @@
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D231" s="6">
         <v>688.5</v>
@@ -7144,10 +7144,10 @@
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D232" s="6">
         <v>39355</v>
@@ -7170,10 +7170,10 @@
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D233" s="6">
         <v>1320</v>
@@ -7196,10 +7196,10 @@
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D234" s="6">
         <v>1400</v>
@@ -7222,10 +7222,10 @@
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D235" s="6">
         <v>7150</v>
@@ -7248,10 +7248,10 @@
         <v>2024</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D236" s="6">
         <v>4770</v>
@@ -7274,10 +7274,10 @@
         <v>2024</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D237" s="6">
         <v>6050</v>
@@ -7300,10 +7300,10 @@
         <v>2024</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D238" s="6">
         <v>14738753.119999999</v>
@@ -7326,10 +7326,10 @@
         <v>2024</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D239" s="6">
         <v>330</v>
@@ -7352,10 +7352,10 @@
         <v>2024</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D240" s="6">
         <v>233902.3</v>
@@ -7378,10 +7378,10 @@
         <v>2024</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D241" s="6">
         <v>5645205.0300000003</v>
@@ -7404,10 +7404,10 @@
         <v>2024</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D242" s="6">
         <v>571.65</v>
@@ -7430,10 +7430,10 @@
         <v>2024</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D243" s="6">
         <v>1088</v>
@@ -7456,10 +7456,10 @@
         <v>2024</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D244" s="6">
         <v>98272</v>
@@ -7482,10 +7482,10 @@
         <v>2024</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D245" s="6">
         <v>8375</v>
@@ -7508,10 +7508,10 @@
         <v>2024</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D246" s="6">
         <v>96077</v>
@@ -7534,10 +7534,10 @@
         <v>2024</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D247" s="6">
         <v>37.6</v>
@@ -7560,10 +7560,10 @@
         <v>2024</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D248" s="6">
         <v>37.6</v>
@@ -7586,10 +7586,10 @@
         <v>2024</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D249" s="6">
         <v>37.6</v>
@@ -7612,10 +7612,10 @@
         <v>2024</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D250" s="6">
         <v>100.5</v>
@@ -7638,10 +7638,10 @@
         <v>2024</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D251" s="6">
         <v>426.1</v>
@@ -7664,10 +7664,10 @@
         <v>2024</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D252" s="6">
         <v>225.6</v>
@@ -7690,10 +7690,10 @@
         <v>2024</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D253" s="6">
         <v>426.1</v>
@@ -7716,10 +7716,10 @@
         <v>2024</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D254" s="6">
         <v>9560.4</v>
@@ -7742,10 +7742,10 @@
         <v>2024</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D255" s="6">
         <v>179318.26</v>
@@ -7768,10 +7768,10 @@
         <v>2024</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D256" s="6">
         <v>126.6</v>
@@ -7794,10 +7794,10 @@
         <v>2024</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D257" s="6">
         <v>100.5</v>
@@ -7820,10 +7820,10 @@
         <v>2024</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D258" s="6">
         <v>11436.6</v>
@@ -7846,10 +7846,10 @@
         <v>2024</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D259" s="6">
         <v>150.4</v>
@@ -7872,10 +7872,10 @@
         <v>2024</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D260" s="6">
         <v>37.6</v>
@@ -7898,10 +7898,10 @@
         <v>2024</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D261" s="6">
         <v>37.6</v>
@@ -7924,10 +7924,10 @@
         <v>2024</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D262" s="6">
         <v>37.6</v>
@@ -7950,10 +7950,10 @@
         <v>2024</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D263" s="6">
         <v>2935.2</v>
@@ -7976,10 +7976,10 @@
         <v>2024</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D264" s="6">
         <v>1530</v>
@@ -8002,10 +8002,10 @@
         <v>2024</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D265" s="6">
         <v>140.1</v>
@@ -8028,10 +8028,10 @@
         <v>2024</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D266" s="6">
         <v>140.1</v>
@@ -8054,10 +8054,10 @@
         <v>2024</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D267" s="6">
         <v>4355.8999999999996</v>
@@ -8080,10 +8080,10 @@
         <v>2024</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D268" s="6">
         <v>110.8</v>
@@ -8106,10 +8106,10 @@
         <v>2024</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D269" s="6">
         <v>140.1</v>
@@ -8132,10 +8132,10 @@
         <v>2024</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D270" s="6">
         <v>136</v>
@@ -8158,10 +8158,10 @@
         <v>2024</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D271" s="6">
         <v>9225.2999999999993</v>
@@ -8184,10 +8184,10 @@
         <v>2024</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D272" s="6">
         <v>5605.2</v>
@@ -8210,10 +8210,10 @@
         <v>2024</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D273" s="6">
         <v>227.9</v>
@@ -8236,10 +8236,10 @@
         <v>2024</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D274" s="6">
         <v>1341</v>
@@ -8262,10 +8262,10 @@
         <v>2024</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D275" s="6">
         <v>3072.3</v>
@@ -8288,10 +8288,10 @@
         <v>2024</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D276" s="6">
         <v>368.1</v>
@@ -8314,10 +8314,10 @@
         <v>2024</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D277" s="6">
         <v>796.7</v>
@@ -8340,10 +8340,10 @@
         <v>2024</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D278" s="6">
         <v>2390.1</v>
@@ -8366,10 +8366,10 @@
         <v>2024</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D279" s="6">
         <v>3983.5</v>
@@ -8392,10 +8392,10 @@
         <v>2024</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D280" s="6">
         <v>3345.3</v>
@@ -8418,10 +8418,10 @@
         <v>2024</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D281" s="6">
         <v>2247</v>
@@ -8444,10 +8444,10 @@
         <v>2024</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D282" s="6">
         <v>108855</v>
@@ -8470,10 +8470,10 @@
         <v>2024</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D283" s="6">
         <v>27972</v>
@@ -8496,10 +8496,10 @@
         <v>2024</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D284" s="6">
         <v>1874</v>
@@ -8522,10 +8522,10 @@
         <v>2024</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D285" s="6">
         <v>54.6</v>
@@ -8548,10 +8548,10 @@
         <v>2024</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D286" s="6">
         <v>1680</v>
@@ -8574,10 +8574,10 @@
         <v>2024</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D287" s="6">
         <v>2100</v>
@@ -8600,10 +8600,10 @@
         <v>2024</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D288" s="6">
         <v>70</v>
@@ -8626,10 +8626,10 @@
         <v>2024</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D289" s="6">
         <v>4980</v>
@@ -8652,10 +8652,10 @@
         <v>2024</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D290" s="6">
         <v>3760</v>
@@ -8678,10 +8678,10 @@
         <v>2024</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D291" s="6">
         <v>409.2</v>
@@ -8704,10 +8704,10 @@
         <v>2024</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D292" s="6">
         <v>33.5</v>
@@ -8730,10 +8730,10 @@
         <v>2024</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D293" s="6">
         <v>167.5</v>
@@ -8756,10 +8756,10 @@
         <v>2024</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D294" s="6">
         <v>23052.1</v>
@@ -8782,10 +8782,10 @@
         <v>2024</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D295" s="6">
         <v>916.1</v>
@@ -8808,10 +8808,10 @@
         <v>2024</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D296" s="6">
         <v>4380</v>
@@ -8834,10 +8834,10 @@
         <v>2024</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D297" s="6">
         <v>261</v>
@@ -8860,10 +8860,10 @@
         <v>2024</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D298" s="6">
         <v>744.5</v>
@@ -8886,10 +8886,10 @@
         <v>2024</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D299" s="6">
         <v>234.5</v>
@@ -8912,10 +8912,10 @@
         <v>2024</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D300" s="6">
         <v>2486497.0299999998</v>
@@ -8938,10 +8938,10 @@
         <v>2024</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D301" s="6">
         <v>1994860.19</v>
@@ -8964,10 +8964,10 @@
         <v>2024</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D302" s="6">
         <v>5073</v>
@@ -8990,10 +8990,10 @@
         <v>2024</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D303" s="6">
         <v>3078</v>
@@ -9016,10 +9016,10 @@
         <v>2024</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D304" s="6">
         <v>570.64</v>
@@ -9042,10 +9042,10 @@
         <v>2024</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D305" s="6">
         <v>2828.87</v>
@@ -9068,10 +9068,10 @@
         <v>2024</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D306" s="6">
         <v>6</v>
@@ -9094,10 +9094,10 @@
         <v>2024</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D307" s="6">
         <v>2191</v>
@@ -9120,10 +9120,10 @@
         <v>2024</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D308" s="6">
         <v>1510</v>
@@ -9146,10 +9146,10 @@
         <v>2024</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D309" s="6">
         <v>220</v>
@@ -9172,10 +9172,10 @@
         <v>2024</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D310" s="6">
         <v>1560</v>
@@ -9198,10 +9198,10 @@
         <v>2024</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D311" s="6">
         <v>7882</v>
@@ -9224,10 +9224,10 @@
         <v>2024</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D312" s="6">
         <v>3645</v>
@@ -9250,10 +9250,10 @@
         <v>2024</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D313" s="6">
         <v>13090</v>
@@ -9276,10 +9276,10 @@
         <v>2024</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D314" s="6">
         <v>90</v>
@@ -9302,10 +9302,10 @@
         <v>2024</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D315" s="6">
         <v>33</v>
@@ -9328,10 +9328,10 @@
         <v>2024</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D316" s="6">
         <v>15439.41</v>
@@ -9354,10 +9354,10 @@
         <v>2024</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D317" s="6">
         <v>268.39999999999998</v>
@@ -9380,10 +9380,10 @@
         <v>2024</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D318" s="6">
         <v>1908</v>
@@ -9406,10 +9406,10 @@
         <v>2024</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D319" s="6">
         <v>533.70000000000005</v>
@@ -9432,10 +9432,10 @@
         <v>2024</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D320" s="6">
         <v>847</v>
@@ -9458,10 +9458,10 @@
         <v>2024</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D321" s="6">
         <v>8011.5</v>
@@ -9484,10 +9484,10 @@
         <v>2024</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D322" s="6">
         <v>327.3</v>
@@ -9510,10 +9510,10 @@
         <v>2024</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D323" s="6">
         <v>1447.2</v>
@@ -9536,10 +9536,10 @@
         <v>2024</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D324" s="6">
         <v>9751.5</v>
@@ -9562,10 +9562,10 @@
         <v>2024</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D325" s="6">
         <v>840</v>
@@ -9588,10 +9588,10 @@
         <v>2024</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D326" s="6">
         <v>1071</v>
@@ -9614,10 +9614,10 @@
         <v>2024</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D327" s="6">
         <v>52</v>
@@ -9640,10 +9640,10 @@
         <v>2024</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D328" s="6">
         <v>4320</v>
@@ -9666,10 +9666,10 @@
         <v>2024</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D329" s="6">
         <v>2300</v>
@@ -9692,10 +9692,10 @@
         <v>2024</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D330" s="6">
         <v>62968</v>
@@ -9718,10 +9718,10 @@
         <v>2024</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D331" s="6">
         <v>6</v>
@@ -9744,10 +9744,10 @@
         <v>2024</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D332" s="6">
         <v>16.8</v>
@@ -9770,10 +9770,10 @@
         <v>2024</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D333" s="6">
         <v>1</v>
@@ -9796,10 +9796,10 @@
         <v>2024</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D334" s="6">
         <v>2</v>
@@ -9822,10 +9822,10 @@
         <v>2024</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D335" s="6">
         <v>18810</v>
@@ -9848,10 +9848,10 @@
         <v>2024</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D336" s="6">
         <v>140</v>
@@ -9874,10 +9874,10 @@
         <v>2024</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D337" s="6">
         <v>75</v>
@@ -9900,10 +9900,10 @@
         <v>2024</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D338" s="6">
         <v>750</v>
@@ -9926,10 +9926,10 @@
         <v>2024</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D339" s="6">
         <v>450</v>
@@ -9952,10 +9952,10 @@
         <v>2024</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D340" s="6">
         <v>225</v>
@@ -9978,10 +9978,10 @@
         <v>2024</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D341" s="6">
         <v>140</v>
@@ -10004,10 +10004,10 @@
         <v>2024</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D342" s="6">
         <v>70</v>
@@ -10030,10 +10030,10 @@
         <v>2024</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D343" s="6">
         <v>75</v>
@@ -10056,10 +10056,10 @@
         <v>2024</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D344" s="6">
         <v>160</v>
@@ -10082,10 +10082,10 @@
         <v>2024</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D345" s="6">
         <v>525</v>
@@ -10108,10 +10108,10 @@
         <v>2024</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D346" s="6">
         <v>300</v>
@@ -10134,10 +10134,10 @@
         <v>2024</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D347" s="6">
         <v>225</v>
@@ -10160,10 +10160,10 @@
         <v>2024</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D348" s="6">
         <v>75</v>
@@ -10186,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D349" s="6">
         <v>75</v>
@@ -10212,10 +10212,10 @@
         <v>2024</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D350" s="6">
         <v>1024</v>
@@ -10238,10 +10238,10 @@
         <v>2024</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D351" s="6">
         <v>5255</v>
@@ -10264,10 +10264,10 @@
         <v>2024</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D352" s="6">
         <v>75</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="224">
   <si>
     <t>SUBCONCEPTO DE PAGO</t>
   </si>
@@ -688,9 +688,6 @@
   </si>
   <si>
     <t>anio_deuda</t>
-  </si>
-  <si>
-    <t>coSTAS PROCESALES</t>
   </si>
   <si>
     <t>concepto</t>
@@ -1121,7 +1118,7 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1138,7 @@
         <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1167,7 +1164,7 @@
         <v>1999</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -4553,19 +4550,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="6">
-        <v>283231</v>
+        <v>283240.26</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
       </c>
       <c r="F132" s="6">
-        <v>25294.83</v>
+        <v>25296.18</v>
       </c>
       <c r="G132" s="6">
         <v>0.04</v>
       </c>
       <c r="H132" s="6">
-        <v>308525.78999999998</v>
+        <v>308536.40000000002</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4579,19 +4576,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="6">
-        <v>627116.54</v>
+        <v>627180.30000000005</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
       </c>
       <c r="F133" s="6">
-        <v>59395.11</v>
+        <v>59404.75</v>
       </c>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="H133" s="6">
-        <v>686511.65</v>
+        <v>686585.05</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4605,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="6">
-        <v>681499.87</v>
+        <v>681652.91</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
       </c>
       <c r="F134" s="6">
-        <v>60009.11</v>
+        <v>60032.38</v>
       </c>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="H134" s="6">
-        <v>741508.98</v>
+        <v>741685.29</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4631,19 +4628,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="6">
-        <v>1433792.94</v>
+        <v>1434090.14</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
       </c>
       <c r="F135" s="6">
-        <v>127652.33</v>
+        <v>127697.53</v>
       </c>
       <c r="G135" s="6">
         <v>1.98</v>
       </c>
       <c r="H135" s="6">
-        <v>1561443.29</v>
+        <v>1561785.69</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,7 +4683,7 @@
         <v>1442650.42</v>
       </c>
       <c r="E137" s="6">
-        <v>21067.93</v>
+        <v>21073.99</v>
       </c>
       <c r="F137" s="6">
         <v>135149.03</v>
@@ -4695,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="6">
-        <v>1598867.38</v>
+        <v>1598873.44</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5151,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="6">
-        <v>2409171.1</v>
+        <v>2409884.09</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>13881.08</v>
+        <v>13902.37</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2349712.77</v>
+        <v>2350447.0499999998</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="6">
-        <v>4306782.22</v>
+        <v>4308006.16</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26113.95</v>
+        <v>26148.54</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4208624.01</v>
+        <v>4209882.54</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="6">
-        <v>4526619.54</v>
+        <v>4527826.5599999996</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>29750.26</v>
+        <v>29774.33</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4365749.07</v>
+        <v>4366980.16</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5229,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="6">
-        <v>9136567.4700000007</v>
+        <v>9138563.3599999994</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62277.599999999999</v>
+        <v>62317.54</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8875039.3699999992</v>
+        <v>8877075.1999999993</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6581,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="6">
-        <v>216470.87</v>
+        <v>216661.87</v>
       </c>
       <c r="E210" s="6">
-        <v>240781.69</v>
+        <v>240971.69</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -6593,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="6">
-        <v>457252.56</v>
+        <v>457633.56</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7309,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="6">
-        <v>14744181.970000001</v>
+        <v>14747188.08</v>
       </c>
       <c r="E238" s="6">
         <v>214490.63</v>
       </c>
       <c r="F238" s="6">
-        <v>72014.98</v>
+        <v>72039.64</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15030687.58</v>
+        <v>15033718.35</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8921,7 +8918,7 @@
         <v>15</v>
       </c>
       <c r="D300" s="6">
-        <v>2488557.0299999998</v>
+        <v>2494737.0299999998</v>
       </c>
       <c r="E300" s="6">
         <v>0</v>
@@ -8930,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="6">
-        <v>1172374.82</v>
+        <v>1175464.82</v>
       </c>
       <c r="H300" s="6">
-        <v>1316182.21</v>
+        <v>1319272.21</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10291,7 +10288,7 @@
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,19 +1117,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4446,10 +4444,10 @@
         <v>13</v>
       </c>
       <c r="D128" s="6">
-        <v>16105.45</v>
+        <v>16118.45</v>
       </c>
       <c r="E128" s="6">
-        <v>23036.92</v>
+        <v>23056.92</v>
       </c>
       <c r="F128" s="6">
         <v>0</v>
@@ -4458,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="6">
-        <v>39142.370000000003</v>
+        <v>39175.370000000003</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,19 +4548,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="6">
-        <v>283240.26</v>
+        <v>283309.34999999998</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
       </c>
       <c r="F132" s="6">
-        <v>25296.18</v>
+        <v>25306.59</v>
       </c>
       <c r="G132" s="6">
         <v>0.04</v>
       </c>
       <c r="H132" s="6">
-        <v>308536.40000000002</v>
+        <v>308615.90000000002</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4574,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="6">
-        <v>627180.30000000005</v>
+        <v>627420.38</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
       </c>
       <c r="F133" s="6">
-        <v>59404.75</v>
+        <v>59441.08</v>
       </c>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="H133" s="6">
-        <v>686585.05</v>
+        <v>686861.46</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4600,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="6">
-        <v>681652.91</v>
+        <v>681955.81</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
       </c>
       <c r="F134" s="6">
-        <v>60032.38</v>
+        <v>60076.84</v>
       </c>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="H134" s="6">
-        <v>741685.29</v>
+        <v>742032.65</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4626,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="6">
-        <v>1434090.14</v>
+        <v>1434460.01</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
       </c>
       <c r="F135" s="6">
-        <v>127697.53</v>
+        <v>127752.33</v>
       </c>
       <c r="G135" s="6">
         <v>1.98</v>
       </c>
       <c r="H135" s="6">
-        <v>1561785.69</v>
+        <v>1562210.36</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,10 +4652,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="6">
-        <v>126248.88</v>
+        <v>126300.88</v>
       </c>
       <c r="E136" s="6">
-        <v>181313.22</v>
+        <v>181393.22</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -4666,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="6">
-        <v>307562.09999999998</v>
+        <v>307694.09999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,19 +4678,19 @@
         <v>7</v>
       </c>
       <c r="D137" s="6">
-        <v>1442650.42</v>
+        <v>1443378.52</v>
       </c>
       <c r="E137" s="6">
         <v>21073.99</v>
       </c>
       <c r="F137" s="6">
-        <v>135149.03</v>
+        <v>135247.20000000001</v>
       </c>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="H137" s="6">
-        <v>1598873.44</v>
+        <v>1599699.71</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4938,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="6">
-        <v>463575</v>
+        <v>463755</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -4952,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>463575</v>
+        <v>463755</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5146,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="6">
-        <v>2409884.09</v>
+        <v>2410224.4700000002</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>13902.37</v>
+        <v>13910.74</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2350447.0499999998</v>
+        <v>2350795.7999999998</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5172,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="6">
-        <v>4308006.16</v>
+        <v>4308774.05</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26148.54</v>
+        <v>26166.44</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4209882.54</v>
+        <v>4210668.33</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5198,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="6">
-        <v>4527826.5599999996</v>
+        <v>4528748.6900000004</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>29774.33</v>
+        <v>29794.97</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4366980.16</v>
+        <v>4367922.93</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5224,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="6">
-        <v>9138563.3599999994</v>
+        <v>9140278.4700000007</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62317.54</v>
+        <v>62358.86</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8877075.1999999993</v>
+        <v>8878831.6300000008</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6576,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="6">
-        <v>216661.87</v>
+        <v>216902.37</v>
       </c>
       <c r="E210" s="6">
-        <v>240971.69</v>
+        <v>241341.69</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -6590,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="6">
-        <v>457633.56</v>
+        <v>458244.06</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7304,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="6">
-        <v>14747188.08</v>
+        <v>14750799.460000001</v>
       </c>
       <c r="E238" s="6">
-        <v>214490.63</v>
+        <v>214502.75</v>
       </c>
       <c r="F238" s="6">
-        <v>72039.64</v>
+        <v>72140.7</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15033718.35</v>
+        <v>15037442.91</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9462,7 @@
         <v>190</v>
       </c>
       <c r="D321" s="6">
-        <v>8026.2</v>
+        <v>8031.1</v>
       </c>
       <c r="E321" s="6">
         <v>0</v>
@@ -9476,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="6">
-        <v>8026.2</v>
+        <v>8031.1</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,17 +1117,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
     <col min="9" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4340,19 +4342,19 @@
         <v>12</v>
       </c>
       <c r="D124" s="6">
-        <v>83891.19</v>
+        <v>83894.43</v>
       </c>
       <c r="E124" s="6">
         <v>0</v>
       </c>
       <c r="F124" s="6">
-        <v>17658.3</v>
+        <v>17659.18</v>
       </c>
       <c r="G124" s="6">
         <v>0</v>
       </c>
       <c r="H124" s="6">
-        <v>101549.49</v>
+        <v>101553.61</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,19 +4368,19 @@
         <v>9</v>
       </c>
       <c r="D125" s="6">
-        <v>172816.26</v>
+        <v>172857.93</v>
       </c>
       <c r="E125" s="6">
         <v>0</v>
       </c>
       <c r="F125" s="6">
-        <v>36167.57</v>
+        <v>36178.79</v>
       </c>
       <c r="G125" s="6">
         <v>0</v>
       </c>
       <c r="H125" s="6">
-        <v>208983.83</v>
+        <v>209036.72</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,19 +4394,19 @@
         <v>10</v>
       </c>
       <c r="D126" s="6">
-        <v>204447.62</v>
+        <v>204565.61</v>
       </c>
       <c r="E126" s="6">
         <v>0</v>
       </c>
       <c r="F126" s="6">
-        <v>42892.38</v>
+        <v>42924.13</v>
       </c>
       <c r="G126" s="6">
         <v>0</v>
       </c>
       <c r="H126" s="6">
-        <v>247340</v>
+        <v>247489.74</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,19 +4420,19 @@
         <v>11</v>
       </c>
       <c r="D127" s="6">
-        <v>420916.33</v>
+        <v>421070.59</v>
       </c>
       <c r="E127" s="6">
         <v>0</v>
       </c>
       <c r="F127" s="6">
-        <v>88680.69</v>
+        <v>88722.2</v>
       </c>
       <c r="G127" s="6">
         <v>0.9</v>
       </c>
       <c r="H127" s="6">
-        <v>509596.12</v>
+        <v>509791.89</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4470,19 +4472,19 @@
         <v>7</v>
       </c>
       <c r="D129" s="6">
-        <v>411213.99</v>
+        <v>411436.87</v>
       </c>
       <c r="E129" s="6">
         <v>8082</v>
       </c>
       <c r="F129" s="6">
-        <v>116418.04</v>
+        <v>116492.14</v>
       </c>
       <c r="G129" s="6">
         <v>0</v>
       </c>
       <c r="H129" s="6">
-        <v>535714.03</v>
+        <v>536011.01</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4548,19 +4550,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="6">
-        <v>283309.34999999998</v>
+        <v>283416.09000000003</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
       </c>
       <c r="F132" s="6">
-        <v>25306.59</v>
+        <v>25322.26</v>
       </c>
       <c r="G132" s="6">
         <v>0.04</v>
       </c>
       <c r="H132" s="6">
-        <v>308615.90000000002</v>
+        <v>308738.31</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4574,19 +4576,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="6">
-        <v>627420.38</v>
+        <v>627696.98</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
       </c>
       <c r="F133" s="6">
-        <v>59441.08</v>
+        <v>59483.58</v>
       </c>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="H133" s="6">
-        <v>686861.46</v>
+        <v>687180.56</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="6">
-        <v>681955.81</v>
+        <v>682288.74</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
       </c>
       <c r="F134" s="6">
-        <v>60076.84</v>
+        <v>60128.94</v>
       </c>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="H134" s="6">
-        <v>742032.65</v>
+        <v>742417.68</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4626,19 +4628,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="6">
-        <v>1434460.01</v>
+        <v>1435301.86</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
       </c>
       <c r="F135" s="6">
-        <v>127752.33</v>
+        <v>127882.05</v>
       </c>
       <c r="G135" s="6">
         <v>1.98</v>
       </c>
       <c r="H135" s="6">
-        <v>1562210.36</v>
+        <v>1563181.93</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4652,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="6">
-        <v>126300.88</v>
+        <v>126365.88</v>
       </c>
       <c r="E136" s="6">
-        <v>181393.22</v>
+        <v>181493.22</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -4664,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="6">
-        <v>307694.09999999998</v>
+        <v>307859.09999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4678,19 +4680,19 @@
         <v>7</v>
       </c>
       <c r="D137" s="6">
-        <v>1443378.52</v>
+        <v>1443738.52</v>
       </c>
       <c r="E137" s="6">
-        <v>21073.99</v>
+        <v>21081.200000000001</v>
       </c>
       <c r="F137" s="6">
-        <v>135247.20000000001</v>
+        <v>135307.99</v>
       </c>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="H137" s="6">
-        <v>1599699.71</v>
+        <v>1600127.71</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5146,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="6">
-        <v>2410224.4700000002</v>
+        <v>2410834.14</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>13910.74</v>
+        <v>13924.45</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2350795.7999999998</v>
+        <v>2351419.1800000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="6">
-        <v>4308774.05</v>
+        <v>4309515.84</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26166.44</v>
+        <v>26176.5</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4210668.33</v>
+        <v>4211420.18</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5198,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="6">
-        <v>4528748.6900000004</v>
+        <v>4529595.1399999997</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>29794.97</v>
+        <v>29811.83</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4367922.93</v>
+        <v>4368786.24</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5224,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="6">
-        <v>9140278.4700000007</v>
+        <v>9141811.1699999999</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62358.86</v>
+        <v>62387.26</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8878831.6300000008</v>
+        <v>8880392.7300000004</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6576,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="6">
-        <v>216902.37</v>
+        <v>217015.37</v>
       </c>
       <c r="E210" s="6">
-        <v>241341.69</v>
+        <v>241411.69</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -6588,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="6">
-        <v>458244.06</v>
+        <v>458427.06</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7304,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="6">
-        <v>14750799.460000001</v>
+        <v>14751599.109999999</v>
       </c>
       <c r="E238" s="6">
-        <v>214502.75</v>
+        <v>214520.93</v>
       </c>
       <c r="F238" s="6">
-        <v>72140.7</v>
+        <v>72146.100000000006</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15037442.91</v>
+        <v>15038266.140000001</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8916,7 +8918,7 @@
         <v>15</v>
       </c>
       <c r="D300" s="6">
-        <v>2494737.0299999998</v>
+        <v>2495767.0299999998</v>
       </c>
       <c r="E300" s="6">
         <v>0</v>
@@ -8925,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="6">
-        <v>1175464.82</v>
+        <v>1175979.82</v>
       </c>
       <c r="H300" s="6">
-        <v>1319272.21</v>
+        <v>1319787.21</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="6">
-        <v>463835</v>
+        <v>463945</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>463835</v>
+        <v>463945</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="6">
-        <v>2412014.5099999998</v>
+        <v>2412204.38</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>13948.18</v>
+        <v>13949.95</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2352623.2799999998</v>
+        <v>2352814.92</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="6">
-        <v>4312864.09</v>
+        <v>4313108.1500000004</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26246.67</v>
+        <v>26250.81</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4214838.5999999996</v>
+        <v>4215086.8</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="6">
-        <v>4532210.03</v>
+        <v>4532613.49</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>29887.83</v>
+        <v>29897.119999999999</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4371477.13</v>
+        <v>4371889.88</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="6">
-        <v>9146784.7699999996</v>
+        <v>9147659.9900000002</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62518.58</v>
+        <v>62539.27</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8885497.6500000004</v>
+        <v>8886393.5600000005</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="6">
-        <v>14773363.310000001</v>
+        <v>14774175.119999999</v>
       </c>
       <c r="E238" s="6">
-        <v>214604</v>
+        <v>214611.21</v>
       </c>
       <c r="F238" s="6">
-        <v>72707.8</v>
+        <v>72733.56</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15060675.109999999</v>
+        <v>15061519.890000001</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3068,19 +3068,19 @@
         <v>7</v>
       </c>
       <c r="D75" s="5">
-        <v>6067.4</v>
+        <v>6140.79</v>
       </c>
       <c r="E75" s="5">
-        <v>143.6</v>
+        <v>148.5</v>
       </c>
       <c r="F75" s="5">
-        <v>7238.46</v>
+        <v>7329.66</v>
       </c>
       <c r="G75" s="5">
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>13449.46</v>
+        <v>13618.95</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,19 +3250,19 @@
         <v>7</v>
       </c>
       <c r="D82" s="5">
-        <v>9946.7900000000009</v>
+        <v>10004.48</v>
       </c>
       <c r="E82" s="5">
-        <v>248.63</v>
+        <v>254.33</v>
       </c>
       <c r="F82" s="5">
-        <v>10442.26</v>
+        <v>10504.84</v>
       </c>
       <c r="G82" s="5">
         <v>0</v>
       </c>
       <c r="H82" s="5">
-        <v>20637.68</v>
+        <v>20763.650000000001</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3302,19 +3302,19 @@
         <v>12</v>
       </c>
       <c r="D84" s="5">
-        <v>3579.6</v>
+        <v>3597.48</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
       <c r="F84" s="5">
-        <v>3094.06</v>
+        <v>3109.33</v>
       </c>
       <c r="G84" s="5">
         <v>0</v>
       </c>
       <c r="H84" s="5">
-        <v>6673.66</v>
+        <v>6706.81</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,19 +3328,19 @@
         <v>9</v>
       </c>
       <c r="D85" s="5">
-        <v>10755.83</v>
+        <v>10779.98</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
       </c>
       <c r="F85" s="5">
-        <v>9244.5</v>
+        <v>9265.11</v>
       </c>
       <c r="G85" s="5">
         <v>0</v>
       </c>
       <c r="H85" s="5">
-        <v>20000.330000000002</v>
+        <v>20045.09</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3354,19 +3354,19 @@
         <v>10</v>
       </c>
       <c r="D86" s="5">
-        <v>9324.9599999999991</v>
+        <v>9354.0300000000007</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
       </c>
       <c r="F86" s="5">
-        <v>8049.24</v>
+        <v>8074.08</v>
       </c>
       <c r="G86" s="5">
         <v>0</v>
       </c>
       <c r="H86" s="5">
-        <v>17374.2</v>
+        <v>17428.11</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,19 +3380,19 @@
         <v>11</v>
       </c>
       <c r="D87" s="5">
-        <v>16512.89</v>
+        <v>16611.62</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
       </c>
       <c r="F87" s="5">
-        <v>14288.21</v>
+        <v>14372.54</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
       </c>
       <c r="H87" s="5">
-        <v>30801.1</v>
+        <v>30984.16</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3458,19 +3458,19 @@
         <v>7</v>
       </c>
       <c r="D90" s="5">
-        <v>28390.35</v>
+        <v>28412.57</v>
       </c>
       <c r="E90" s="5">
         <v>588.79999999999995</v>
       </c>
       <c r="F90" s="5">
-        <v>24638.18</v>
+        <v>24657.41</v>
       </c>
       <c r="G90" s="5">
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>53617.33</v>
+        <v>53658.78</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3510,19 +3510,19 @@
         <v>12</v>
       </c>
       <c r="D92" s="5">
-        <v>5318.88</v>
+        <v>5337.12</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
       </c>
       <c r="F92" s="5">
-        <v>3826.94</v>
+        <v>3839.84</v>
       </c>
       <c r="G92" s="5">
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>9145.82</v>
+        <v>9176.9599999999991</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,19 +3536,19 @@
         <v>9</v>
       </c>
       <c r="D93" s="5">
-        <v>21398.31</v>
+        <v>21422.94</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>15240.37</v>
+        <v>15257.8</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>36638.68</v>
+        <v>36680.74</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3562,19 +3562,19 @@
         <v>10</v>
       </c>
       <c r="D94" s="5">
-        <v>14466.03</v>
+        <v>14495.67</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
       <c r="F94" s="5">
-        <v>10449.61</v>
+        <v>10470.58</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>24915.64</v>
+        <v>24966.25</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3588,19 +3588,19 @@
         <v>11</v>
       </c>
       <c r="D95" s="5">
-        <v>26484.83</v>
+        <v>26585.42</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
       <c r="F95" s="5">
-        <v>19221.45</v>
+        <v>19292.580000000002</v>
       </c>
       <c r="G95" s="5">
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>45706.28</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3640,19 +3640,19 @@
         <v>7</v>
       </c>
       <c r="D97" s="5">
-        <v>37751.339999999997</v>
+        <v>37776.01</v>
       </c>
       <c r="E97" s="5">
         <v>1372.3</v>
       </c>
       <c r="F97" s="5">
-        <v>28963.75</v>
+        <v>28982.17</v>
       </c>
       <c r="G97" s="5">
         <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>68087.39</v>
+        <v>68130.48</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3718,19 +3718,19 @@
         <v>12</v>
       </c>
       <c r="D100" s="5">
-        <v>10359.44</v>
+        <v>10377.86</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
       </c>
       <c r="F100" s="5">
-        <v>5883.17</v>
+        <v>5893.52</v>
       </c>
       <c r="G100" s="5">
         <v>0</v>
       </c>
       <c r="H100" s="5">
-        <v>16242.61</v>
+        <v>16271.38</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3744,19 +3744,19 @@
         <v>9</v>
       </c>
       <c r="D101" s="5">
-        <v>32220.7</v>
+        <v>32245.57</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
       <c r="F101" s="5">
-        <v>18969.39</v>
+        <v>18983.34</v>
       </c>
       <c r="G101" s="5">
         <v>0</v>
       </c>
       <c r="H101" s="5">
-        <v>51190.09</v>
+        <v>51228.91</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3770,19 +3770,19 @@
         <v>10</v>
       </c>
       <c r="D102" s="5">
-        <v>23709.05</v>
+        <v>23738.99</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
       <c r="F102" s="5">
-        <v>13504.1</v>
+        <v>13520.9</v>
       </c>
       <c r="G102" s="5">
         <v>0</v>
       </c>
       <c r="H102" s="5">
-        <v>37213.15</v>
+        <v>37259.89</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3796,19 +3796,19 @@
         <v>11</v>
       </c>
       <c r="D103" s="5">
-        <v>45329.22</v>
+        <v>45430.92</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <v>26013.23</v>
+        <v>26070.32</v>
       </c>
       <c r="G103" s="5">
         <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>71342.45</v>
+        <v>71501.240000000005</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3848,19 +3848,19 @@
         <v>7</v>
       </c>
       <c r="D105" s="5">
-        <v>55887.27</v>
+        <v>55912.91</v>
       </c>
       <c r="E105" s="5">
         <v>1892.6</v>
       </c>
       <c r="F105" s="5">
-        <v>33115.96</v>
+        <v>33131.019999999997</v>
       </c>
       <c r="G105" s="5">
         <v>83.64</v>
       </c>
       <c r="H105" s="5">
-        <v>90812.19</v>
+        <v>90852.89</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3926,19 +3926,19 @@
         <v>12</v>
       </c>
       <c r="D108" s="5">
-        <v>23434.69</v>
+        <v>23455.87</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
       <c r="F108" s="5">
-        <v>10422.129999999999</v>
+        <v>10431.530000000001</v>
       </c>
       <c r="G108" s="5">
         <v>0</v>
       </c>
       <c r="H108" s="5">
-        <v>33856.82</v>
+        <v>33887.4</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3952,19 +3952,19 @@
         <v>9</v>
       </c>
       <c r="D109" s="5">
-        <v>50015.64</v>
+        <v>50040.72</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <v>22474.41</v>
+        <v>22485.55</v>
       </c>
       <c r="G109" s="5">
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>72490.05</v>
+        <v>72526.27</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,19 +3978,19 @@
         <v>10</v>
       </c>
       <c r="D110" s="5">
-        <v>47006</v>
+        <v>47036.87</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>20914.919999999998</v>
+        <v>20928.62</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>67920.92</v>
+        <v>67965.490000000005</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,19 +4004,19 @@
         <v>11</v>
       </c>
       <c r="D111" s="5">
-        <v>99161.58</v>
+        <v>99276.99</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>44196.73</v>
+        <v>44247.96</v>
       </c>
       <c r="G111" s="5">
         <v>6.98</v>
       </c>
       <c r="H111" s="5">
-        <v>143351.32999999999</v>
+        <v>143517.97</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,19 +4056,19 @@
         <v>7</v>
       </c>
       <c r="D113" s="5">
-        <v>112735.81</v>
+        <v>112762.19</v>
       </c>
       <c r="E113" s="5">
         <v>2715.84</v>
       </c>
       <c r="F113" s="5">
-        <v>50952.22</v>
+        <v>50963.93</v>
       </c>
       <c r="G113" s="5">
         <v>0</v>
       </c>
       <c r="H113" s="5">
-        <v>166403.87</v>
+        <v>166441.96</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4134,19 +4134,19 @@
         <v>12</v>
       </c>
       <c r="D116" s="5">
-        <v>39146.36</v>
+        <v>39178.49</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
       <c r="F116" s="5">
-        <v>12593.63</v>
+        <v>12604.3</v>
       </c>
       <c r="G116" s="5">
         <v>0</v>
       </c>
       <c r="H116" s="5">
-        <v>51739.99</v>
+        <v>51782.79</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,19 +4160,19 @@
         <v>9</v>
       </c>
       <c r="D117" s="5">
-        <v>89693.119999999995</v>
+        <v>89739.9</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>29069.200000000001</v>
+        <v>29084.78</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>118762.32</v>
+        <v>118824.68</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4186,19 +4186,19 @@
         <v>10</v>
       </c>
       <c r="D118" s="5">
-        <v>80276.59</v>
+        <v>80359.14</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>25795.11</v>
+        <v>25822.65</v>
       </c>
       <c r="G118" s="5">
         <v>5.19</v>
       </c>
       <c r="H118" s="5">
-        <v>106066.51</v>
+        <v>106176.6</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4212,19 +4212,19 @@
         <v>11</v>
       </c>
       <c r="D119" s="5">
-        <v>171731.93</v>
+        <v>171926.9</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>55610.92</v>
+        <v>55675.76</v>
       </c>
       <c r="G119" s="5">
         <v>0</v>
       </c>
       <c r="H119" s="5">
-        <v>227342.85</v>
+        <v>227602.66</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4264,19 +4264,19 @@
         <v>7</v>
       </c>
       <c r="D121" s="5">
-        <v>187017.56</v>
+        <v>187043.99</v>
       </c>
       <c r="E121" s="5">
         <v>4343.8</v>
       </c>
       <c r="F121" s="5">
-        <v>77606.460000000006</v>
+        <v>77619.070000000007</v>
       </c>
       <c r="G121" s="5">
         <v>0</v>
       </c>
       <c r="H121" s="5">
-        <v>268967.82</v>
+        <v>269006.86</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,19 +4342,19 @@
         <v>12</v>
       </c>
       <c r="D124" s="5">
-        <v>83899.14</v>
+        <v>83988.53</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>17660.61</v>
+        <v>17684.79</v>
       </c>
       <c r="G124" s="5">
         <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>101559.75</v>
+        <v>101673.32</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>9</v>
       </c>
       <c r="D125" s="5">
-        <v>172873.89</v>
+        <v>173027.97</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>36183.58</v>
+        <v>36226.11</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>209057.47</v>
+        <v>209254.08</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>10</v>
       </c>
       <c r="D126" s="5">
-        <v>204608.45</v>
+        <v>204810.77</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>42937.01</v>
+        <v>42992.81</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>247545.46</v>
+        <v>247803.58</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>11</v>
       </c>
       <c r="D127" s="5">
-        <v>421130.62</v>
+        <v>421669.81</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>88740.22</v>
+        <v>88887.06</v>
       </c>
       <c r="G127" s="5">
         <v>0.9</v>
       </c>
       <c r="H127" s="5">
-        <v>509869.94</v>
+        <v>510555.97</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,19 +4472,19 @@
         <v>7</v>
       </c>
       <c r="D129" s="5">
-        <v>411575.59</v>
+        <v>411602.99</v>
       </c>
       <c r="E129" s="5">
         <v>8089.21</v>
       </c>
       <c r="F129" s="5">
-        <v>116536.86</v>
+        <v>116545.69</v>
       </c>
       <c r="G129" s="5">
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>536201.66</v>
+        <v>536237.89</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,19 +4550,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="5">
-        <v>283463.65000000002</v>
+        <v>284052.5</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
       <c r="F132" s="5">
-        <v>25328.12</v>
+        <v>25400.67</v>
       </c>
       <c r="G132" s="5">
         <v>0.04</v>
       </c>
       <c r="H132" s="5">
-        <v>308791.73</v>
+        <v>309453.13</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="5">
-        <v>627985.55000000005</v>
+        <v>628457.81999999995</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>59521.05</v>
+        <v>59582.21</v>
       </c>
       <c r="G133" s="5">
         <v>0</v>
       </c>
       <c r="H133" s="5">
-        <v>687506.6</v>
+        <v>688040.03</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="5">
-        <v>682711.56</v>
+        <v>683413.55</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60185.17</v>
+        <v>60282.720000000001</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>742896.73</v>
+        <v>743696.27</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="5">
-        <v>1435886.04</v>
+        <v>1437215.34</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>127959.69</v>
+        <v>128138.62</v>
       </c>
       <c r="G135" s="5">
         <v>1.98</v>
       </c>
       <c r="H135" s="5">
-        <v>1563843.75</v>
+        <v>1565351.98</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="5">
-        <v>126560.88</v>
+        <v>126586.88</v>
       </c>
       <c r="E136" s="5">
-        <v>181793.22</v>
+        <v>181833.22</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>308354.09999999998</v>
+        <v>308420.09999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,19 +4680,19 @@
         <v>7</v>
       </c>
       <c r="D137" s="5">
-        <v>1445078.52</v>
+        <v>1445457.57</v>
       </c>
       <c r="E137" s="5">
         <v>21119.86</v>
       </c>
       <c r="F137" s="5">
-        <v>135506.14000000001</v>
+        <v>135553.28</v>
       </c>
       <c r="G137" s="5">
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>1601704.52</v>
+        <v>1602130.71</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="5">
-        <v>2413048.5499999998</v>
+        <v>2413854.4700000002</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
       <c r="F155" s="5">
-        <v>13971.48</v>
+        <v>14010.91</v>
       </c>
       <c r="G155" s="5">
         <v>73339.41</v>
       </c>
       <c r="H155" s="5">
-        <v>2353680.62</v>
+        <v>2354525.9700000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="5">
-        <v>4314727.07</v>
+        <v>4316364.37</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>26294.71</v>
+        <v>26360.53</v>
       </c>
       <c r="G156" s="5">
         <v>124272.16</v>
       </c>
       <c r="H156" s="5">
-        <v>4216749.62</v>
+        <v>4218452.74</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="5">
-        <v>4535372.12</v>
+        <v>4537124.63</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>29972.29</v>
+        <v>30037.23</v>
       </c>
       <c r="G157" s="5">
         <v>190620.73</v>
       </c>
       <c r="H157" s="5">
-        <v>4374723.68</v>
+        <v>4376541.13</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="5">
-        <v>9152410.3800000008</v>
+        <v>9156086.5199999996</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>62659.08</v>
+        <v>62795.1</v>
       </c>
       <c r="G158" s="5">
         <v>323805.7</v>
       </c>
       <c r="H158" s="5">
-        <v>8891263.7599999998</v>
+        <v>8895075.9199999999</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="5">
-        <v>217988.18</v>
+        <v>219222.08</v>
       </c>
       <c r="E210" s="5">
-        <v>242579.58</v>
+        <v>243750.74</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>460567.76</v>
+        <v>462972.82</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="5">
-        <v>14776820.119999999</v>
+        <v>14780288.51</v>
       </c>
       <c r="E238" s="5">
-        <v>214647.26</v>
+        <v>214710.16</v>
       </c>
       <c r="F238" s="5">
-        <v>72816.67</v>
+        <v>72902.509999999995</v>
       </c>
       <c r="G238" s="5">
         <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>15064284.050000001</v>
+        <v>15067901.18</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8918,7 +8918,7 @@
         <v>15</v>
       </c>
       <c r="D300" s="5">
-        <v>2501947.0299999998</v>
+        <v>2502977.0299999998</v>
       </c>
       <c r="E300" s="5">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5">
-        <v>1179069.82</v>
+        <v>1179584.82</v>
       </c>
       <c r="H300" s="5">
-        <v>1322877.21</v>
+        <v>1323392.21</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H352"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1126,10 +1126,10 @@
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
     <col min="9" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4134,19 +4134,19 @@
         <v>12</v>
       </c>
       <c r="D116" s="6">
-        <v>39178.49</v>
+        <v>39199.21</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
       </c>
       <c r="F116" s="6">
-        <v>12604.3</v>
+        <v>12611.63</v>
       </c>
       <c r="G116" s="6">
         <v>0</v>
       </c>
       <c r="H116" s="6">
-        <v>51782.79</v>
+        <v>51810.84</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,19 +4160,19 @@
         <v>9</v>
       </c>
       <c r="D117" s="6">
-        <v>89739.9</v>
+        <v>89772.54</v>
       </c>
       <c r="E117" s="6">
         <v>0</v>
       </c>
       <c r="F117" s="6">
-        <v>29084.78</v>
+        <v>29096.32</v>
       </c>
       <c r="G117" s="6">
         <v>0</v>
       </c>
       <c r="H117" s="6">
-        <v>118824.68</v>
+        <v>118868.86</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4186,19 +4186,19 @@
         <v>10</v>
       </c>
       <c r="D118" s="6">
-        <v>80359.14</v>
+        <v>80461.78</v>
       </c>
       <c r="E118" s="6">
         <v>0</v>
       </c>
       <c r="F118" s="6">
-        <v>25822.65</v>
+        <v>25858.95</v>
       </c>
       <c r="G118" s="6">
         <v>5.19</v>
       </c>
       <c r="H118" s="6">
-        <v>106176.6</v>
+        <v>106315.54</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4212,19 +4212,19 @@
         <v>11</v>
       </c>
       <c r="D119" s="6">
-        <v>171926.9</v>
+        <v>172064.34</v>
       </c>
       <c r="E119" s="6">
         <v>0</v>
       </c>
       <c r="F119" s="6">
-        <v>55675.76</v>
+        <v>55724.35</v>
       </c>
       <c r="G119" s="6">
         <v>0</v>
       </c>
       <c r="H119" s="6">
-        <v>227602.66</v>
+        <v>227788.69</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4264,19 +4264,19 @@
         <v>7</v>
       </c>
       <c r="D121" s="6">
-        <v>187043.99</v>
+        <v>187113.28</v>
       </c>
       <c r="E121" s="6">
         <v>4343.8</v>
       </c>
       <c r="F121" s="6">
-        <v>77619.070000000007</v>
+        <v>77651.539999999994</v>
       </c>
       <c r="G121" s="6">
         <v>0</v>
       </c>
       <c r="H121" s="6">
-        <v>269006.86</v>
+        <v>269108.62</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,19 +4342,19 @@
         <v>12</v>
       </c>
       <c r="D124" s="6">
-        <v>83988.53</v>
+        <v>84084.76</v>
       </c>
       <c r="E124" s="6">
         <v>0</v>
       </c>
       <c r="F124" s="6">
-        <v>17684.79</v>
+        <v>17708.939999999999</v>
       </c>
       <c r="G124" s="6">
         <v>0</v>
       </c>
       <c r="H124" s="6">
-        <v>101673.32</v>
+        <v>101793.7</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>9</v>
       </c>
       <c r="D125" s="6">
-        <v>173027.97</v>
+        <v>173243.76</v>
       </c>
       <c r="E125" s="6">
         <v>0</v>
       </c>
       <c r="F125" s="6">
-        <v>36226.11</v>
+        <v>36278.85</v>
       </c>
       <c r="G125" s="6">
         <v>0</v>
       </c>
       <c r="H125" s="6">
-        <v>209254.08</v>
+        <v>209522.61</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>10</v>
       </c>
       <c r="D126" s="6">
-        <v>204810.77</v>
+        <v>205265.33</v>
       </c>
       <c r="E126" s="6">
         <v>0</v>
       </c>
       <c r="F126" s="6">
-        <v>42992.81</v>
+        <v>43104.66</v>
       </c>
       <c r="G126" s="6">
         <v>0</v>
       </c>
       <c r="H126" s="6">
-        <v>247803.58</v>
+        <v>248369.99</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>11</v>
       </c>
       <c r="D127" s="6">
-        <v>421669.81</v>
+        <v>422275.14</v>
       </c>
       <c r="E127" s="6">
         <v>0</v>
       </c>
       <c r="F127" s="6">
-        <v>88887.06</v>
+        <v>89036.49</v>
       </c>
       <c r="G127" s="6">
         <v>0.9</v>
       </c>
       <c r="H127" s="6">
-        <v>510555.97</v>
+        <v>511310.73</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>13</v>
       </c>
       <c r="D128" s="6">
-        <v>16118.45</v>
+        <v>16176.95</v>
       </c>
       <c r="E128" s="6">
-        <v>23056.92</v>
+        <v>23146.92</v>
       </c>
       <c r="F128" s="6">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="6">
-        <v>39175.370000000003</v>
+        <v>39323.870000000003</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,19 +4472,19 @@
         <v>7</v>
       </c>
       <c r="D129" s="6">
-        <v>411602.99</v>
+        <v>412414.24</v>
       </c>
       <c r="E129" s="6">
-        <v>8089.21</v>
+        <v>8103.63</v>
       </c>
       <c r="F129" s="6">
-        <v>116545.69</v>
+        <v>116820.13</v>
       </c>
       <c r="G129" s="6">
         <v>0</v>
       </c>
       <c r="H129" s="6">
-        <v>536237.89</v>
+        <v>537338</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,19 +4550,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="6">
-        <v>284148.96999999997</v>
+        <v>285045.13</v>
       </c>
       <c r="E132" s="6">
         <v>0</v>
       </c>
       <c r="F132" s="6">
-        <v>25415.06</v>
+        <v>25541.03</v>
       </c>
       <c r="G132" s="6">
         <v>0.04</v>
       </c>
       <c r="H132" s="6">
-        <v>309563.99</v>
+        <v>310586.12</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="6">
-        <v>628792.54</v>
+        <v>629873.43999999994</v>
       </c>
       <c r="E133" s="6">
         <v>0</v>
       </c>
       <c r="F133" s="6">
-        <v>59631.41</v>
+        <v>59790.559999999998</v>
       </c>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="H133" s="6">
-        <v>688423.95</v>
+        <v>689664</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="6">
-        <v>683814.83</v>
+        <v>685508.81</v>
       </c>
       <c r="E134" s="6">
         <v>0</v>
       </c>
       <c r="F134" s="6">
-        <v>60340.37</v>
+        <v>60588.7</v>
       </c>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="H134" s="6">
-        <v>744155.2</v>
+        <v>746097.51</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="6">
-        <v>1438173.41</v>
+        <v>1441493.24</v>
       </c>
       <c r="E135" s="6">
         <v>0</v>
       </c>
       <c r="F135" s="6">
-        <v>128279.45</v>
+        <v>128760.64</v>
       </c>
       <c r="G135" s="6">
         <v>1.98</v>
       </c>
       <c r="H135" s="6">
-        <v>1566450.88</v>
+        <v>1570251.9</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="6">
-        <v>126625.88</v>
+        <v>127080.88</v>
       </c>
       <c r="E136" s="6">
-        <v>181893.22</v>
+        <v>182589.22</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="6">
-        <v>308519.09999999998</v>
+        <v>309670.09999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,19 +4680,19 @@
         <v>7</v>
       </c>
       <c r="D137" s="6">
-        <v>1446007.08</v>
+        <v>1448746.7</v>
       </c>
       <c r="E137" s="6">
-        <v>21125.919999999998</v>
+        <v>21164.58</v>
       </c>
       <c r="F137" s="6">
-        <v>135628.26999999999</v>
+        <v>136037.81</v>
       </c>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="H137" s="6">
-        <v>1602761.27</v>
+        <v>1605949.09</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4732,19 +4732,19 @@
         <v>16</v>
       </c>
       <c r="D139" s="6">
-        <v>1400964.52</v>
+        <v>1403439.52</v>
       </c>
       <c r="E139" s="6">
         <v>0</v>
       </c>
       <c r="F139" s="6">
-        <v>24256.78</v>
+        <v>24304.89</v>
       </c>
       <c r="G139" s="6">
-        <v>1232696.06</v>
+        <v>1234923.56</v>
       </c>
       <c r="H139" s="6">
-        <v>192525.24</v>
+        <v>192820.85</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="6">
-        <v>464125</v>
+        <v>467420</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="6">
-        <v>464125</v>
+        <v>467420</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="6">
-        <v>2414014.7000000002</v>
+        <v>2419658.66</v>
       </c>
       <c r="E155" s="6">
         <v>0</v>
       </c>
       <c r="F155" s="6">
-        <v>14018.67</v>
+        <v>14172.31</v>
       </c>
       <c r="G155" s="6">
         <v>73339.41</v>
       </c>
       <c r="H155" s="6">
-        <v>2354693.96</v>
+        <v>2360491.56</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="6">
-        <v>4316724.53</v>
+        <v>4326042.1100000003</v>
       </c>
       <c r="E156" s="6">
         <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>26379.22</v>
+        <v>26592.959999999999</v>
       </c>
       <c r="G156" s="6">
         <v>124272.16</v>
       </c>
       <c r="H156" s="6">
-        <v>4218831.59</v>
+        <v>4228362.91</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="6">
-        <v>4537976.75</v>
+        <v>4551491.3499999996</v>
       </c>
       <c r="E157" s="6">
         <v>0</v>
       </c>
       <c r="F157" s="6">
-        <v>30077.759999999998</v>
+        <v>30418.49</v>
       </c>
       <c r="G157" s="6">
         <v>190620.73</v>
       </c>
       <c r="H157" s="6">
-        <v>4377433.78</v>
+        <v>4391289.1100000003</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="6">
-        <v>9157140.8800000008</v>
+        <v>9183446.2100000009</v>
       </c>
       <c r="E158" s="6">
         <v>0</v>
       </c>
       <c r="F158" s="6">
-        <v>62852.41</v>
+        <v>63491.55</v>
       </c>
       <c r="G158" s="6">
         <v>323805.7</v>
       </c>
       <c r="H158" s="6">
-        <v>8896187.5899999999</v>
+        <v>8923132.0600000005</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>77</v>
       </c>
       <c r="D204" s="6">
-        <v>40864.1</v>
+        <v>40961.9</v>
       </c>
       <c r="E204" s="6">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="6">
-        <v>40864.1</v>
+        <v>40961.9</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="6">
-        <v>219678.07999999999</v>
+        <v>222828.44</v>
       </c>
       <c r="E210" s="6">
-        <v>244158.63</v>
+        <v>247951.94</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="6">
-        <v>463836.71</v>
+        <v>470780.38</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7280,7 +7280,7 @@
         <v>109</v>
       </c>
       <c r="D237" s="6">
-        <v>6050</v>
+        <v>6105</v>
       </c>
       <c r="E237" s="6">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="H237" s="6">
-        <v>6050</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="6">
-        <v>14781651.65</v>
+        <v>14807158.109999999</v>
       </c>
       <c r="E238" s="6">
-        <v>214729.49</v>
+        <v>214928.85</v>
       </c>
       <c r="F238" s="6">
-        <v>72943.210000000006</v>
+        <v>73389.039999999994</v>
       </c>
       <c r="G238" s="6">
         <v>0</v>
       </c>
       <c r="H238" s="6">
-        <v>15069324.35</v>
+        <v>15095476</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,19 +8944,19 @@
         <v>16</v>
       </c>
       <c r="D301" s="6">
-        <v>1998207.69</v>
+        <v>2003357.69</v>
       </c>
       <c r="E301" s="6">
         <v>0</v>
       </c>
       <c r="F301" s="6">
-        <v>11362.21</v>
+        <v>11383.99</v>
       </c>
       <c r="G301" s="6">
-        <v>1772776.63</v>
+        <v>1777411.63</v>
       </c>
       <c r="H301" s="6">
-        <v>236793.27</v>
+        <v>237330.05</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>190</v>
       </c>
       <c r="D321" s="6">
-        <v>8036</v>
+        <v>8040.9</v>
       </c>
       <c r="E321" s="6">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="6">
-        <v>8036</v>
+        <v>8040.9</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4550,19 +4550,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="5">
-        <v>285045.13</v>
+        <v>285087.15999999997</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
       <c r="F132" s="5">
-        <v>25541.03</v>
+        <v>25546.93</v>
       </c>
       <c r="G132" s="5">
         <v>0.04</v>
       </c>
       <c r="H132" s="5">
-        <v>310586.12</v>
+        <v>310634.05</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="5">
-        <v>629873.43999999994</v>
+        <v>630001.68999999994</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>59790.559999999998</v>
+        <v>59808.59</v>
       </c>
       <c r="G133" s="5">
         <v>0</v>
       </c>
       <c r="H133" s="5">
-        <v>689664</v>
+        <v>689810.28</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="5">
-        <v>685508.81</v>
+        <v>685554.53</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60588.7</v>
+        <v>60595.12</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>746097.51</v>
+        <v>746149.65</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="5">
-        <v>1441493.24</v>
+        <v>1441556.96</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>128760.64</v>
+        <v>128769.60000000001</v>
       </c>
       <c r="G135" s="5">
         <v>1.98</v>
       </c>
       <c r="H135" s="5">
-        <v>1570251.9</v>
+        <v>1570324.58</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="5">
-        <v>127180.88</v>
+        <v>127206.88</v>
       </c>
       <c r="E136" s="5">
-        <v>182639.22</v>
+        <v>182679.22</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>309820.09999999998</v>
+        <v>309886.09999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="5">
-        <v>467420</v>
+        <v>467620</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>467420</v>
+        <v>467620</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="5">
-        <v>2419883.23</v>
+        <v>2420286.75</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
       <c r="F155" s="5">
-        <v>14173.42</v>
+        <v>14183.58</v>
       </c>
       <c r="G155" s="5">
         <v>73339.41</v>
       </c>
       <c r="H155" s="5">
-        <v>2360717.2400000002</v>
+        <v>2361130.92</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="5">
-        <v>4327466.0599999996</v>
+        <v>4328413.4000000004</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>26597.119999999999</v>
+        <v>26621.72</v>
       </c>
       <c r="G156" s="5">
         <v>124272.16</v>
       </c>
       <c r="H156" s="5">
-        <v>4229791.0199999996</v>
+        <v>4230762.96</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="5">
-        <v>4551833.8600000003</v>
+        <v>4552822.29</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>30423.86</v>
+        <v>30446</v>
       </c>
       <c r="G157" s="5">
         <v>190620.73</v>
       </c>
       <c r="H157" s="5">
-        <v>4391636.99</v>
+        <v>4392647.5599999996</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="5">
-        <v>9185295.7799999993</v>
+        <v>9186726.9199999999</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>63499.5</v>
+        <v>63529.49</v>
       </c>
       <c r="G158" s="5">
         <v>323805.7</v>
       </c>
       <c r="H158" s="5">
-        <v>8924989.5800000001</v>
+        <v>8926450.7100000009</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="5">
-        <v>222828.44</v>
+        <v>222834.94</v>
       </c>
       <c r="E210" s="5">
-        <v>247951.94</v>
+        <v>247961.94</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>470780.38</v>
+        <v>470796.88</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="5">
-        <v>14811387.93</v>
+        <v>14813020.15</v>
       </c>
       <c r="E238" s="5">
-        <v>214934.91</v>
+        <v>214947.03</v>
       </c>
       <c r="F238" s="5">
-        <v>73422.16</v>
+        <v>73467.53</v>
       </c>
       <c r="G238" s="5">
         <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>15099745</v>
+        <v>15101434.710000001</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7462,7 +7462,7 @@
         <v>115</v>
       </c>
       <c r="D244" s="5">
-        <v>98272</v>
+        <v>98404.800000000003</v>
       </c>
       <c r="E244" s="5">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="5">
-        <v>98272</v>
+        <v>98404.800000000003</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8918,7 +8918,7 @@
         <v>15</v>
       </c>
       <c r="D300" s="5">
-        <v>2502977.0299999998</v>
+        <v>2505552.0299999998</v>
       </c>
       <c r="E300" s="5">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5">
-        <v>1179584.82</v>
+        <v>1180872.32</v>
       </c>
       <c r="H300" s="5">
-        <v>1323392.21</v>
+        <v>1324679.71</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="E330" sqref="E330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="5">
-        <v>467620</v>
+        <v>467730</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>467620</v>
+        <v>467730</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="5">
-        <v>2420286.75</v>
+        <v>2420974.91</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
       <c r="F155" s="5">
-        <v>14183.58</v>
+        <v>14192.52</v>
       </c>
       <c r="G155" s="5">
         <v>73339.41</v>
       </c>
       <c r="H155" s="5">
-        <v>2361130.92</v>
+        <v>2361828.02</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="5">
-        <v>4328413.4000000004</v>
+        <v>4329578.13</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>26621.72</v>
+        <v>26639.67</v>
       </c>
       <c r="G156" s="5">
         <v>124272.16</v>
       </c>
       <c r="H156" s="5">
-        <v>4230762.96</v>
+        <v>4231945.6399999997</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="5">
-        <v>4552822.29</v>
+        <v>4554215.1500000004</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>30446</v>
+        <v>30473.74</v>
       </c>
       <c r="G157" s="5">
         <v>190620.73</v>
       </c>
       <c r="H157" s="5">
-        <v>4392647.5599999996</v>
+        <v>4394068.16</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="5">
-        <v>9186726.9199999999</v>
+        <v>9189063.1600000001</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>63529.49</v>
+        <v>63574.05</v>
       </c>
       <c r="G158" s="5">
         <v>323805.7</v>
       </c>
       <c r="H158" s="5">
-        <v>8926450.7100000009</v>
+        <v>8928831.5099999998</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
         <v>64</v>
       </c>
       <c r="D191" s="5">
-        <v>58145</v>
+        <v>58232</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>58145</v>
+        <v>58232</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="5">
-        <v>222834.94</v>
+        <v>223149.44</v>
       </c>
       <c r="E210" s="5">
-        <v>247961.94</v>
+        <v>248341.94</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>470796.88</v>
+        <v>471491.38</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="5">
-        <v>14813020.15</v>
+        <v>14815769.68</v>
       </c>
       <c r="E238" s="5">
-        <v>214947.03</v>
+        <v>214974.72</v>
       </c>
       <c r="F238" s="5">
-        <v>73467.53</v>
+        <v>73536.19</v>
       </c>
       <c r="G238" s="5">
         <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>15101434.710000001</v>
+        <v>15104280.59</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8398,7 +8398,7 @@
         <v>151</v>
       </c>
       <c r="D280" s="5">
-        <v>3345.3</v>
+        <v>3717</v>
       </c>
       <c r="E280" s="5">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="5">
-        <v>3345.3</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>190</v>
       </c>
       <c r="D321" s="5">
-        <v>8045.8</v>
+        <v>8055.6</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>8045.8</v>
+        <v>8055.6</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3094,19 +3094,19 @@
         <v>12</v>
       </c>
       <c r="D76" s="5">
-        <v>1516.7</v>
+        <v>1516.94</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
       </c>
       <c r="F76" s="5">
-        <v>1570.29</v>
+        <v>1570.55</v>
       </c>
       <c r="G76" s="5">
         <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>3086.99</v>
+        <v>3087.49</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3120,19 +3120,19 @@
         <v>9</v>
       </c>
       <c r="D77" s="5">
-        <v>4289.24</v>
+        <v>4292.04</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>4424.4799999999996</v>
+        <v>4427.62</v>
       </c>
       <c r="G77" s="5">
         <v>0</v>
       </c>
       <c r="H77" s="5">
-        <v>8713.7199999999993</v>
+        <v>8719.66</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,19 +3146,19 @@
         <v>10</v>
       </c>
       <c r="D78" s="5">
-        <v>3397.74</v>
+        <v>3400.1</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
       <c r="F78" s="5">
-        <v>3495.61</v>
+        <v>3498.25</v>
       </c>
       <c r="G78" s="5">
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <v>6893.35</v>
+        <v>6898.35</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,19 +3172,19 @@
         <v>11</v>
       </c>
       <c r="D79" s="5">
-        <v>7200.36</v>
+        <v>7203.26</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
       <c r="F79" s="5">
-        <v>7477.89</v>
+        <v>7481.15</v>
       </c>
       <c r="G79" s="5">
         <v>0</v>
       </c>
       <c r="H79" s="5">
-        <v>14678.25</v>
+        <v>14684.41</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3458,19 +3458,19 @@
         <v>7</v>
       </c>
       <c r="D90" s="5">
-        <v>28412.57</v>
+        <v>28424.71</v>
       </c>
       <c r="E90" s="5">
         <v>588.79999999999995</v>
       </c>
       <c r="F90" s="5">
-        <v>24657.41</v>
+        <v>24668.15</v>
       </c>
       <c r="G90" s="5">
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>53658.78</v>
+        <v>53681.66</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4108,19 +4108,19 @@
         <v>16</v>
       </c>
       <c r="D115" s="5">
-        <v>850401.12</v>
+        <v>852551.12</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
       <c r="F115" s="5">
-        <v>41208.239999999998</v>
+        <v>41324.089999999997</v>
       </c>
       <c r="G115" s="5">
-        <v>765078.55</v>
+        <v>767013.55</v>
       </c>
       <c r="H115" s="5">
-        <v>126530.81</v>
+        <v>126861.66</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,19 +4342,19 @@
         <v>12</v>
       </c>
       <c r="D124" s="5">
-        <v>84084.76</v>
+        <v>84099.88</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>17708.939999999999</v>
+        <v>17712.900000000001</v>
       </c>
       <c r="G124" s="5">
         <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>101793.7</v>
+        <v>101812.78</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>9</v>
       </c>
       <c r="D125" s="5">
-        <v>173243.76</v>
+        <v>173316.36</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>36278.85</v>
+        <v>36297.919999999998</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>209522.61</v>
+        <v>209614.28</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>10</v>
       </c>
       <c r="D126" s="5">
-        <v>205265.33</v>
+        <v>205412.93</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>43104.66</v>
+        <v>43143.44</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>248369.99</v>
+        <v>248556.37</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>11</v>
       </c>
       <c r="D127" s="5">
-        <v>422275.14</v>
+        <v>422410.74</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>89036.49</v>
+        <v>89072.12</v>
       </c>
       <c r="G127" s="5">
         <v>0.9</v>
       </c>
       <c r="H127" s="5">
-        <v>511310.73</v>
+        <v>511481.96</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>13</v>
       </c>
       <c r="D128" s="5">
-        <v>16202.95</v>
+        <v>16235.45</v>
       </c>
       <c r="E128" s="5">
-        <v>23186.92</v>
+        <v>23236.92</v>
       </c>
       <c r="F128" s="5">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="5">
-        <v>39389.870000000003</v>
+        <v>39472.370000000003</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,19 +4472,19 @@
         <v>7</v>
       </c>
       <c r="D129" s="5">
-        <v>412414.24</v>
+        <v>412570.04</v>
       </c>
       <c r="E129" s="5">
-        <v>8103.63</v>
+        <v>8109.69</v>
       </c>
       <c r="F129" s="5">
-        <v>116820.13</v>
+        <v>116868.98</v>
       </c>
       <c r="G129" s="5">
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>537338</v>
+        <v>537548.71</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,19 +4550,19 @@
         <v>12</v>
       </c>
       <c r="D132" s="5">
-        <v>285087.15999999997</v>
+        <v>285187.12</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
       <c r="F132" s="5">
-        <v>25546.93</v>
+        <v>25561.16</v>
       </c>
       <c r="G132" s="5">
         <v>0.04</v>
       </c>
       <c r="H132" s="5">
-        <v>310634.05</v>
+        <v>310748.24</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>9</v>
       </c>
       <c r="D133" s="5">
-        <v>630001.68999999994</v>
+        <v>630273.84</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>59808.59</v>
+        <v>59849.15</v>
       </c>
       <c r="G133" s="5">
         <v>0</v>
       </c>
       <c r="H133" s="5">
-        <v>689810.28</v>
+        <v>690122.99</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="5">
-        <v>685554.53</v>
+        <v>685960.86</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60595.12</v>
+        <v>60655.6</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>746149.65</v>
+        <v>746616.46</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>11</v>
       </c>
       <c r="D135" s="5">
-        <v>1441556.96</v>
+        <v>1442447.58</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>128769.60000000001</v>
+        <v>128901.6</v>
       </c>
       <c r="G135" s="5">
         <v>1.98</v>
       </c>
       <c r="H135" s="5">
-        <v>1570324.58</v>
+        <v>1571347.2</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,10 +4654,10 @@
         <v>13</v>
       </c>
       <c r="D136" s="5">
-        <v>127206.88</v>
+        <v>127421.38</v>
       </c>
       <c r="E136" s="5">
-        <v>182679.22</v>
+        <v>183009.22</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>309886.09999999998</v>
+        <v>310430.59999999998</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,19 +4680,19 @@
         <v>7</v>
       </c>
       <c r="D137" s="5">
-        <v>1448746.7</v>
+        <v>1450387.82</v>
       </c>
       <c r="E137" s="5">
-        <v>21164.58</v>
+        <v>21187.360000000001</v>
       </c>
       <c r="F137" s="5">
-        <v>136037.81</v>
+        <v>136289.75</v>
       </c>
       <c r="G137" s="5">
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>1605949.09</v>
+        <v>1607864.93</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4914,7 +4914,7 @@
         <v>23</v>
       </c>
       <c r="D146" s="5">
-        <v>3940.14</v>
+        <v>3960.45</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="5">
-        <v>3940.14</v>
+        <v>3960.45</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
         <v>24</v>
       </c>
       <c r="D147" s="5">
-        <v>467730</v>
+        <v>468010</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>467730</v>
+        <v>468010</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,19 +5148,19 @@
         <v>12</v>
       </c>
       <c r="D155" s="5">
-        <v>2420974.91</v>
+        <v>2422014.7400000002</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
       <c r="F155" s="5">
-        <v>14192.52</v>
+        <v>14221.56</v>
       </c>
       <c r="G155" s="5">
         <v>73339.41</v>
       </c>
       <c r="H155" s="5">
-        <v>2361828.02</v>
+        <v>2362896.89</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>9</v>
       </c>
       <c r="D156" s="5">
-        <v>4329578.13</v>
+        <v>4331422.6500000004</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>26639.67</v>
+        <v>26696.02</v>
       </c>
       <c r="G156" s="5">
         <v>124272.16</v>
       </c>
       <c r="H156" s="5">
-        <v>4231945.6399999997</v>
+        <v>4233846.51</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>10</v>
       </c>
       <c r="D157" s="5">
-        <v>4554215.1500000004</v>
+        <v>4556611.3899999997</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>30473.74</v>
+        <v>30533.96</v>
       </c>
       <c r="G157" s="5">
         <v>190620.73</v>
       </c>
       <c r="H157" s="5">
-        <v>4394068.16</v>
+        <v>4396524.62</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="5">
-        <v>9189063.1600000001</v>
+        <v>9193344.0600000005</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>63574.05</v>
+        <v>63710.84</v>
       </c>
       <c r="G158" s="5">
         <v>323805.7</v>
       </c>
       <c r="H158" s="5">
-        <v>8928831.5099999998</v>
+        <v>8933249.1999999993</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
         <v>61</v>
       </c>
       <c r="D188" s="5">
-        <v>29670</v>
+        <v>29900</v>
       </c>
       <c r="E188" s="5">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="5">
-        <v>29670</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
         <v>66</v>
       </c>
       <c r="D193" s="5">
-        <v>2280</v>
+        <v>2292</v>
       </c>
       <c r="E193" s="5">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="H193" s="5">
-        <v>2280</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>77</v>
       </c>
       <c r="D204" s="5">
-        <v>40994.5</v>
+        <v>41059.699999999997</v>
       </c>
       <c r="E204" s="5">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="5">
-        <v>40994.5</v>
+        <v>41059.699999999997</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="D210" s="5">
-        <v>223149.44</v>
+        <v>224049.94</v>
       </c>
       <c r="E210" s="5">
-        <v>248341.94</v>
+        <v>249311.94</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>471491.38</v>
+        <v>473361.88</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,19 +7306,19 @@
         <v>7</v>
       </c>
       <c r="D238" s="5">
-        <v>14815769.68</v>
+        <v>14820726.289999999</v>
       </c>
       <c r="E238" s="5">
-        <v>214974.72</v>
+        <v>215020.28</v>
       </c>
       <c r="F238" s="5">
-        <v>73536.19</v>
+        <v>73685.55</v>
       </c>
       <c r="G238" s="5">
         <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>15104280.59</v>
+        <v>15109432.119999999</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7514,7 +7514,7 @@
         <v>117</v>
       </c>
       <c r="D246" s="5">
-        <v>96077</v>
+        <v>97402.2</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="5">
-        <v>96077</v>
+        <v>97402.2</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9334,7 +9334,7 @@
         <v>185</v>
       </c>
       <c r="D316" s="5">
-        <v>15439.41</v>
+        <v>15521.1</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="H316" s="5">
-        <v>15439.41</v>
+        <v>15521.1</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>190</v>
       </c>
       <c r="D321" s="5">
-        <v>8055.6</v>
+        <v>8080.1</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>8055.6</v>
+        <v>8080.1</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9568,7 +9568,7 @@
         <v>194</v>
       </c>
       <c r="D325" s="5">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="H325" s="5">
-        <v>840</v>
+        <v>960</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="224">
   <si>
     <t>SUBCONCEPTO DE PAGO</t>
   </si>
@@ -1115,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H352"/>
+  <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A352"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2490,51 +2490,51 @@
         <v>2012</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D53" s="5">
-        <v>873.19</v>
+        <v>435.74</v>
       </c>
       <c r="E53" s="5">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F53" s="5">
-        <v>1414.93</v>
+        <v>732.22</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="5">
-        <v>2351.12</v>
+        <v>1167.96</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D54" s="5">
-        <v>218.44</v>
+        <v>873.19</v>
       </c>
       <c r="E54" s="5">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F54" s="5">
-        <v>315.75</v>
+        <v>1414.93</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
       </c>
       <c r="H54" s="5">
-        <v>534.19000000000005</v>
+        <v>2351.12</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2545,22 +2545,22 @@
         <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="5">
-        <v>720.2</v>
+        <v>325.83999999999997</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
       </c>
       <c r="F55" s="5">
-        <v>1037.97</v>
+        <v>477.43</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
       </c>
       <c r="H55" s="5">
-        <v>1758.17</v>
+        <v>803.27</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2571,22 +2571,22 @@
         <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5">
-        <v>623.39</v>
+        <v>801.92</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
       </c>
       <c r="F56" s="5">
-        <v>897.7</v>
+        <v>1161.01</v>
       </c>
       <c r="G56" s="5">
         <v>0</v>
       </c>
       <c r="H56" s="5">
-        <v>1521.09</v>
+        <v>1962.93</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,22 +2597,22 @@
         <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5">
-        <v>1099.81</v>
+        <v>728.15</v>
       </c>
       <c r="E57" s="5">
         <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>1582.39</v>
+        <v>1055.4100000000001</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
       </c>
       <c r="H57" s="5">
-        <v>2682.2</v>
+        <v>1783.56</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,25 +2620,25 @@
         <v>2013</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5">
-        <v>239</v>
+        <v>1365.13</v>
       </c>
       <c r="E58" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5">
-        <v>0</v>
+        <v>1981.83</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
       </c>
       <c r="H58" s="5">
-        <v>299</v>
+        <v>3346.96</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2646,25 +2646,25 @@
         <v>2013</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5">
-        <v>955.74</v>
+        <v>252</v>
       </c>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F59" s="5">
-        <v>1462.83</v>
+        <v>0</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
       </c>
       <c r="H59" s="5">
-        <v>2418.5700000000002</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2672,51 +2672,51 @@
         <v>2013</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5">
-        <v>1411.66</v>
+        <v>955.74</v>
       </c>
       <c r="E60" s="5">
-        <v>79.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="F60" s="5">
-        <v>2107.75</v>
+        <v>1462.83</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
       </c>
       <c r="H60" s="5">
-        <v>3598.51</v>
+        <v>2418.5700000000002</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D61" s="5">
-        <v>521.62</v>
+        <v>1411.66</v>
       </c>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="F61" s="5">
-        <v>687.63</v>
+        <v>2107.75</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
       </c>
       <c r="H61" s="5">
-        <v>1209.25</v>
+        <v>3598.51</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,22 +2727,22 @@
         <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="5">
-        <v>2832.41</v>
+        <v>521.62</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
       </c>
       <c r="F62" s="5">
-        <v>3737.45</v>
+        <v>687.63</v>
       </c>
       <c r="G62" s="5">
         <v>0</v>
       </c>
       <c r="H62" s="5">
-        <v>6569.86</v>
+        <v>1209.25</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,22 +2753,22 @@
         <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="5">
-        <v>1058.42</v>
+        <v>2832.41</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
       <c r="F63" s="5">
-        <v>1388.24</v>
+        <v>3737.45</v>
       </c>
       <c r="G63" s="5">
         <v>0</v>
       </c>
       <c r="H63" s="5">
-        <v>2446.66</v>
+        <v>6569.86</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,22 +2779,22 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="5">
-        <v>2099</v>
+        <v>1058.42</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
       </c>
       <c r="F64" s="5">
-        <v>2755.75</v>
+        <v>1388.24</v>
       </c>
       <c r="G64" s="5">
         <v>0</v>
       </c>
       <c r="H64" s="5">
-        <v>4854.75</v>
+        <v>2446.66</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2802,25 +2802,25 @@
         <v>2014</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" s="5">
-        <v>25</v>
+        <v>2099</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>0</v>
+        <v>2755.75</v>
       </c>
       <c r="G65" s="5">
         <v>0</v>
       </c>
       <c r="H65" s="5">
-        <v>25</v>
+        <v>4854.75</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2828,25 +2828,25 @@
         <v>2014</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="5">
-        <v>1399.39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F66" s="5">
-        <v>1755.29</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5">
         <v>0</v>
       </c>
       <c r="H66" s="5">
-        <v>3154.68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2854,25 +2854,25 @@
         <v>2014</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D67" s="5">
-        <v>3671.16</v>
+        <v>1399.39</v>
       </c>
       <c r="E67" s="5">
-        <v>93.9</v>
+        <v>0</v>
       </c>
       <c r="F67" s="5">
-        <v>4822.46</v>
+        <v>1755.29</v>
       </c>
       <c r="G67" s="5">
         <v>0</v>
       </c>
       <c r="H67" s="5">
-        <v>8587.52</v>
+        <v>3154.68</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2880,51 +2880,51 @@
         <v>2014</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D68" s="5">
-        <v>3800</v>
+        <v>3671.16</v>
       </c>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>93.9</v>
       </c>
       <c r="F68" s="5">
-        <v>0</v>
+        <v>4822.46</v>
       </c>
       <c r="G68" s="5">
         <v>0</v>
       </c>
       <c r="H68" s="5">
-        <v>3800</v>
+        <v>8587.52</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D69" s="5">
-        <v>1304.98</v>
+        <v>3800</v>
       </c>
       <c r="E69" s="5">
         <v>0</v>
       </c>
       <c r="F69" s="5">
-        <v>1535.58</v>
+        <v>0</v>
       </c>
       <c r="G69" s="5">
         <v>0</v>
       </c>
       <c r="H69" s="5">
-        <v>2840.56</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2935,22 +2935,22 @@
         <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="5">
-        <v>4215.99</v>
+        <v>1360.12</v>
       </c>
       <c r="E70" s="5">
         <v>0</v>
       </c>
       <c r="F70" s="5">
-        <v>4898.42</v>
+        <v>1600.51</v>
       </c>
       <c r="G70" s="5">
         <v>0</v>
       </c>
       <c r="H70" s="5">
-        <v>9114.41</v>
+        <v>2960.63</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2961,22 +2961,22 @@
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="5">
-        <v>2324.52</v>
+        <v>4257.93</v>
       </c>
       <c r="E71" s="5">
         <v>0</v>
       </c>
       <c r="F71" s="5">
-        <v>2694.65</v>
+        <v>4947.8</v>
       </c>
       <c r="G71" s="5">
         <v>0</v>
       </c>
       <c r="H71" s="5">
-        <v>5019.17</v>
+        <v>9205.73</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2987,22 +2987,22 @@
         <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="5">
-        <v>4807.57</v>
+        <v>2378.34</v>
       </c>
       <c r="E72" s="5">
         <v>0</v>
       </c>
       <c r="F72" s="5">
-        <v>5583.43</v>
+        <v>2758.03</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <v>10391</v>
+        <v>5136.37</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,25 +3010,25 @@
         <v>2015</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" s="5">
-        <v>128.55000000000001</v>
+        <v>4943.8900000000003</v>
       </c>
       <c r="E73" s="5">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F73" s="5">
-        <v>0</v>
+        <v>5743.95</v>
       </c>
       <c r="G73" s="5">
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <v>213.55</v>
+        <v>10687.84</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3036,25 +3036,25 @@
         <v>2015</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="5">
-        <v>2110.85</v>
+        <v>254.55</v>
       </c>
       <c r="E74" s="5">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F74" s="5">
-        <v>2543.23</v>
+        <v>0</v>
       </c>
       <c r="G74" s="5">
         <v>0</v>
       </c>
       <c r="H74" s="5">
-        <v>4654.08</v>
+        <v>424.55</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3062,51 +3062,51 @@
         <v>2015</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D75" s="5">
-        <v>6140.79</v>
+        <v>2110.85</v>
       </c>
       <c r="E75" s="5">
-        <v>148.5</v>
+        <v>0</v>
       </c>
       <c r="F75" s="5">
-        <v>7329.66</v>
+        <v>2543.23</v>
       </c>
       <c r="G75" s="5">
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>13618.95</v>
+        <v>4654.08</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D76" s="5">
-        <v>1516.94</v>
+        <v>6140.79</v>
       </c>
       <c r="E76" s="5">
-        <v>0</v>
+        <v>148.5</v>
       </c>
       <c r="F76" s="5">
-        <v>1570.55</v>
+        <v>7329.66</v>
       </c>
       <c r="G76" s="5">
         <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>3087.49</v>
+        <v>13618.95</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,22 +3117,22 @@
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="5">
-        <v>4292.04</v>
+        <v>1632.74</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
       <c r="F77" s="5">
-        <v>4427.62</v>
+        <v>1694.21</v>
       </c>
       <c r="G77" s="5">
         <v>0</v>
       </c>
       <c r="H77" s="5">
-        <v>8719.66</v>
+        <v>3326.95</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3143,22 +3143,22 @@
         <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="5">
-        <v>3400.1</v>
+        <v>4380.12</v>
       </c>
       <c r="E78" s="5">
         <v>0</v>
       </c>
       <c r="F78" s="5">
-        <v>3498.25</v>
+        <v>4521.6400000000003</v>
       </c>
       <c r="G78" s="5">
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <v>6898.35</v>
+        <v>8901.76</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,22 +3169,22 @@
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="5">
-        <v>7203.26</v>
+        <v>3513.14</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
       <c r="F79" s="5">
-        <v>7481.15</v>
+        <v>3618.94</v>
       </c>
       <c r="G79" s="5">
         <v>0</v>
       </c>
       <c r="H79" s="5">
-        <v>14684.41</v>
+        <v>7132.08</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3192,25 +3192,25 @@
         <v>2016</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" s="5">
-        <v>152</v>
+        <v>7489.58</v>
       </c>
       <c r="E80" s="5">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F80" s="5">
-        <v>0</v>
+        <v>7786.85</v>
       </c>
       <c r="G80" s="5">
         <v>0</v>
       </c>
       <c r="H80" s="5">
-        <v>277</v>
+        <v>15276.43</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3218,25 +3218,25 @@
         <v>2016</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="5">
-        <v>4367.12</v>
+        <v>152</v>
       </c>
       <c r="E81" s="5">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F81" s="5">
-        <v>4791.03</v>
+        <v>0</v>
       </c>
       <c r="G81" s="5">
         <v>0</v>
       </c>
       <c r="H81" s="5">
-        <v>9158.15</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,25 +3244,25 @@
         <v>2016</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D82" s="5">
-        <v>10004.48</v>
+        <v>4367.12</v>
       </c>
       <c r="E82" s="5">
-        <v>254.33</v>
+        <v>0</v>
       </c>
       <c r="F82" s="5">
-        <v>10504.84</v>
+        <v>4791.03</v>
       </c>
       <c r="G82" s="5">
         <v>0</v>
       </c>
       <c r="H82" s="5">
-        <v>20763.650000000001</v>
+        <v>9158.15</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,51 +3270,51 @@
         <v>2016</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D83" s="5">
-        <v>86.22</v>
+        <v>10142.780000000001</v>
       </c>
       <c r="E83" s="5">
-        <v>0</v>
+        <v>260.02999999999997</v>
       </c>
       <c r="F83" s="5">
-        <v>45.35</v>
+        <v>10653.46</v>
       </c>
       <c r="G83" s="5">
-        <v>43.11</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5">
-        <v>88.46</v>
+        <v>21056.27</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D84" s="5">
-        <v>3597.48</v>
+        <v>86.22</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
       <c r="F84" s="5">
-        <v>3109.33</v>
+        <v>45.35</v>
       </c>
       <c r="G84" s="5">
-        <v>0</v>
+        <v>43.11</v>
       </c>
       <c r="H84" s="5">
-        <v>6706.81</v>
+        <v>88.46</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3325,22 +3325,22 @@
         <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="5">
-        <v>10779.98</v>
+        <v>3597.48</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
       </c>
       <c r="F85" s="5">
-        <v>9265.11</v>
+        <v>3109.33</v>
       </c>
       <c r="G85" s="5">
         <v>0</v>
       </c>
       <c r="H85" s="5">
-        <v>20045.09</v>
+        <v>6706.81</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,22 +3351,22 @@
         <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="5">
-        <v>9354.0300000000007</v>
+        <v>10779.98</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
       </c>
       <c r="F86" s="5">
-        <v>8074.08</v>
+        <v>9265.11</v>
       </c>
       <c r="G86" s="5">
         <v>0</v>
       </c>
       <c r="H86" s="5">
-        <v>17428.11</v>
+        <v>20045.09</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,22 +3377,22 @@
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="5">
-        <v>16611.62</v>
+        <v>9354.0300000000007</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
       </c>
       <c r="F87" s="5">
-        <v>14372.54</v>
+        <v>8074.08</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
       </c>
       <c r="H87" s="5">
-        <v>30984.16</v>
+        <v>17428.11</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3400,25 +3400,25 @@
         <v>2017</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" s="5">
-        <v>297</v>
+        <v>16611.62</v>
       </c>
       <c r="E88" s="5">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="F88" s="5">
-        <v>0</v>
+        <v>14372.54</v>
       </c>
       <c r="G88" s="5">
         <v>0</v>
       </c>
       <c r="H88" s="5">
-        <v>722</v>
+        <v>30984.16</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3426,25 +3426,25 @@
         <v>2017</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="5">
-        <v>546</v>
+        <v>410</v>
       </c>
       <c r="E89" s="5">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F89" s="5">
-        <v>511.95</v>
+        <v>0</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
       </c>
       <c r="H89" s="5">
-        <v>1057.95</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3452,25 +3452,25 @@
         <v>2017</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D90" s="5">
-        <v>28424.71</v>
+        <v>546</v>
       </c>
       <c r="E90" s="5">
-        <v>588.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="F90" s="5">
-        <v>24668.15</v>
+        <v>511.95</v>
       </c>
       <c r="G90" s="5">
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>53681.66</v>
+        <v>1057.95</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3478,51 +3478,51 @@
         <v>2017</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D91" s="5">
-        <v>90.12</v>
+        <v>28424.71</v>
       </c>
       <c r="E91" s="5">
-        <v>0</v>
+        <v>588.79999999999995</v>
       </c>
       <c r="F91" s="5">
-        <v>340.8</v>
+        <v>24668.15</v>
       </c>
       <c r="G91" s="5">
-        <v>45.06</v>
+        <v>0</v>
       </c>
       <c r="H91" s="5">
-        <v>385.86</v>
+        <v>53681.66</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D92" s="5">
-        <v>5337.12</v>
+        <v>90.12</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
       </c>
       <c r="F92" s="5">
-        <v>3839.84</v>
+        <v>340.8</v>
       </c>
       <c r="G92" s="5">
-        <v>0</v>
+        <v>45.06</v>
       </c>
       <c r="H92" s="5">
-        <v>9176.9599999999991</v>
+        <v>385.86</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,22 +3533,22 @@
         <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="5">
-        <v>21422.94</v>
+        <v>5458.68</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>15257.8</v>
+        <v>3932.72</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>36680.74</v>
+        <v>9391.4</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3559,22 +3559,22 @@
         <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="5">
-        <v>14495.67</v>
+        <v>21518.7</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
       <c r="F94" s="5">
-        <v>10470.58</v>
+        <v>15330.94</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>24966.25</v>
+        <v>36849.64</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3585,22 +3585,22 @@
         <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="5">
-        <v>26585.42</v>
+        <v>14614.23</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
       <c r="F95" s="5">
-        <v>19292.580000000002</v>
+        <v>10561.15</v>
       </c>
       <c r="G95" s="5">
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>45878</v>
+        <v>25175.38</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,25 +3608,25 @@
         <v>2018</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" s="5">
-        <v>442</v>
+        <v>26943.74</v>
       </c>
       <c r="E96" s="5">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>19566.36</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>1122</v>
+        <v>46510.1</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,25 +3634,25 @@
         <v>2018</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D97" s="5">
-        <v>37776.01</v>
+        <v>455</v>
       </c>
       <c r="E97" s="5">
-        <v>1372.3</v>
+        <v>700</v>
       </c>
       <c r="F97" s="5">
-        <v>28982.17</v>
+        <v>0</v>
       </c>
       <c r="G97" s="5">
         <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>68130.48</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,25 +3660,25 @@
         <v>2018</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>2380</v>
+        <v>37952.370000000003</v>
       </c>
       <c r="E98" s="5">
-        <v>0</v>
+        <v>1378</v>
       </c>
       <c r="F98" s="5">
-        <v>0</v>
+        <v>29121.57</v>
       </c>
       <c r="G98" s="5">
         <v>0</v>
       </c>
       <c r="H98" s="5">
-        <v>2380</v>
+        <v>68451.94</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3686,51 +3686,51 @@
         <v>2018</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" s="5">
-        <v>4816.8100000000004</v>
+        <v>2380</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
       <c r="F99" s="5">
-        <v>1219.43</v>
+        <v>0</v>
       </c>
       <c r="G99" s="5">
-        <v>3238.42</v>
+        <v>0</v>
       </c>
       <c r="H99" s="5">
-        <v>2797.82</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D100" s="5">
-        <v>10377.86</v>
+        <v>4816.8100000000004</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
       </c>
       <c r="F100" s="5">
-        <v>5893.52</v>
+        <v>1219.43</v>
       </c>
       <c r="G100" s="5">
-        <v>0</v>
+        <v>3238.42</v>
       </c>
       <c r="H100" s="5">
-        <v>16271.38</v>
+        <v>2797.82</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3741,22 +3741,22 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="5">
-        <v>32245.57</v>
+        <v>10500.62</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
       <c r="F101" s="5">
-        <v>18983.34</v>
+        <v>5969.36</v>
       </c>
       <c r="G101" s="5">
         <v>0</v>
       </c>
       <c r="H101" s="5">
-        <v>51228.91</v>
+        <v>16469.98</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3767,22 +3767,22 @@
         <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="5">
-        <v>23738.99</v>
+        <v>32342.41</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
       <c r="F102" s="5">
-        <v>13520.9</v>
+        <v>19043.189999999999</v>
       </c>
       <c r="G102" s="5">
         <v>0</v>
       </c>
       <c r="H102" s="5">
-        <v>37259.89</v>
+        <v>51385.599999999999</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3793,22 +3793,22 @@
         <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" s="5">
-        <v>45430.92</v>
+        <v>23858.75</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <v>26070.32</v>
+        <v>13594.91</v>
       </c>
       <c r="G103" s="5">
         <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>71501.240000000005</v>
+        <v>37453.660000000003</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3816,25 +3816,25 @@
         <v>2019</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" s="5">
-        <v>2497.4699999999998</v>
+        <v>45793.08</v>
       </c>
       <c r="E104" s="5">
-        <v>2995.52</v>
+        <v>0</v>
       </c>
       <c r="F104" s="5">
-        <v>0</v>
+        <v>26294.09</v>
       </c>
       <c r="G104" s="5">
         <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>5492.99</v>
+        <v>72087.17</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3842,25 +3842,25 @@
         <v>2019</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D105" s="5">
-        <v>55912.91</v>
+        <v>2497.4699999999998</v>
       </c>
       <c r="E105" s="5">
-        <v>1892.6</v>
+        <v>2995.52</v>
       </c>
       <c r="F105" s="5">
-        <v>33131.019999999997</v>
+        <v>0</v>
       </c>
       <c r="G105" s="5">
-        <v>83.64</v>
+        <v>0</v>
       </c>
       <c r="H105" s="5">
-        <v>90852.89</v>
+        <v>5492.99</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3868,25 +3868,25 @@
         <v>2019</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D106" s="5">
-        <v>4574.45</v>
+        <v>56092.42</v>
       </c>
       <c r="E106" s="5">
-        <v>0</v>
+        <v>1899.4</v>
       </c>
       <c r="F106" s="5">
-        <v>0</v>
+        <v>33244.769999999997</v>
       </c>
       <c r="G106" s="5">
-        <v>0</v>
+        <v>83.64</v>
       </c>
       <c r="H106" s="5">
-        <v>4574.45</v>
+        <v>91152.95</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,51 +3894,51 @@
         <v>2019</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="5">
-        <v>59876.82</v>
+        <v>4574.45</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
       <c r="F107" s="5">
-        <v>4993.1400000000003</v>
+        <v>0</v>
       </c>
       <c r="G107" s="5">
-        <v>52068.36</v>
+        <v>0</v>
       </c>
       <c r="H107" s="5">
-        <v>12801.6</v>
+        <v>4574.45</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D108" s="5">
-        <v>23490.240000000002</v>
+        <v>59876.82</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
       <c r="F108" s="5">
-        <v>10448.120000000001</v>
+        <v>4993.1400000000003</v>
       </c>
       <c r="G108" s="5">
-        <v>0</v>
+        <v>52068.36</v>
       </c>
       <c r="H108" s="5">
-        <v>33938.36</v>
+        <v>12801.6</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3949,22 +3949,22 @@
         <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="5">
-        <v>50136.08</v>
+        <v>23631.48</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <v>22531.94</v>
+        <v>10517.39</v>
       </c>
       <c r="G109" s="5">
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>72668.02</v>
+        <v>34148.870000000003</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3975,22 +3975,22 @@
         <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="5">
-        <v>47212.18</v>
+        <v>50233.760000000002</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>21012.65</v>
+        <v>22579.84</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>68224.83</v>
+        <v>72813.600000000006</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,22 +4001,22 @@
         <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="5">
-        <v>99582.1</v>
+        <v>47335.66</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>44394.95</v>
+        <v>21073.19</v>
       </c>
       <c r="G111" s="5">
-        <v>6.98</v>
+        <v>0</v>
       </c>
       <c r="H111" s="5">
-        <v>143970.07</v>
+        <v>68408.850000000006</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4024,25 +4024,25 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" s="5">
-        <v>1420.5</v>
+        <v>99998.62</v>
       </c>
       <c r="E112" s="5">
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="F112" s="5">
-        <v>0</v>
+        <v>44599.21</v>
       </c>
       <c r="G112" s="5">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="H112" s="5">
-        <v>3190.5</v>
+        <v>144590.85</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4050,25 +4050,25 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D113" s="5">
-        <v>112762.19</v>
+        <v>1420.5</v>
       </c>
       <c r="E113" s="5">
-        <v>2715.84</v>
+        <v>1770</v>
       </c>
       <c r="F113" s="5">
-        <v>50963.93</v>
+        <v>0</v>
       </c>
       <c r="G113" s="5">
         <v>0</v>
       </c>
       <c r="H113" s="5">
-        <v>166441.96</v>
+        <v>3190.5</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,25 +4076,25 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D114" s="5">
-        <v>27472.33</v>
+        <v>112948.49</v>
       </c>
       <c r="E114" s="5">
-        <v>0</v>
+        <v>2722.64</v>
       </c>
       <c r="F114" s="5">
-        <v>0</v>
+        <v>51055.12</v>
       </c>
       <c r="G114" s="5">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>26397.33</v>
+        <v>166726.25</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4102,51 +4102,51 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" s="5">
-        <v>852551.12</v>
+        <v>27472.33</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
       <c r="F115" s="5">
-        <v>41324.089999999997</v>
+        <v>0</v>
       </c>
       <c r="G115" s="5">
-        <v>767013.55</v>
+        <v>1075</v>
       </c>
       <c r="H115" s="5">
-        <v>126861.66</v>
+        <v>26397.33</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D116" s="5">
-        <v>39199.21</v>
+        <v>852551.12</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
       <c r="F116" s="5">
-        <v>12611.63</v>
+        <v>41324.089999999997</v>
       </c>
       <c r="G116" s="5">
-        <v>0</v>
+        <v>767013.55</v>
       </c>
       <c r="H116" s="5">
-        <v>51810.84</v>
+        <v>126861.66</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4157,22 +4157,22 @@
         <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="5">
-        <v>89772.54</v>
+        <v>39346.93</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>29096.32</v>
+        <v>12666.65</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>118868.86</v>
+        <v>52013.58</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4183,22 +4183,22 @@
         <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" s="5">
-        <v>80461.78</v>
+        <v>89871.3</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>25858.95</v>
+        <v>29133.11</v>
       </c>
       <c r="G118" s="5">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>106315.54</v>
+        <v>119004.41</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4209,22 +4209,22 @@
         <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="5">
-        <v>172064.34</v>
+        <v>80586.7</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>55724.35</v>
+        <v>25905.48</v>
       </c>
       <c r="G119" s="5">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="H119" s="5">
-        <v>227788.69</v>
+        <v>106486.99</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4232,25 +4232,25 @@
         <v>2021</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>5624.59</v>
+        <v>172491.78</v>
       </c>
       <c r="E120" s="5">
-        <v>7670.08</v>
+        <v>0</v>
       </c>
       <c r="F120" s="5">
-        <v>0</v>
+        <v>55883.59</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>13294.67</v>
+        <v>228375.37</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,25 +4258,25 @@
         <v>2021</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D121" s="5">
-        <v>187113.28</v>
+        <v>5637.59</v>
       </c>
       <c r="E121" s="5">
-        <v>4343.8</v>
+        <v>7690.08</v>
       </c>
       <c r="F121" s="5">
-        <v>77651.539999999994</v>
+        <v>0</v>
       </c>
       <c r="G121" s="5">
         <v>0</v>
       </c>
       <c r="H121" s="5">
-        <v>269108.62</v>
+        <v>13327.67</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4284,25 +4284,25 @@
         <v>2021</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D122" s="5">
-        <v>102865.16</v>
+        <v>187301.27</v>
       </c>
       <c r="E122" s="5">
-        <v>0</v>
+        <v>4350.6000000000004</v>
       </c>
       <c r="F122" s="5">
-        <v>0</v>
+        <v>77734.899999999994</v>
       </c>
       <c r="G122" s="5">
         <v>0</v>
       </c>
       <c r="H122" s="5">
-        <v>102865.16</v>
+        <v>269386.77</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4310,51 +4310,51 @@
         <v>2021</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" s="5">
-        <v>752479.15</v>
+        <v>102865.16</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
       <c r="F123" s="5">
-        <v>37923.61</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5">
-        <v>647171.76</v>
+        <v>0</v>
       </c>
       <c r="H123" s="5">
-        <v>143231</v>
+        <v>102865.16</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D124" s="5">
-        <v>84099.88</v>
+        <v>752479.15</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>17712.900000000001</v>
+        <v>37923.61</v>
       </c>
       <c r="G124" s="5">
-        <v>0</v>
+        <v>647171.76</v>
       </c>
       <c r="H124" s="5">
-        <v>101812.78</v>
+        <v>143231</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4365,22 +4365,22 @@
         <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>173316.36</v>
+        <v>84316.94</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>36297.919999999998</v>
+        <v>17763.36</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>209614.28</v>
+        <v>102080.3</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4391,22 +4391,22 @@
         <v>8</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>205412.93</v>
+        <v>173477.9</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>43143.44</v>
+        <v>36335.730000000003</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>248556.37</v>
+        <v>209813.63</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4417,22 +4417,22 @@
         <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>422410.74</v>
+        <v>205539.44</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>89072.12</v>
+        <v>43173.08</v>
       </c>
       <c r="G127" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>511481.96</v>
+        <v>248712.52</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4440,25 +4440,25 @@
         <v>2022</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>16235.45</v>
+        <v>422767.97</v>
       </c>
       <c r="E128" s="5">
-        <v>23236.92</v>
+        <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>0</v>
+        <v>89164.78</v>
       </c>
       <c r="G128" s="5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>39472.370000000003</v>
+        <v>511931.85</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4466,25 +4466,25 @@
         <v>2022</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D129" s="5">
-        <v>412570.04</v>
+        <v>16248.45</v>
       </c>
       <c r="E129" s="5">
-        <v>8109.69</v>
+        <v>23256.92</v>
       </c>
       <c r="F129" s="5">
-        <v>116868.98</v>
+        <v>0</v>
       </c>
       <c r="G129" s="5">
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>537548.71</v>
+        <v>39505.370000000003</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4492,25 +4492,25 @@
         <v>2022</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>316283.38</v>
+        <v>412771.81</v>
       </c>
       <c r="E130" s="5">
-        <v>0</v>
+        <v>8115.75</v>
       </c>
       <c r="F130" s="5">
-        <v>0</v>
+        <v>116934.28</v>
       </c>
       <c r="G130" s="5">
-        <v>5750</v>
+        <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>310533.38</v>
+        <v>537821.84</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4518,51 +4518,51 @@
         <v>2022</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="5">
-        <v>979297.25</v>
+        <v>316283.38</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
       <c r="F131" s="5">
-        <v>26746.65</v>
+        <v>0</v>
       </c>
       <c r="G131" s="5">
-        <v>873907.39</v>
+        <v>5750</v>
       </c>
       <c r="H131" s="5">
-        <v>132136.51</v>
+        <v>310533.38</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D132" s="5">
-        <v>285187.12</v>
+        <v>979297.25</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
       <c r="F132" s="5">
-        <v>25561.16</v>
+        <v>26746.65</v>
       </c>
       <c r="G132" s="5">
-        <v>0.04</v>
+        <v>873907.39</v>
       </c>
       <c r="H132" s="5">
-        <v>310748.24</v>
+        <v>132136.51</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4573,22 +4573,22 @@
         <v>8</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>630273.84</v>
+        <v>285187.12</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>59849.15</v>
+        <v>25561.16</v>
       </c>
       <c r="G133" s="5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>690122.99</v>
+        <v>310748.24</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,22 +4599,22 @@
         <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>685960.86</v>
+        <v>630273.84</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60655.6</v>
+        <v>59849.15</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>746616.46</v>
+        <v>690122.99</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4625,22 +4625,22 @@
         <v>8</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>1442447.58</v>
+        <v>685960.86</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>128901.6</v>
+        <v>60655.6</v>
       </c>
       <c r="G135" s="5">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>1571347.2</v>
+        <v>746616.46</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4648,25 +4648,25 @@
         <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>127421.38</v>
+        <v>1442447.58</v>
       </c>
       <c r="E136" s="5">
-        <v>183009.22</v>
+        <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>0</v>
+        <v>128901.6</v>
       </c>
       <c r="G136" s="5">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>310430.59999999998</v>
+        <v>1571347.2</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4674,25 +4674,25 @@
         <v>2023</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>1450387.82</v>
+        <v>127421.38</v>
       </c>
       <c r="E137" s="5">
-        <v>21187.360000000001</v>
+        <v>183009.22</v>
       </c>
       <c r="F137" s="5">
-        <v>136289.75</v>
+        <v>0</v>
       </c>
       <c r="G137" s="5">
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>1607864.93</v>
+        <v>310430.59999999998</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,25 +4700,25 @@
         <v>2023</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>577037.43000000005</v>
+        <v>1450775.19</v>
       </c>
       <c r="E138" s="5">
-        <v>0</v>
+        <v>21187.360000000001</v>
       </c>
       <c r="F138" s="5">
-        <v>0</v>
+        <v>136340.07999999999</v>
       </c>
       <c r="G138" s="5">
-        <v>86318.29</v>
+        <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>490719.14</v>
+        <v>1608302.63</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4726,51 +4726,51 @@
         <v>2023</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" s="5">
-        <v>1403439.52</v>
+        <v>577037.43000000005</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
       <c r="F139" s="5">
-        <v>24304.89</v>
+        <v>0</v>
       </c>
       <c r="G139" s="5">
-        <v>1234923.56</v>
+        <v>86318.29</v>
       </c>
       <c r="H139" s="5">
-        <v>192820.85</v>
+        <v>490719.14</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" s="5">
-        <v>5414.8</v>
+        <v>1403439.52</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
       <c r="F140" s="5">
-        <v>0</v>
+        <v>24304.89</v>
       </c>
       <c r="G140" s="5">
-        <v>2575</v>
+        <v>1234923.56</v>
       </c>
       <c r="H140" s="5">
-        <v>2839.8</v>
+        <v>192820.85</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4778,13 +4778,13 @@
         <v>2024</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141" s="5">
-        <v>4530</v>
+        <v>5414.8</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -4793,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="5">
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="H141" s="5">
-        <v>4530</v>
+        <v>2839.8</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4804,13 +4804,13 @@
         <v>2024</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D142" s="5">
-        <v>8100</v>
+        <v>4530</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="H142" s="5">
-        <v>8100</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4830,13 +4830,13 @@
         <v>2024</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" s="5">
-        <v>12240</v>
+        <v>8100</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="5">
-        <v>12240</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4856,13 +4856,13 @@
         <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D144" s="5">
-        <v>192150</v>
+        <v>12240</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="5">
-        <v>192150</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4882,13 +4882,13 @@
         <v>2024</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145" s="5">
-        <v>0.3</v>
+        <v>192150</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="H145" s="5">
-        <v>0.3</v>
+        <v>192150</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4908,13 +4908,13 @@
         <v>2024</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D146" s="5">
-        <v>3960.45</v>
+        <v>0.3</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="5">
-        <v>3960.45</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4934,13 +4934,13 @@
         <v>2024</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D147" s="5">
-        <v>468010</v>
+        <v>3960.45</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>468010</v>
+        <v>3960.45</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4960,13 +4960,13 @@
         <v>2024</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>362592.4</v>
+        <v>468120</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>362592.4</v>
+        <v>468120</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4986,13 +4986,13 @@
         <v>2024</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D149" s="5">
-        <v>2203</v>
+        <v>362592.4</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="5">
-        <v>2203</v>
+        <v>362592.4</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5012,13 +5012,13 @@
         <v>2024</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D150" s="5">
-        <v>120</v>
+        <v>2203</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="5">
-        <v>120</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5038,13 +5038,13 @@
         <v>2024</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="5">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="5">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5064,13 +5064,13 @@
         <v>2024</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" s="5">
-        <v>4164.3</v>
+        <v>3</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="5">
-        <v>4164.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5090,13 +5090,13 @@
         <v>2024</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" s="5">
-        <v>13629.6</v>
+        <v>4164.3</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="5">
-        <v>13629.6</v>
+        <v>4164.3</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5116,13 +5116,13 @@
         <v>2024</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" s="5">
-        <v>565.20000000000005</v>
+        <v>13629.6</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="5">
-        <v>565.20000000000005</v>
+        <v>13629.6</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5142,25 +5142,25 @@
         <v>2024</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D155" s="5">
-        <v>2422014.7400000002</v>
+        <v>565.20000000000005</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
       <c r="F155" s="5">
-        <v>14221.56</v>
+        <v>0</v>
       </c>
       <c r="G155" s="5">
-        <v>73339.41</v>
+        <v>0</v>
       </c>
       <c r="H155" s="5">
-        <v>2362896.89</v>
+        <v>565.20000000000005</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5171,22 +5171,22 @@
         <v>8</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>4331422.6500000004</v>
+        <v>2422469.25</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>26696.02</v>
+        <v>14229.13</v>
       </c>
       <c r="G156" s="5">
-        <v>124272.16</v>
+        <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>4233846.51</v>
+        <v>2363358.9700000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,22 +5197,22 @@
         <v>8</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4556611.3899999997</v>
+        <v>4332377.6399999997</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>30533.96</v>
+        <v>26714.55</v>
       </c>
       <c r="G157" s="5">
-        <v>190620.73</v>
+        <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4396524.62</v>
+        <v>4234820.03</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5223,22 +5223,22 @@
         <v>8</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>9193344.0600000005</v>
+        <v>4557643.46</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>63710.84</v>
+        <v>30554.79</v>
       </c>
       <c r="G158" s="5">
-        <v>323805.7</v>
+        <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>8933249.1999999993</v>
+        <v>4397577.5199999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,25 +5246,25 @@
         <v>2024</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>160</v>
+        <v>9195029.1300000008</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>0</v>
+        <v>63743.4</v>
       </c>
       <c r="G159" s="5">
-        <v>0</v>
+        <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>160</v>
+        <v>8934966.8300000001</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5272,13 +5272,13 @@
         <v>2024</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" s="5">
-        <v>135.30000000000001</v>
+        <v>160</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="5">
-        <v>135.30000000000001</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5298,13 +5298,13 @@
         <v>2024</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" s="5">
-        <v>60.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>60.3</v>
+        <v>135.30000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5324,13 +5324,13 @@
         <v>2024</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="5">
-        <v>120.6</v>
+        <v>60.3</v>
       </c>
       <c r="E162" s="5">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="5">
-        <v>120.6</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5350,13 +5350,13 @@
         <v>2024</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D163" s="5">
-        <v>60.3</v>
+        <v>120.6</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="5">
-        <v>60.3</v>
+        <v>120.6</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5376,13 +5376,13 @@
         <v>2024</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D164" s="5">
-        <v>301.5</v>
+        <v>60.3</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="5">
-        <v>301.5</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5402,13 +5402,13 @@
         <v>2024</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D165" s="5">
-        <v>6696</v>
+        <v>301.5</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="5">
-        <v>6696</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5428,13 +5428,13 @@
         <v>2024</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D166" s="5">
-        <v>144</v>
+        <v>6696</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="H166" s="5">
-        <v>144</v>
+        <v>6696</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5454,13 +5454,13 @@
         <v>2024</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D167" s="5">
-        <v>6798</v>
+        <v>144</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="5">
-        <v>6798</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5480,13 +5480,13 @@
         <v>2024</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D168" s="5">
-        <v>618</v>
+        <v>6798</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="5">
-        <v>618</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5506,13 +5506,13 @@
         <v>2024</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D169" s="5">
-        <v>25358</v>
+        <v>618</v>
       </c>
       <c r="E169" s="5">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="5">
-        <v>25358</v>
+        <v>618</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5532,13 +5532,13 @@
         <v>2024</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D170" s="5">
-        <v>145</v>
+        <v>25358</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="5">
-        <v>145</v>
+        <v>25358</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5558,13 +5558,13 @@
         <v>2024</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D171" s="5">
-        <v>217.5</v>
+        <v>145</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="5">
-        <v>217.5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5584,13 +5584,13 @@
         <v>2024</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D172" s="5">
-        <v>117.3</v>
+        <v>217.5</v>
       </c>
       <c r="E172" s="5">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="5">
-        <v>117.3</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5610,13 +5610,13 @@
         <v>2024</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D173" s="5">
-        <v>34.5</v>
+        <v>117.3</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="5">
-        <v>34.5</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5636,13 +5636,13 @@
         <v>2024</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D174" s="5">
-        <v>1849.2</v>
+        <v>34.5</v>
       </c>
       <c r="E174" s="5">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="5">
-        <v>1849.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5662,13 +5662,13 @@
         <v>2024</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D175" s="5">
-        <v>230</v>
+        <v>1849.2</v>
       </c>
       <c r="E175" s="5">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="5">
-        <v>230</v>
+        <v>1849.2</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5688,13 +5688,13 @@
         <v>2024</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D176" s="5">
-        <v>1476.6</v>
+        <v>230</v>
       </c>
       <c r="E176" s="5">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="H176" s="5">
-        <v>1476.6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,13 +5714,13 @@
         <v>2024</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D177" s="5">
-        <v>60.3</v>
+        <v>1476.6</v>
       </c>
       <c r="E177" s="5">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="5">
-        <v>60.3</v>
+        <v>1476.6</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5740,13 +5740,13 @@
         <v>2024</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D178" s="5">
-        <v>41.4</v>
+        <v>60.3</v>
       </c>
       <c r="E178" s="5">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="5">
-        <v>41.4</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5766,13 +5766,13 @@
         <v>2024</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D179" s="5">
-        <v>2773.8</v>
+        <v>41.4</v>
       </c>
       <c r="E179" s="5">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="H179" s="5">
-        <v>2773.8</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5792,13 +5792,13 @@
         <v>2024</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D180" s="5">
-        <v>171.6</v>
+        <v>2773.8</v>
       </c>
       <c r="E180" s="5">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="H180" s="5">
-        <v>171.6</v>
+        <v>2773.8</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5818,13 +5818,13 @@
         <v>2024</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D181" s="5">
-        <v>288.60000000000002</v>
+        <v>171.6</v>
       </c>
       <c r="E181" s="5">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="H181" s="5">
-        <v>288.60000000000002</v>
+        <v>171.6</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5844,13 +5844,13 @@
         <v>2024</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D182" s="5">
-        <v>18596.599999999999</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="E182" s="5">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="H182" s="5">
-        <v>18596.599999999999</v>
+        <v>288.60000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5870,13 +5870,13 @@
         <v>2024</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D183" s="5">
-        <v>10479.799999999999</v>
+        <v>18596.599999999999</v>
       </c>
       <c r="E183" s="5">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="H183" s="5">
-        <v>10479.799999999999</v>
+        <v>18596.599999999999</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5896,13 +5896,13 @@
         <v>2024</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D184" s="5">
-        <v>924.5</v>
+        <v>10479.799999999999</v>
       </c>
       <c r="E184" s="5">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="H184" s="5">
-        <v>924.5</v>
+        <v>10479.799999999999</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5922,13 +5922,13 @@
         <v>2024</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D185" s="5">
-        <v>693.5</v>
+        <v>924.5</v>
       </c>
       <c r="E185" s="5">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="H185" s="5">
-        <v>693.5</v>
+        <v>924.5</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5948,13 +5948,13 @@
         <v>2024</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D186" s="5">
-        <v>22568</v>
+        <v>693.5</v>
       </c>
       <c r="E186" s="5">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="H186" s="5">
-        <v>22568</v>
+        <v>693.5</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5974,13 +5974,13 @@
         <v>2024</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D187" s="5">
-        <v>521</v>
+        <v>22568</v>
       </c>
       <c r="E187" s="5">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>521</v>
+        <v>22568</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6000,13 +6000,13 @@
         <v>2024</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D188" s="5">
-        <v>29900</v>
+        <v>521</v>
       </c>
       <c r="E188" s="5">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="5">
-        <v>29900</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,13 +6026,13 @@
         <v>2024</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D189" s="5">
-        <v>396</v>
+        <v>29900</v>
       </c>
       <c r="E189" s="5">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>396</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6052,13 +6052,13 @@
         <v>2024</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D190" s="5">
-        <v>5214</v>
+        <v>396</v>
       </c>
       <c r="E190" s="5">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="5">
-        <v>5214</v>
+        <v>396</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,13 +6078,13 @@
         <v>2024</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D191" s="5">
-        <v>58232</v>
+        <v>5214</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>58232</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6104,13 +6104,13 @@
         <v>2024</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D192" s="5">
-        <v>950.4</v>
+        <v>58232</v>
       </c>
       <c r="E192" s="5">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="5">
-        <v>950.4</v>
+        <v>58232</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,13 +6130,13 @@
         <v>2024</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D193" s="5">
-        <v>2292</v>
+        <v>950.4</v>
       </c>
       <c r="E193" s="5">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="H193" s="5">
-        <v>2292</v>
+        <v>950.4</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6156,13 +6156,13 @@
         <v>2024</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D194" s="5">
-        <v>957</v>
+        <v>2292</v>
       </c>
       <c r="E194" s="5">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="5">
-        <v>957</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6182,13 +6182,13 @@
         <v>2024</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D195" s="5">
-        <v>3979</v>
+        <v>957</v>
       </c>
       <c r="E195" s="5">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="5">
-        <v>3979</v>
+        <v>957</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6208,13 +6208,13 @@
         <v>2024</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D196" s="5">
-        <v>15381.9</v>
+        <v>3979</v>
       </c>
       <c r="E196" s="5">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="H196" s="5">
-        <v>15381.9</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6234,13 +6234,13 @@
         <v>2024</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D197" s="5">
-        <v>620.70000000000005</v>
+        <v>15381.9</v>
       </c>
       <c r="E197" s="5">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="5">
-        <v>620.70000000000005</v>
+        <v>15381.9</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6260,13 +6260,13 @@
         <v>2024</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D198" s="5">
-        <v>288.8</v>
+        <v>620.70000000000005</v>
       </c>
       <c r="E198" s="5">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="5">
-        <v>288.8</v>
+        <v>620.70000000000005</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6286,13 +6286,13 @@
         <v>2024</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D199" s="5">
-        <v>2272</v>
+        <v>288.8</v>
       </c>
       <c r="E199" s="5">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="5">
-        <v>2272</v>
+        <v>288.8</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6312,13 +6312,13 @@
         <v>2024</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D200" s="5">
-        <v>4302</v>
+        <v>2272</v>
       </c>
       <c r="E200" s="5">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="5">
-        <v>4302</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6338,13 +6338,13 @@
         <v>2024</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D201" s="5">
-        <v>391.1</v>
+        <v>4302</v>
       </c>
       <c r="E201" s="5">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="5">
-        <v>391.1</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6364,13 +6364,13 @@
         <v>2024</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D202" s="5">
-        <v>150</v>
+        <v>391.1</v>
       </c>
       <c r="E202" s="5">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="5">
-        <v>150</v>
+        <v>391.1</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6390,13 +6390,13 @@
         <v>2024</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D203" s="5">
-        <v>520.79999999999995</v>
+        <v>150</v>
       </c>
       <c r="E203" s="5">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="5">
-        <v>520.79999999999995</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6416,13 +6416,13 @@
         <v>2024</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D204" s="5">
-        <v>41059.699999999997</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="E204" s="5">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="5">
-        <v>41059.699999999997</v>
+        <v>520.79999999999995</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6442,13 +6442,13 @@
         <v>2024</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>449.8</v>
+        <v>41059.699999999997</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>449.8</v>
+        <v>41059.699999999997</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6468,13 +6468,13 @@
         <v>2024</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D206" s="5">
-        <v>147000</v>
+        <v>449.8</v>
       </c>
       <c r="E206" s="5">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="5">
-        <v>147000</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6494,13 +6494,13 @@
         <v>2024</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D207" s="5">
-        <v>111.3</v>
+        <v>147000</v>
       </c>
       <c r="E207" s="5">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="5">
-        <v>111.3</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6520,13 +6520,13 @@
         <v>2024</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D208" s="5">
-        <v>52.95</v>
+        <v>111.3</v>
       </c>
       <c r="E208" s="5">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="5">
-        <v>52.95</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6546,13 +6546,13 @@
         <v>2024</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D209" s="5">
-        <v>2175.1999999999998</v>
+        <v>52.95</v>
       </c>
       <c r="E209" s="5">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="5">
-        <v>2175.1999999999998</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6572,16 +6572,16 @@
         <v>2024</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D210" s="5">
-        <v>224049.94</v>
+        <v>2175.1999999999998</v>
       </c>
       <c r="E210" s="5">
-        <v>249311.94</v>
+        <v>0</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>473361.88</v>
+        <v>2175.1999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,16 +6598,16 @@
         <v>2024</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>400</v>
+        <v>224338.44</v>
       </c>
       <c r="E211" s="5">
-        <v>0</v>
+        <v>249651.94</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>400</v>
+        <v>473990.38</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6624,13 +6624,13 @@
         <v>2024</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D212" s="5">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E212" s="5">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6650,13 +6650,13 @@
         <v>2024</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D213" s="5">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="E213" s="5">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="5">
-        <v>210</v>
+        <v>420</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6676,13 +6676,13 @@
         <v>2024</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D214" s="5">
-        <v>15525</v>
+        <v>210</v>
       </c>
       <c r="E214" s="5">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="5">
-        <v>15525</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6702,13 +6702,13 @@
         <v>2024</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D215" s="5">
-        <v>200</v>
+        <v>15525</v>
       </c>
       <c r="E215" s="5">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="H215" s="5">
-        <v>200</v>
+        <v>15525</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6728,13 +6728,13 @@
         <v>2024</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D216" s="5">
-        <v>16650</v>
+        <v>200</v>
       </c>
       <c r="E216" s="5">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="5">
-        <v>16650</v>
+        <v>200</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6754,13 +6754,13 @@
         <v>2024</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D217" s="5">
-        <v>900</v>
+        <v>16650</v>
       </c>
       <c r="E217" s="5">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="H217" s="5">
-        <v>900</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6780,13 +6780,13 @@
         <v>2024</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D218" s="5">
-        <v>14350</v>
+        <v>900</v>
       </c>
       <c r="E218" s="5">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="H218" s="5">
-        <v>14350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6806,13 +6806,13 @@
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D219" s="5">
-        <v>7405</v>
+        <v>14350</v>
       </c>
       <c r="E219" s="5">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="H219" s="5">
-        <v>7405</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6832,13 +6832,13 @@
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D220" s="5">
-        <v>75</v>
+        <v>7405</v>
       </c>
       <c r="E220" s="5">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="5">
-        <v>75</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6858,13 +6858,13 @@
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D221" s="5">
-        <v>26114.400000000001</v>
+        <v>75</v>
       </c>
       <c r="E221" s="5">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="5">
-        <v>26114.400000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6884,13 +6884,13 @@
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D222" s="5">
-        <v>12503.8</v>
+        <v>26114.400000000001</v>
       </c>
       <c r="E222" s="5">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="5">
-        <v>12503.8</v>
+        <v>26114.400000000001</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6910,13 +6910,13 @@
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D223" s="5">
-        <v>482.9</v>
+        <v>12503.8</v>
       </c>
       <c r="E223" s="5">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="5">
-        <v>482.9</v>
+        <v>12503.8</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6936,13 +6936,13 @@
         <v>2024</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D224" s="5">
-        <v>1253.2</v>
+        <v>482.9</v>
       </c>
       <c r="E224" s="5">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="5">
-        <v>1253.2</v>
+        <v>482.9</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6962,13 +6962,13 @@
         <v>2024</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D225" s="5">
-        <v>47.6</v>
+        <v>1253.2</v>
       </c>
       <c r="E225" s="5">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="5">
-        <v>47.6</v>
+        <v>1253.2</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6988,13 +6988,13 @@
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D226" s="5">
-        <v>4149.6000000000004</v>
+        <v>47.6</v>
       </c>
       <c r="E226" s="5">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="5">
-        <v>4149.6000000000004</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7014,13 +7014,13 @@
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D227" s="5">
-        <v>3172.5</v>
+        <v>4149.6000000000004</v>
       </c>
       <c r="E227" s="5">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="H227" s="5">
-        <v>3172.5</v>
+        <v>4149.6000000000004</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7040,13 +7040,13 @@
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D228" s="5">
-        <v>2301</v>
+        <v>3217.5</v>
       </c>
       <c r="E228" s="5">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="5">
-        <v>2301</v>
+        <v>3217.5</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7066,13 +7066,13 @@
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D229" s="5">
-        <v>1092</v>
+        <v>2301</v>
       </c>
       <c r="E229" s="5">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="H229" s="5">
-        <v>1092</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7092,13 +7092,13 @@
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D230" s="5">
-        <v>732</v>
+        <v>1092</v>
       </c>
       <c r="E230" s="5">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="5">
-        <v>732</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7118,13 +7118,13 @@
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D231" s="5">
-        <v>688.5</v>
+        <v>732</v>
       </c>
       <c r="E231" s="5">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="H231" s="5">
-        <v>688.5</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7144,13 +7144,13 @@
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D232" s="5">
-        <v>39355</v>
+        <v>688.5</v>
       </c>
       <c r="E232" s="5">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="H232" s="5">
-        <v>39355</v>
+        <v>688.5</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7170,13 +7170,13 @@
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D233" s="5">
-        <v>1320</v>
+        <v>39355</v>
       </c>
       <c r="E233" s="5">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="5">
-        <v>1320</v>
+        <v>39355</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7196,13 +7196,13 @@
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D234" s="5">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>1400</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7222,13 +7222,13 @@
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D235" s="5">
-        <v>7150</v>
+        <v>1400</v>
       </c>
       <c r="E235" s="5">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="5">
-        <v>7150</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7248,13 +7248,13 @@
         <v>2024</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D236" s="5">
-        <v>4770</v>
+        <v>7150</v>
       </c>
       <c r="E236" s="5">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="H236" s="5">
-        <v>4770</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7274,13 +7274,13 @@
         <v>2024</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D237" s="5">
-        <v>6105</v>
+        <v>4770</v>
       </c>
       <c r="E237" s="5">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="H237" s="5">
-        <v>6105</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7300,25 +7300,25 @@
         <v>2024</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D238" s="5">
-        <v>14820726.289999999</v>
+        <v>6105</v>
       </c>
       <c r="E238" s="5">
-        <v>215020.28</v>
+        <v>0</v>
       </c>
       <c r="F238" s="5">
-        <v>73685.55</v>
+        <v>0</v>
       </c>
       <c r="G238" s="5">
         <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>15109432.119999999</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7326,25 +7326,25 @@
         <v>2024</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>330</v>
+        <v>14822503.17</v>
       </c>
       <c r="E239" s="5">
-        <v>0</v>
+        <v>215034.7</v>
       </c>
       <c r="F239" s="5">
-        <v>0</v>
+        <v>73728.83</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>330</v>
+        <v>15111266.699999999</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7352,13 +7352,13 @@
         <v>2024</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D240" s="5">
-        <v>233902.3</v>
+        <v>330</v>
       </c>
       <c r="E240" s="5">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>233902.3</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7378,13 +7378,13 @@
         <v>2024</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D241" s="5">
-        <v>5645205.0300000003</v>
+        <v>233902.3</v>
       </c>
       <c r="E241" s="5">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="5">
-        <v>5645205.0300000003</v>
+        <v>233902.3</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7404,13 +7404,13 @@
         <v>2024</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D242" s="5">
-        <v>571.65</v>
+        <v>5645205.0300000003</v>
       </c>
       <c r="E242" s="5">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="H242" s="5">
-        <v>571.65</v>
+        <v>5645205.0300000003</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7430,13 +7430,13 @@
         <v>2024</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D243" s="5">
-        <v>1088</v>
+        <v>571.65</v>
       </c>
       <c r="E243" s="5">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="H243" s="5">
-        <v>1088</v>
+        <v>571.65</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7456,13 +7456,13 @@
         <v>2024</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D244" s="5">
-        <v>98404.800000000003</v>
+        <v>1088</v>
       </c>
       <c r="E244" s="5">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="5">
-        <v>98404.800000000003</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7482,13 +7482,13 @@
         <v>2024</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D245" s="5">
-        <v>8375</v>
+        <v>98404.800000000003</v>
       </c>
       <c r="E245" s="5">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="5">
-        <v>8375</v>
+        <v>98404.800000000003</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7508,13 +7508,13 @@
         <v>2024</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D246" s="5">
-        <v>97402.2</v>
+        <v>8375</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="5">
-        <v>97402.2</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7534,13 +7534,13 @@
         <v>2024</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D247" s="5">
-        <v>37.6</v>
+        <v>97402.2</v>
       </c>
       <c r="E247" s="5">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="5">
-        <v>37.6</v>
+        <v>97402.2</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7560,10 +7560,10 @@
         <v>2024</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D248" s="5">
         <v>37.6</v>
@@ -7586,10 +7586,10 @@
         <v>2024</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D249" s="5">
         <v>37.6</v>
@@ -7612,13 +7612,13 @@
         <v>2024</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D250" s="5">
-        <v>100.5</v>
+        <v>37.6</v>
       </c>
       <c r="E250" s="5">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="H250" s="5">
-        <v>100.5</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7638,13 +7638,13 @@
         <v>2024</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D251" s="5">
-        <v>426.1</v>
+        <v>100.5</v>
       </c>
       <c r="E251" s="5">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="H251" s="5">
-        <v>426.1</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7664,13 +7664,13 @@
         <v>2024</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D252" s="5">
-        <v>225.6</v>
+        <v>426.1</v>
       </c>
       <c r="E252" s="5">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="5">
-        <v>225.6</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7690,13 +7690,13 @@
         <v>2024</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D253" s="5">
-        <v>426.1</v>
+        <v>225.6</v>
       </c>
       <c r="E253" s="5">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="5">
-        <v>426.1</v>
+        <v>225.6</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7716,13 +7716,13 @@
         <v>2024</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D254" s="5">
-        <v>9560.4</v>
+        <v>426.1</v>
       </c>
       <c r="E254" s="5">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="H254" s="5">
-        <v>9560.4</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7742,13 +7742,13 @@
         <v>2024</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D255" s="5">
-        <v>179318.26</v>
+        <v>9560.4</v>
       </c>
       <c r="E255" s="5">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="5">
-        <v>179318.26</v>
+        <v>9560.4</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7768,13 +7768,13 @@
         <v>2024</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D256" s="5">
-        <v>126.6</v>
+        <v>179318.26</v>
       </c>
       <c r="E256" s="5">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="5">
-        <v>126.6</v>
+        <v>179318.26</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7794,13 +7794,13 @@
         <v>2024</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D257" s="5">
-        <v>100.5</v>
+        <v>126.6</v>
       </c>
       <c r="E257" s="5">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="5">
-        <v>100.5</v>
+        <v>126.6</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7820,13 +7820,13 @@
         <v>2024</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D258" s="5">
-        <v>11436.6</v>
+        <v>100.5</v>
       </c>
       <c r="E258" s="5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="5">
-        <v>11436.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7846,13 +7846,13 @@
         <v>2024</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D259" s="5">
-        <v>150.4</v>
+        <v>11436.6</v>
       </c>
       <c r="E259" s="5">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="5">
-        <v>150.4</v>
+        <v>11436.6</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7872,13 +7872,13 @@
         <v>2024</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D260" s="5">
-        <v>37.6</v>
+        <v>150.4</v>
       </c>
       <c r="E260" s="5">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="5">
-        <v>37.6</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7898,10 +7898,10 @@
         <v>2024</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D261" s="5">
         <v>37.6</v>
@@ -7924,10 +7924,10 @@
         <v>2024</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D262" s="5">
         <v>37.6</v>
@@ -7950,13 +7950,13 @@
         <v>2024</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D263" s="5">
-        <v>2935.2</v>
+        <v>37.6</v>
       </c>
       <c r="E263" s="5">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="5">
-        <v>2935.2</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7976,13 +7976,13 @@
         <v>2024</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D264" s="5">
-        <v>1530</v>
+        <v>2935.2</v>
       </c>
       <c r="E264" s="5">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="5">
-        <v>1530</v>
+        <v>2935.2</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8002,13 +8002,13 @@
         <v>2024</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D265" s="5">
-        <v>140.1</v>
+        <v>1530</v>
       </c>
       <c r="E265" s="5">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="5">
-        <v>140.1</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8028,10 +8028,10 @@
         <v>2024</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D266" s="5">
         <v>140.1</v>
@@ -8054,13 +8054,13 @@
         <v>2024</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D267" s="5">
-        <v>4355.8999999999996</v>
+        <v>140.1</v>
       </c>
       <c r="E267" s="5">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="H267" s="5">
-        <v>4355.8999999999996</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8080,13 +8080,13 @@
         <v>2024</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D268" s="5">
-        <v>110.8</v>
+        <v>4355.8999999999996</v>
       </c>
       <c r="E268" s="5">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="5">
-        <v>110.8</v>
+        <v>4355.8999999999996</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8106,13 +8106,13 @@
         <v>2024</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D269" s="5">
-        <v>140.1</v>
+        <v>110.8</v>
       </c>
       <c r="E269" s="5">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="5">
-        <v>140.1</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8132,13 +8132,13 @@
         <v>2024</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D270" s="5">
-        <v>136</v>
+        <v>140.1</v>
       </c>
       <c r="E270" s="5">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5">
-        <v>136</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8158,13 +8158,13 @@
         <v>2024</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D271" s="5">
-        <v>9225.2999999999993</v>
+        <v>136</v>
       </c>
       <c r="E271" s="5">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="5">
-        <v>9225.2999999999993</v>
+        <v>136</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8184,13 +8184,13 @@
         <v>2024</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D272" s="5">
-        <v>5605.2</v>
+        <v>9225.2999999999993</v>
       </c>
       <c r="E272" s="5">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="H272" s="5">
-        <v>5605.2</v>
+        <v>9225.2999999999993</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8210,13 +8210,13 @@
         <v>2024</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D273" s="5">
-        <v>227.9</v>
+        <v>5605.2</v>
       </c>
       <c r="E273" s="5">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="H273" s="5">
-        <v>227.9</v>
+        <v>5605.2</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8236,13 +8236,13 @@
         <v>2024</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D274" s="5">
-        <v>1341</v>
+        <v>227.9</v>
       </c>
       <c r="E274" s="5">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="5">
-        <v>1341</v>
+        <v>227.9</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8262,13 +8262,13 @@
         <v>2024</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D275" s="5">
-        <v>3072.3</v>
+        <v>1341</v>
       </c>
       <c r="E275" s="5">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="5">
-        <v>3072.3</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8288,13 +8288,13 @@
         <v>2024</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D276" s="5">
-        <v>368.1</v>
+        <v>3072.3</v>
       </c>
       <c r="E276" s="5">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="5">
-        <v>368.1</v>
+        <v>3072.3</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8314,13 +8314,13 @@
         <v>2024</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D277" s="5">
-        <v>796.7</v>
+        <v>368.1</v>
       </c>
       <c r="E277" s="5">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="5">
-        <v>796.7</v>
+        <v>368.1</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8340,13 +8340,13 @@
         <v>2024</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D278" s="5">
-        <v>2390.1</v>
+        <v>796.7</v>
       </c>
       <c r="E278" s="5">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="5">
-        <v>2390.1</v>
+        <v>796.7</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8366,13 +8366,13 @@
         <v>2024</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D279" s="5">
-        <v>3983.5</v>
+        <v>2390.1</v>
       </c>
       <c r="E279" s="5">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="5">
-        <v>3983.5</v>
+        <v>2390.1</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8392,13 +8392,13 @@
         <v>2024</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D280" s="5">
-        <v>3717</v>
+        <v>3983.5</v>
       </c>
       <c r="E280" s="5">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="5">
-        <v>3717</v>
+        <v>3983.5</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8418,13 +8418,13 @@
         <v>2024</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D281" s="5">
-        <v>2247</v>
+        <v>3717</v>
       </c>
       <c r="E281" s="5">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="5">
-        <v>2247</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8444,13 +8444,13 @@
         <v>2024</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D282" s="5">
-        <v>108855</v>
+        <v>2247</v>
       </c>
       <c r="E282" s="5">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="5">
-        <v>108855</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8470,13 +8470,13 @@
         <v>2024</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>27972</v>
+        <v>109039.5</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>27972</v>
+        <v>109039.5</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8496,13 +8496,13 @@
         <v>2024</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D284" s="5">
-        <v>1874</v>
+        <v>27972</v>
       </c>
       <c r="E284" s="5">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="5">
-        <v>1874</v>
+        <v>27972</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8522,13 +8522,13 @@
         <v>2024</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D285" s="5">
-        <v>54.6</v>
+        <v>1874</v>
       </c>
       <c r="E285" s="5">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="5">
-        <v>54.6</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8548,13 +8548,13 @@
         <v>2024</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D286" s="5">
-        <v>1680</v>
+        <v>54.6</v>
       </c>
       <c r="E286" s="5">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="5">
-        <v>1680</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8574,13 +8574,13 @@
         <v>2024</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D287" s="5">
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="E287" s="5">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="5">
-        <v>2100</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8600,13 +8600,13 @@
         <v>2024</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D288" s="5">
-        <v>70</v>
+        <v>2100</v>
       </c>
       <c r="E288" s="5">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="5">
-        <v>70</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8626,13 +8626,13 @@
         <v>2024</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D289" s="5">
-        <v>4980</v>
+        <v>70</v>
       </c>
       <c r="E289" s="5">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="5">
-        <v>4980</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8652,13 +8652,13 @@
         <v>2024</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D290" s="5">
-        <v>3760</v>
+        <v>4980</v>
       </c>
       <c r="E290" s="5">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="5">
-        <v>3760</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8678,13 +8678,13 @@
         <v>2024</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D291" s="5">
-        <v>409.2</v>
+        <v>3760</v>
       </c>
       <c r="E291" s="5">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="5">
-        <v>409.2</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8704,13 +8704,13 @@
         <v>2024</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D292" s="5">
-        <v>33.5</v>
+        <v>409.2</v>
       </c>
       <c r="E292" s="5">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="H292" s="5">
-        <v>33.5</v>
+        <v>409.2</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8730,13 +8730,13 @@
         <v>2024</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D293" s="5">
-        <v>167.5</v>
+        <v>33.5</v>
       </c>
       <c r="E293" s="5">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="H293" s="5">
-        <v>167.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8756,13 +8756,13 @@
         <v>2024</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D294" s="5">
-        <v>23052.1</v>
+        <v>167.5</v>
       </c>
       <c r="E294" s="5">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="5">
-        <v>23052.1</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8782,13 +8782,13 @@
         <v>2024</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D295" s="5">
-        <v>916.1</v>
+        <v>23052.1</v>
       </c>
       <c r="E295" s="5">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5">
-        <v>916.1</v>
+        <v>23052.1</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8808,13 +8808,13 @@
         <v>2024</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D296" s="5">
-        <v>4380</v>
+        <v>916.1</v>
       </c>
       <c r="E296" s="5">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5">
-        <v>4380</v>
+        <v>916.1</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8834,13 +8834,13 @@
         <v>2024</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D297" s="5">
-        <v>261</v>
+        <v>4380</v>
       </c>
       <c r="E297" s="5">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5">
-        <v>261</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8860,13 +8860,13 @@
         <v>2024</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D298" s="5">
-        <v>744.5</v>
+        <v>261</v>
       </c>
       <c r="E298" s="5">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="5">
-        <v>744.5</v>
+        <v>261</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8886,13 +8886,13 @@
         <v>2024</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D299" s="5">
-        <v>234.5</v>
+        <v>744.5</v>
       </c>
       <c r="E299" s="5">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="H299" s="5">
-        <v>234.5</v>
+        <v>744.5</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8912,13 +8912,13 @@
         <v>2024</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D300" s="5">
-        <v>2505552.0299999998</v>
+        <v>234.5</v>
       </c>
       <c r="E300" s="5">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5">
-        <v>1180872.32</v>
+        <v>0</v>
       </c>
       <c r="H300" s="5">
-        <v>1324679.71</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,25 +8938,25 @@
         <v>2024</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D301" s="5">
-        <v>2003357.69</v>
+        <v>2505552.0299999998</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
       </c>
       <c r="F301" s="5">
-        <v>11383.99</v>
+        <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1777411.63</v>
+        <v>1180872.32</v>
       </c>
       <c r="H301" s="5">
-        <v>237330.05</v>
+        <v>1324679.71</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8964,25 +8964,25 @@
         <v>2024</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>5073</v>
+        <v>2003357.69</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
       <c r="F302" s="5">
-        <v>0</v>
+        <v>11383.99</v>
       </c>
       <c r="G302" s="5">
-        <v>0</v>
+        <v>1777411.63</v>
       </c>
       <c r="H302" s="5">
-        <v>5073</v>
+        <v>237330.05</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8990,13 +8990,13 @@
         <v>2024</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D303" s="5">
-        <v>3078</v>
+        <v>5073</v>
       </c>
       <c r="E303" s="5">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="H303" s="5">
-        <v>3078</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9016,13 +9016,13 @@
         <v>2024</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D304" s="5">
-        <v>570.64</v>
+        <v>3078</v>
       </c>
       <c r="E304" s="5">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="H304" s="5">
-        <v>570.64</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9042,13 +9042,13 @@
         <v>2024</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D305" s="5">
-        <v>2828.87</v>
+        <v>570.64</v>
       </c>
       <c r="E305" s="5">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="H305" s="5">
-        <v>2828.87</v>
+        <v>570.64</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9068,13 +9068,13 @@
         <v>2024</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D306" s="5">
-        <v>6</v>
+        <v>2828.87</v>
       </c>
       <c r="E306" s="5">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="H306" s="5">
-        <v>6</v>
+        <v>2828.87</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9094,13 +9094,13 @@
         <v>2024</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D307" s="5">
-        <v>2191</v>
+        <v>6</v>
       </c>
       <c r="E307" s="5">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="H307" s="5">
-        <v>2191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9120,13 +9120,13 @@
         <v>2024</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D308" s="5">
-        <v>1510</v>
+        <v>2191</v>
       </c>
       <c r="E308" s="5">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="H308" s="5">
-        <v>1510</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9146,13 +9146,13 @@
         <v>2024</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D309" s="5">
-        <v>220</v>
+        <v>1510</v>
       </c>
       <c r="E309" s="5">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="H309" s="5">
-        <v>220</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9172,13 +9172,13 @@
         <v>2024</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D310" s="5">
-        <v>1560</v>
+        <v>220</v>
       </c>
       <c r="E310" s="5">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="H310" s="5">
-        <v>1560</v>
+        <v>220</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9198,13 +9198,13 @@
         <v>2024</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D311" s="5">
-        <v>7882</v>
+        <v>1560</v>
       </c>
       <c r="E311" s="5">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="H311" s="5">
-        <v>7882</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,13 +9224,13 @@
         <v>2024</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D312" s="5">
-        <v>3645</v>
+        <v>7882</v>
       </c>
       <c r="E312" s="5">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="H312" s="5">
-        <v>3645</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9250,13 +9250,13 @@
         <v>2024</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D313" s="5">
-        <v>13090</v>
+        <v>3645</v>
       </c>
       <c r="E313" s="5">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="H313" s="5">
-        <v>13090</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9276,13 +9276,13 @@
         <v>2024</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D314" s="5">
-        <v>90</v>
+        <v>13090</v>
       </c>
       <c r="E314" s="5">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="H314" s="5">
-        <v>90</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9302,13 +9302,13 @@
         <v>2024</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D315" s="5">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E315" s="5">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="H315" s="5">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9328,13 +9328,13 @@
         <v>2024</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D316" s="5">
-        <v>15521.1</v>
+        <v>33</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="H316" s="5">
-        <v>15521.1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9354,13 +9354,13 @@
         <v>2024</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D317" s="5">
-        <v>268.39999999999998</v>
+        <v>15521.1</v>
       </c>
       <c r="E317" s="5">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="H317" s="5">
-        <v>268.39999999999998</v>
+        <v>15521.1</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9380,13 +9380,13 @@
         <v>2024</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D318" s="5">
-        <v>1908</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="E318" s="5">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="H318" s="5">
-        <v>1908</v>
+        <v>268.39999999999998</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9406,13 +9406,13 @@
         <v>2024</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D319" s="5">
-        <v>533.70000000000005</v>
+        <v>1908</v>
       </c>
       <c r="E319" s="5">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H319" s="5">
-        <v>533.70000000000005</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9432,13 +9432,13 @@
         <v>2024</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D320" s="5">
-        <v>848.4</v>
+        <v>533.70000000000005</v>
       </c>
       <c r="E320" s="5">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="H320" s="5">
-        <v>848.4</v>
+        <v>533.70000000000005</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9458,13 +9458,13 @@
         <v>2024</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D321" s="5">
-        <v>8080.1</v>
+        <v>849.1</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>8080.1</v>
+        <v>849.1</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9484,13 +9484,13 @@
         <v>2024</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>327.3</v>
+        <v>8085</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>327.3</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9510,13 +9510,13 @@
         <v>2024</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D323" s="5">
-        <v>1447.2</v>
+        <v>327.3</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="H323" s="5">
-        <v>1447.2</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9536,13 +9536,13 @@
         <v>2024</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D324" s="5">
-        <v>9751.5</v>
+        <v>1447.2</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="H324" s="5">
-        <v>9751.5</v>
+        <v>1447.2</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9562,13 +9562,13 @@
         <v>2024</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D325" s="5">
-        <v>960</v>
+        <v>9751.5</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="H325" s="5">
-        <v>960</v>
+        <v>9751.5</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9588,13 +9588,13 @@
         <v>2024</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D326" s="5">
-        <v>1071</v>
+        <v>960</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="5">
-        <v>1071</v>
+        <v>960</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9614,13 +9614,13 @@
         <v>2024</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D327" s="5">
-        <v>52</v>
+        <v>1071</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="H327" s="5">
-        <v>52</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9640,13 +9640,13 @@
         <v>2024</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D328" s="5">
-        <v>4320</v>
+        <v>52</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H328" s="5">
-        <v>4320</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9666,13 +9666,13 @@
         <v>2024</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D329" s="5">
-        <v>2300</v>
+        <v>4320</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H329" s="5">
-        <v>2300</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9692,13 +9692,13 @@
         <v>2024</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D330" s="5">
-        <v>62968</v>
+        <v>2300</v>
       </c>
       <c r="E330" s="5">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H330" s="5">
-        <v>62968</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9718,13 +9718,13 @@
         <v>2024</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D331" s="5">
-        <v>6</v>
+        <v>62968</v>
       </c>
       <c r="E331" s="5">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="5">
-        <v>6</v>
+        <v>62968</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9744,13 +9744,13 @@
         <v>2024</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D332" s="5">
-        <v>16.8</v>
+        <v>6</v>
       </c>
       <c r="E332" s="5">
         <v>0</v>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="H332" s="5">
-        <v>16.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9770,13 +9770,13 @@
         <v>2024</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D333" s="5">
-        <v>1</v>
+        <v>16.8</v>
       </c>
       <c r="E333" s="5">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="H333" s="5">
-        <v>1</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9796,13 +9796,13 @@
         <v>2024</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D334" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E334" s="5">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="H334" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9822,13 +9822,13 @@
         <v>2024</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D335" s="5">
-        <v>18810</v>
+        <v>2</v>
       </c>
       <c r="E335" s="5">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="H335" s="5">
-        <v>18810</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9848,13 +9848,13 @@
         <v>2024</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D336" s="5">
-        <v>140</v>
+        <v>18849.599999999999</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H336" s="5">
-        <v>140</v>
+        <v>18849.599999999999</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9874,13 +9874,13 @@
         <v>2024</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D337" s="5">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H337" s="5">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9900,13 +9900,13 @@
         <v>2024</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D338" s="5">
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="E338" s="5">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="H338" s="5">
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9926,13 +9926,13 @@
         <v>2024</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D339" s="5">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E339" s="5">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="H339" s="5">
-        <v>450</v>
+        <v>750</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9952,13 +9952,13 @@
         <v>2024</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D340" s="5">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="H340" s="5">
-        <v>225</v>
+        <v>450</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9978,13 +9978,13 @@
         <v>2024</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D341" s="5">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="E341" s="5">
         <v>0</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="H341" s="5">
-        <v>140</v>
+        <v>225</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10004,13 +10004,13 @@
         <v>2024</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D342" s="5">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="E342" s="5">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="H342" s="5">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10030,13 +10030,13 @@
         <v>2024</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D343" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E343" s="5">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="H343" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10056,13 +10056,13 @@
         <v>2024</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D344" s="5">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="E344" s="5">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="H344" s="5">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10082,13 +10082,13 @@
         <v>2024</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D345" s="5">
-        <v>525</v>
+        <v>160</v>
       </c>
       <c r="E345" s="5">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="H345" s="5">
-        <v>525</v>
+        <v>160</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10108,13 +10108,13 @@
         <v>2024</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D346" s="5">
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="E346" s="5">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="H346" s="5">
-        <v>300</v>
+        <v>525</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10134,13 +10134,13 @@
         <v>2024</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D347" s="5">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="E347" s="5">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H347" s="5">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10160,13 +10160,13 @@
         <v>2024</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D348" s="5">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="E348" s="5">
         <v>0</v>
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="H348" s="5">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10186,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D349" s="5">
         <v>75</v>
@@ -10212,13 +10212,13 @@
         <v>2024</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D350" s="5">
-        <v>1075.2</v>
+        <v>75</v>
       </c>
       <c r="E350" s="5">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="H350" s="5">
-        <v>1075.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10238,13 +10238,13 @@
         <v>2024</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D351" s="5">
-        <v>5255</v>
+        <v>1075.2</v>
       </c>
       <c r="E351" s="5">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="H351" s="5">
-        <v>5255</v>
+        <v>1075.2</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10264,24 +10264,50 @@
         <v>2024</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D352" s="5">
+        <v>5255</v>
+      </c>
+      <c r="E352" s="5">
+        <v>0</v>
+      </c>
+      <c r="F352" s="5">
+        <v>0</v>
+      </c>
+      <c r="G352" s="5">
+        <v>0</v>
+      </c>
+      <c r="H352" s="5">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C353" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D352" s="5">
+      <c r="D353" s="5">
         <v>75</v>
       </c>
-      <c r="E352" s="5">
-        <v>0</v>
-      </c>
-      <c r="F352" s="5">
-        <v>0</v>
-      </c>
-      <c r="G352" s="5">
-        <v>0</v>
-      </c>
-      <c r="H352" s="5">
+      <c r="E353" s="5">
+        <v>0</v>
+      </c>
+      <c r="F353" s="5">
+        <v>0</v>
+      </c>
+      <c r="G353" s="5">
+        <v>0</v>
+      </c>
+      <c r="H353" s="5">
         <v>75</v>
       </c>
     </row>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4160,19 +4160,19 @@
         <v>12</v>
       </c>
       <c r="D117" s="5">
-        <v>39346.93</v>
+        <v>39351.85</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>12666.65</v>
+        <v>12668.7</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>52013.58</v>
+        <v>52020.55</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4186,19 +4186,19 @@
         <v>9</v>
       </c>
       <c r="D118" s="5">
-        <v>89871.3</v>
+        <v>89883.93</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>29133.11</v>
+        <v>29138.36</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>119004.41</v>
+        <v>119022.29</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4212,19 +4212,19 @@
         <v>10</v>
       </c>
       <c r="D119" s="5">
-        <v>80586.7</v>
+        <v>80598.740000000005</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>25905.48</v>
+        <v>25910.49</v>
       </c>
       <c r="G119" s="5">
         <v>5.19</v>
       </c>
       <c r="H119" s="5">
-        <v>106486.99</v>
+        <v>106504.04</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4238,19 +4238,19 @@
         <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>172491.78</v>
+        <v>172527.4</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
       <c r="F120" s="5">
-        <v>55883.59</v>
+        <v>55898.400000000001</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>228375.37</v>
+        <v>228425.8</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285187.12</v>
+        <v>285211.86</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25561.16</v>
+        <v>25565.16</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>310748.24</v>
+        <v>310776.98</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>630273.84</v>
+        <v>630357.88</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59849.15</v>
+        <v>59862.29</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690122.99</v>
+        <v>690220.17</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>685960.86</v>
+        <v>686135.2</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60655.6</v>
+        <v>60682.57</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>746616.46</v>
+        <v>746817.77</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1442447.58</v>
+        <v>1442622.88</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>128901.6</v>
+        <v>128928.86</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1571347.2</v>
+        <v>1571549.76</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127421.38</v>
+        <v>127499.38</v>
       </c>
       <c r="E137" s="5">
-        <v>183009.22</v>
+        <v>183129.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>310430.59999999998</v>
+        <v>310628.59999999998</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1450775.19</v>
+        <v>1451124.33</v>
       </c>
       <c r="E138" s="5">
-        <v>21187.360000000001</v>
+        <v>21193.42</v>
       </c>
       <c r="F138" s="5">
-        <v>136340.07999999999</v>
+        <v>136394.76</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1608302.63</v>
+        <v>1608712.51</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2422469.25</v>
+        <v>2422988.7200000002</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14229.13</v>
+        <v>14245.78</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2363358.9700000002</v>
+        <v>2363895.09</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4332377.6399999997</v>
+        <v>4333663.6900000004</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26714.55</v>
+        <v>26745.99</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4234820.03</v>
+        <v>4236137.5199999996</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4557643.46</v>
+        <v>4558900.7</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30554.79</v>
+        <v>30594.26</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4397577.5199999996</v>
+        <v>4398874.2300000004</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9195029.1300000008</v>
+        <v>9197610.5500000007</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>63743.4</v>
+        <v>63819.44</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8934966.8300000001</v>
+        <v>8937624.2899999991</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5434,7 +5434,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="5">
-        <v>6696</v>
+        <v>6768</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="H166" s="5">
-        <v>6696</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41059.699999999997</v>
+        <v>41076</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41059.699999999997</v>
+        <v>41076</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="D209" s="5">
-        <v>52.95</v>
+        <v>53.95</v>
       </c>
       <c r="E209" s="5">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="5">
-        <v>52.95</v>
+        <v>53.95</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>224338.44</v>
+        <v>224885.44</v>
       </c>
       <c r="E211" s="5">
-        <v>249651.94</v>
+        <v>250181.94</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>473990.38</v>
+        <v>475067.38</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14822503.17</v>
+        <v>14824524.35</v>
       </c>
       <c r="E239" s="5">
-        <v>215034.7</v>
+        <v>215062.39</v>
       </c>
       <c r="F239" s="5">
-        <v>73728.83</v>
+        <v>73767.83</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15111266.699999999</v>
+        <v>15113354.57</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8085</v>
+        <v>8089.9</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8085</v>
+        <v>8089.9</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9594,7 +9594,7 @@
         <v>194</v>
       </c>
       <c r="D326" s="5">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="5">
-        <v>960</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3952,19 +3952,19 @@
         <v>12</v>
       </c>
       <c r="D109" s="5">
-        <v>23631.48</v>
+        <v>23635.17</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <v>10517.39</v>
+        <v>10519.25</v>
       </c>
       <c r="G109" s="5">
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>34148.870000000003</v>
+        <v>34154.42</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,19 +3978,19 @@
         <v>9</v>
       </c>
       <c r="D110" s="5">
-        <v>50233.760000000002</v>
+        <v>50259.77</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>22579.84</v>
+        <v>22592.97</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>72813.600000000006</v>
+        <v>72852.740000000005</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,19 +4004,19 @@
         <v>10</v>
       </c>
       <c r="D111" s="5">
-        <v>47335.66</v>
+        <v>47399.040000000001</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>21073.19</v>
+        <v>21108.49</v>
       </c>
       <c r="G111" s="5">
         <v>0</v>
       </c>
       <c r="H111" s="5">
-        <v>68408.850000000006</v>
+        <v>68507.53</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4030,19 +4030,19 @@
         <v>11</v>
       </c>
       <c r="D112" s="5">
-        <v>99998.62</v>
+        <v>100102.66</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
       <c r="F112" s="5">
-        <v>44599.21</v>
+        <v>44651.8</v>
       </c>
       <c r="G112" s="5">
         <v>6.98</v>
       </c>
       <c r="H112" s="5">
-        <v>144590.85</v>
+        <v>144747.48000000001</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84316.94</v>
+        <v>84332.02</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17763.36</v>
+        <v>17767.61</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102080.3</v>
+        <v>102099.63</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>173477.9</v>
+        <v>173503.82</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36335.730000000003</v>
+        <v>36343.040000000001</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>209813.63</v>
+        <v>209846.86</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>205539.44</v>
+        <v>205591.88</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43173.08</v>
+        <v>43187.86</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>248712.52</v>
+        <v>248779.74</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>422767.97</v>
+        <v>422954.69</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89164.78</v>
+        <v>89217.4</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>511931.85</v>
+        <v>512171.19</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285211.86</v>
+        <v>285253.59000000003</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25565.16</v>
+        <v>25572.67</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>310776.98</v>
+        <v>310826.21999999997</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>630357.88</v>
+        <v>630488.31000000006</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59862.29</v>
+        <v>59885.27</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690220.17</v>
+        <v>690373.58</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>686135.2</v>
+        <v>686331.85</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60682.57</v>
+        <v>60714.71</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>746817.77</v>
+        <v>747046.56</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1442622.88</v>
+        <v>1442936.56</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>128928.86</v>
+        <v>128981.73</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1571549.76</v>
+        <v>1571916.31</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127499.38</v>
+        <v>127505.88</v>
       </c>
       <c r="E137" s="5">
-        <v>183129.22</v>
+        <v>183139.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>310628.59999999998</v>
+        <v>310645.09999999998</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1451124.33</v>
+        <v>1451148.94</v>
       </c>
       <c r="E138" s="5">
         <v>21193.42</v>
       </c>
       <c r="F138" s="5">
-        <v>136394.76</v>
+        <v>136397.63</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1608712.51</v>
+        <v>1608739.99</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4992,7 +4992,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="5">
-        <v>362592.4</v>
+        <v>362632.4</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="5">
-        <v>362592.4</v>
+        <v>362632.4</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2422988.7200000002</v>
+        <v>2423179.29</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14245.78</v>
+        <v>14250.8</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2363895.09</v>
+        <v>2364090.6800000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4333663.6900000004</v>
+        <v>4334005.32</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26745.99</v>
+        <v>26753.11</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4236137.5199999996</v>
+        <v>4236486.2699999996</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4558900.7</v>
+        <v>4559518.43</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30594.26</v>
+        <v>30610.14</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4398874.2300000004</v>
+        <v>4399507.84</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9197610.5500000007</v>
+        <v>9198612.9900000002</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>63819.44</v>
+        <v>63843.64</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8937624.2899999991</v>
+        <v>8938650.9299999997</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
         <v>63</v>
       </c>
       <c r="D191" s="5">
-        <v>5214</v>
+        <v>5247</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>5214</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41076</v>
+        <v>41092.300000000003</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41076</v>
+        <v>41092.300000000003</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>224885.44</v>
+        <v>224894.39</v>
       </c>
       <c r="E211" s="5">
-        <v>250181.94</v>
+        <v>250201.94</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>475067.38</v>
+        <v>475096.33</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14824524.35</v>
+        <v>14826279.560000001</v>
       </c>
       <c r="E239" s="5">
-        <v>215062.39</v>
+        <v>215086.01</v>
       </c>
       <c r="F239" s="5">
-        <v>73767.83</v>
+        <v>73813.78</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15113354.57</v>
+        <v>15115179.35</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,19 +8970,19 @@
         <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>2003357.69</v>
+        <v>2005932.69</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
       <c r="F302" s="5">
-        <v>11383.99</v>
+        <v>11406.01</v>
       </c>
       <c r="G302" s="5">
-        <v>1777411.63</v>
+        <v>1779729.13</v>
       </c>
       <c r="H302" s="5">
-        <v>237330.05</v>
+        <v>237609.57</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>189</v>
       </c>
       <c r="D321" s="5">
-        <v>849.1</v>
+        <v>849.8</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>849.1</v>
+        <v>849.8</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8089.9</v>
+        <v>8109.5</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8089.9</v>
+        <v>8109.5</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,9 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="E325" sqref="E325"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4498,19 +4496,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>412771.81</v>
+        <v>412910.69</v>
       </c>
       <c r="E130" s="5">
-        <v>8115.75</v>
+        <v>8127.87</v>
       </c>
       <c r="F130" s="5">
-        <v>116934.28</v>
+        <v>116979.25</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>537821.84</v>
+        <v>538017.81000000006</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4574,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285253.59000000003</v>
+        <v>285387.12</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25572.67</v>
+        <v>25593.02</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>310826.21999999997</v>
+        <v>310980.09999999998</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4600,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>630488.31000000006</v>
+        <v>630768.04</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59885.27</v>
+        <v>59928.09</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690373.58</v>
+        <v>690696.13</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4626,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>686331.85</v>
+        <v>686774.58</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60714.71</v>
+        <v>60782.64</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>747046.56</v>
+        <v>747557.22</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4652,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1442936.56</v>
+        <v>1443465.68</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>128981.73</v>
+        <v>129062.85</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1571916.31</v>
+        <v>1572526.55</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4678,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127505.88</v>
+        <v>127583.88</v>
       </c>
       <c r="E137" s="5">
-        <v>183139.22</v>
+        <v>183259.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>310645.09999999998</v>
+        <v>310843.09999999998</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4704,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1451148.94</v>
+        <v>1451298.59</v>
       </c>
       <c r="E138" s="5">
-        <v>21193.42</v>
+        <v>21205.54</v>
       </c>
       <c r="F138" s="5">
-        <v>136397.63</v>
+        <v>136421.07999999999</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1608739.99</v>
+        <v>1608925.21</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4964,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>468120</v>
+        <v>468330</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>468120</v>
+        <v>468330</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5172,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2423179.29</v>
+        <v>2424010.92</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14250.8</v>
+        <v>14268.62</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2364090.6800000002</v>
+        <v>2364940.13</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5198,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4334005.32</v>
+        <v>4335549.88</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26753.11</v>
+        <v>26802.84</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4236486.2699999996</v>
+        <v>4238080.5599999996</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5224,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4559518.43</v>
+        <v>4560954.2</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30610.14</v>
+        <v>30648.5</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4399507.84</v>
+        <v>4400981.97</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5250,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9198612.9900000002</v>
+        <v>9201668.3100000005</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>63843.64</v>
+        <v>63936.36</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8938650.9299999997</v>
+        <v>8941798.9700000007</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,7 +6082,7 @@
         <v>63</v>
       </c>
       <c r="D191" s="5">
-        <v>5247</v>
+        <v>5280</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -6096,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>5247</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6446,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41092.300000000003</v>
+        <v>41124.9</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41092.300000000003</v>
+        <v>41124.9</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6602,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>224894.39</v>
+        <v>225195.89</v>
       </c>
       <c r="E211" s="5">
-        <v>250201.94</v>
+        <v>250511.94</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>475096.33</v>
+        <v>475707.83</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7330,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14826279.560000001</v>
+        <v>14830625.08</v>
       </c>
       <c r="E239" s="5">
-        <v>215086.01</v>
+        <v>215134.49</v>
       </c>
       <c r="F239" s="5">
-        <v>73813.78</v>
+        <v>73951.11</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15115179.35</v>
+        <v>15119710.68</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7488,7 +7486,7 @@
         <v>115</v>
       </c>
       <c r="D245" s="5">
-        <v>98404.800000000003</v>
+        <v>98537.600000000006</v>
       </c>
       <c r="E245" s="5">
         <v>0</v>
@@ -7500,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="5">
-        <v>98404.800000000003</v>
+        <v>98537.600000000006</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,19 +8968,19 @@
         <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>2005932.69</v>
+        <v>2027305.19</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
       <c r="F302" s="5">
-        <v>11406.01</v>
+        <v>11582.17</v>
       </c>
       <c r="G302" s="5">
-        <v>1779729.13</v>
+        <v>1798964.38</v>
       </c>
       <c r="H302" s="5">
-        <v>237609.57</v>
+        <v>239922.98</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9462,7 @@
         <v>189</v>
       </c>
       <c r="D321" s="5">
-        <v>849.8</v>
+        <v>850.5</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>849.8</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9488,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8109.5</v>
+        <v>8114.4</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8109.5</v>
+        <v>8114.4</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9854,7 +9852,7 @@
         <v>204</v>
       </c>
       <c r="D336" s="5">
-        <v>18849.599999999999</v>
+        <v>18928.8</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -9866,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="H336" s="5">
-        <v>18849.599999999999</v>
+        <v>18928.8</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -4158,19 +4158,19 @@
         <v>12</v>
       </c>
       <c r="D117" s="5">
-        <v>39351.85</v>
+        <v>39353.4</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>12668.7</v>
+        <v>12669.2</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>52020.55</v>
+        <v>52022.6</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4184,19 +4184,19 @@
         <v>9</v>
       </c>
       <c r="D118" s="5">
-        <v>89883.93</v>
+        <v>89897.41</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>29138.36</v>
+        <v>29143.040000000001</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>119022.29</v>
+        <v>119040.45</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4210,19 +4210,19 @@
         <v>10</v>
       </c>
       <c r="D119" s="5">
-        <v>80598.740000000005</v>
+        <v>80614.45</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>25910.49</v>
+        <v>25915.56</v>
       </c>
       <c r="G119" s="5">
         <v>5.19</v>
       </c>
       <c r="H119" s="5">
-        <v>106504.04</v>
+        <v>106524.82</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4236,19 +4236,19 @@
         <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>172527.4</v>
+        <v>172646.84</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
       <c r="F120" s="5">
-        <v>55898.400000000001</v>
+        <v>55938.62</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>228425.8</v>
+        <v>228585.46</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4288,19 +4288,19 @@
         <v>7</v>
       </c>
       <c r="D122" s="5">
-        <v>187301.27</v>
+        <v>187382.86</v>
       </c>
       <c r="E122" s="5">
-        <v>4350.6000000000004</v>
+        <v>4358.3999999999996</v>
       </c>
       <c r="F122" s="5">
-        <v>77734.899999999994</v>
+        <v>77771.08</v>
       </c>
       <c r="G122" s="5">
         <v>0</v>
       </c>
       <c r="H122" s="5">
-        <v>269386.77</v>
+        <v>269512.34000000003</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,19 +4366,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84332.02</v>
+        <v>84340.86</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17767.61</v>
+        <v>17770.060000000001</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102099.63</v>
+        <v>102110.92</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,19 +4392,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>173503.82</v>
+        <v>173548.34</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36343.040000000001</v>
+        <v>36356.300000000003</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>209846.86</v>
+        <v>209904.64000000001</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,19 +4418,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>205591.88</v>
+        <v>205656.08</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43187.86</v>
+        <v>43206.98</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>248779.74</v>
+        <v>248863.06</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4444,19 +4444,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>422954.69</v>
+        <v>423278.83</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89217.4</v>
+        <v>89311.37</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>512171.19</v>
+        <v>512589.3</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4470,10 +4470,10 @@
         <v>13</v>
       </c>
       <c r="D129" s="5">
-        <v>16248.45</v>
+        <v>16287.45</v>
       </c>
       <c r="E129" s="5">
-        <v>23256.92</v>
+        <v>23316.92</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>39505.370000000003</v>
+        <v>39604.370000000003</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4496,19 +4496,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>412910.69</v>
+        <v>413401.89</v>
       </c>
       <c r="E130" s="5">
-        <v>8127.87</v>
+        <v>8139.68</v>
       </c>
       <c r="F130" s="5">
-        <v>116979.25</v>
+        <v>117476.24</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>538017.81000000006</v>
+        <v>539017.81000000006</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4574,19 +4574,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285387.12</v>
+        <v>285391.61</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25593.02</v>
+        <v>25593.84</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>310980.09999999998</v>
+        <v>310985.40999999997</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,19 +4600,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>630768.04</v>
+        <v>630802.68000000005</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59928.09</v>
+        <v>59934.34</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690696.13</v>
+        <v>690737.02</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4626,19 +4626,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>686774.58</v>
+        <v>686849.1</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60782.64</v>
+        <v>60796.01</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>747557.22</v>
+        <v>747645.11</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4652,19 +4652,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1443465.68</v>
+        <v>1443567.56</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129062.85</v>
+        <v>129081.13</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1572526.55</v>
+        <v>1572646.71</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4678,10 +4678,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127583.88</v>
+        <v>127620.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183259.22</v>
+        <v>183319.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>310843.09999999998</v>
+        <v>310939.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,19 +4704,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1451298.59</v>
+        <v>1452112.5</v>
       </c>
       <c r="E138" s="5">
-        <v>21205.54</v>
+        <v>21215.05</v>
       </c>
       <c r="F138" s="5">
-        <v>136421.07999999999</v>
+        <v>136577.87</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1608925.21</v>
+        <v>1609905.42</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,19 +5172,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2424010.92</v>
+        <v>2424141.2799999998</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14268.62</v>
+        <v>14270.4</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2364940.13</v>
+        <v>2365072.27</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5198,19 +5198,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4335549.88</v>
+        <v>4335985.93</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26802.84</v>
+        <v>26809.599999999999</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4238080.5599999996</v>
+        <v>4238523.37</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5224,19 +5224,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4560954.2</v>
+        <v>4561522.66</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30648.5</v>
+        <v>30658.47</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4400981.97</v>
+        <v>4401560.4000000004</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5250,19 +5250,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9201668.3100000005</v>
+        <v>9203163.0199999996</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>63936.36</v>
+        <v>63962.07</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8941798.9700000007</v>
+        <v>8943319.3900000006</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6446,7 +6446,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41124.9</v>
+        <v>41141.199999999997</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41124.9</v>
+        <v>41141.199999999997</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6602,10 +6602,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>225195.89</v>
+        <v>225495.89</v>
       </c>
       <c r="E211" s="5">
-        <v>250511.94</v>
+        <v>250669.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>475707.83</v>
+        <v>476165.69</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7044,7 +7044,7 @@
         <v>99</v>
       </c>
       <c r="D228" s="5">
-        <v>3217.5</v>
+        <v>3240</v>
       </c>
       <c r="E228" s="5">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="5">
-        <v>3217.5</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7330,19 +7330,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14830625.08</v>
+        <v>14831237.57</v>
       </c>
       <c r="E239" s="5">
         <v>215134.49</v>
       </c>
       <c r="F239" s="5">
-        <v>73951.11</v>
+        <v>73953.14</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15119710.68</v>
+        <v>15120325.199999999</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9488,7 +9488,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8114.4</v>
+        <v>8119.3</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8114.4</v>
+        <v>8119.3</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,12 +1117,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
@@ -4574,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285391.61</v>
+        <v>285462.34000000003</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25593.84</v>
+        <v>25604.01</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>310985.40999999997</v>
+        <v>311066.31</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>630802.68000000005</v>
+        <v>630943.25</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59934.34</v>
+        <v>59954.36</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690737.02</v>
+        <v>690897.61</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4626,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>686849.1</v>
+        <v>687211.32</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60796.01</v>
+        <v>60847.8</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>747645.11</v>
+        <v>748059.12</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4652,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1443567.56</v>
+        <v>1443964.94</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129081.13</v>
+        <v>129139.47</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1572646.71</v>
+        <v>1573102.43</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4678,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127620.41</v>
+        <v>127633.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183319.22</v>
+        <v>183339.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4690,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>310939.63</v>
+        <v>310972.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1452112.5</v>
+        <v>1452663.05</v>
       </c>
       <c r="E138" s="5">
-        <v>21215.05</v>
+        <v>21241.59</v>
       </c>
       <c r="F138" s="5">
-        <v>136577.87</v>
+        <v>136664.07</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1609905.42</v>
+        <v>1610568.71</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4730,7 +4732,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="5">
-        <v>577037.43000000005</v>
+        <v>583989.75</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -4742,7 +4744,7 @@
         <v>86318.29</v>
       </c>
       <c r="H139" s="5">
-        <v>490719.14</v>
+        <v>497671.46</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4964,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>468330</v>
+        <v>468530</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4976,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>468330</v>
+        <v>468530</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2424141.2799999998</v>
+        <v>2424762.37</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14270.4</v>
+        <v>14288.29</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2365072.27</v>
+        <v>2365711.25</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5198,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4335985.93</v>
+        <v>4336869.37</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26809.599999999999</v>
+        <v>26833.26</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4238523.37</v>
+        <v>4239430.47</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5224,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4561522.66</v>
+        <v>4562543.8600000003</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30658.47</v>
+        <v>30685.08</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4401560.4000000004</v>
+        <v>4402608.21</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5250,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9203163.0199999996</v>
+        <v>9205012.2300000004</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>63962.07</v>
+        <v>64004.17</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8943319.3900000006</v>
+        <v>8945210.6999999993</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5796,7 +5798,7 @@
         <v>52</v>
       </c>
       <c r="D180" s="5">
-        <v>2773.8</v>
+        <v>2801.4</v>
       </c>
       <c r="E180" s="5">
         <v>0</v>
@@ -5808,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="H180" s="5">
-        <v>2773.8</v>
+        <v>2801.4</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6082,7 +6084,7 @@
         <v>63</v>
       </c>
       <c r="D191" s="5">
-        <v>5280</v>
+        <v>5313</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -6094,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>5280</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6446,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41141.199999999997</v>
+        <v>41190.1</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6458,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41141.199999999997</v>
+        <v>41190.1</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6576,7 +6578,7 @@
         <v>82</v>
       </c>
       <c r="D210" s="5">
-        <v>2175.1999999999998</v>
+        <v>2175.4</v>
       </c>
       <c r="E210" s="5">
         <v>0</v>
@@ -6588,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>2175.1999999999998</v>
+        <v>2175.4</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6602,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>225495.89</v>
+        <v>226030.95</v>
       </c>
       <c r="E211" s="5">
-        <v>250669.8</v>
+        <v>251069.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6614,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>476165.69</v>
+        <v>477100.75</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7330,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14831237.57</v>
+        <v>14833114.27</v>
       </c>
       <c r="E239" s="5">
-        <v>215134.49</v>
+        <v>215170.85</v>
       </c>
       <c r="F239" s="5">
-        <v>73953.14</v>
+        <v>74012.47</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15120325.199999999</v>
+        <v>15122297.59</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,13 +1118,13 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+      <selection activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
@@ -4082,19 +4082,19 @@
         <v>7</v>
       </c>
       <c r="D114" s="5">
-        <v>112948.49</v>
+        <v>113280.42</v>
       </c>
       <c r="E114" s="5">
-        <v>2722.64</v>
+        <v>2729.44</v>
       </c>
       <c r="F114" s="5">
-        <v>51055.12</v>
+        <v>51217.599999999999</v>
       </c>
       <c r="G114" s="5">
         <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>166726.25</v>
+        <v>167227.46</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="5">
-        <v>102865.16</v>
+        <v>104625.16</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="5">
-        <v>102865.16</v>
+        <v>104625.16</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84340.86</v>
+        <v>84500.22</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17770.060000000001</v>
+        <v>17811.93</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102110.92</v>
+        <v>102312.15</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>173548.34</v>
+        <v>173596.58</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36356.300000000003</v>
+        <v>36368.980000000003</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>209904.64000000001</v>
+        <v>209965.56</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>205656.08</v>
+        <v>205757.24</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43206.98</v>
+        <v>43233.58</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>248863.06</v>
+        <v>248990.82</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>423278.83</v>
+        <v>423586.75</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89311.37</v>
+        <v>89392.31</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>512589.3</v>
+        <v>512978.16</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,10 +4472,10 @@
         <v>13</v>
       </c>
       <c r="D129" s="5">
-        <v>16287.45</v>
+        <v>16326.45</v>
       </c>
       <c r="E129" s="5">
-        <v>23316.92</v>
+        <v>23376.92</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>39604.370000000003</v>
+        <v>39703.370000000003</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4498,19 +4498,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>413401.89</v>
+        <v>413582.64</v>
       </c>
       <c r="E130" s="5">
         <v>8139.68</v>
       </c>
       <c r="F130" s="5">
-        <v>117476.24</v>
+        <v>117536.56</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>539017.81000000006</v>
+        <v>539258.88</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285462.34000000003</v>
+        <v>285500.44</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25604.01</v>
+        <v>25608.69</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311066.31</v>
+        <v>311109.09000000003</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>630943.25</v>
+        <v>631009.30000000005</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59954.36</v>
+        <v>59963.1</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690897.61</v>
+        <v>690972.4</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>687211.32</v>
+        <v>687333.82</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60847.8</v>
+        <v>60864.14</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>748059.12</v>
+        <v>748197.96</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1443964.94</v>
+        <v>1444225.83</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129139.47</v>
+        <v>129176.2</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1573102.43</v>
+        <v>1573400.05</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1452663.05</v>
+        <v>1453053.29</v>
       </c>
       <c r="E138" s="5">
-        <v>21241.59</v>
+        <v>21247.65</v>
       </c>
       <c r="F138" s="5">
-        <v>136664.07</v>
+        <v>136725.18</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1610568.71</v>
+        <v>1611026.12</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2424762.37</v>
+        <v>2425213.34</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14288.29</v>
+        <v>14296.82</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2365711.25</v>
+        <v>2366170.75</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4336869.37</v>
+        <v>4337382.24</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26833.26</v>
+        <v>26840.92</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4239430.47</v>
+        <v>4239951</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4562543.8600000003</v>
+        <v>4563264.0199999996</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30685.08</v>
+        <v>30701.119999999999</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4402608.21</v>
+        <v>4403344.41</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9205012.2300000004</v>
+        <v>9206292.8100000005</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64004.17</v>
+        <v>64031.59</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8945210.6999999993</v>
+        <v>8946518.6999999993</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41190.1</v>
+        <v>41239</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41190.1</v>
+        <v>41239</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>226030.95</v>
+        <v>226462.1</v>
       </c>
       <c r="E211" s="5">
-        <v>251069.8</v>
+        <v>251379.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>477100.75</v>
+        <v>477841.9</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14833114.27</v>
+        <v>14835299.01</v>
       </c>
       <c r="E239" s="5">
-        <v>215170.85</v>
+        <v>215184.12</v>
       </c>
       <c r="F239" s="5">
-        <v>74012.47</v>
+        <v>74041.84</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15122297.59</v>
+        <v>15124524.970000001</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>109039.5</v>
+        <v>109224</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>109039.5</v>
+        <v>109224</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="D301" s="5">
-        <v>2505552.0299999998</v>
+        <v>2506582.0299999998</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1180872.32</v>
+        <v>1181387.32</v>
       </c>
       <c r="H301" s="5">
-        <v>1324679.71</v>
+        <v>1325194.71</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,7 +8970,7 @@
         <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>2027305.19</v>
+        <v>2028077.69</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8979,10 +8979,10 @@
         <v>11582.17</v>
       </c>
       <c r="G302" s="5">
-        <v>1798964.38</v>
+        <v>1799659.63</v>
       </c>
       <c r="H302" s="5">
-        <v>239922.98</v>
+        <v>240000.23</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8119.3</v>
+        <v>8124.2</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8119.3</v>
+        <v>8124.2</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C328" sqref="C328"/>
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127633.41</v>
+        <v>127646.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183339.22</v>
+        <v>183359.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>310972.63</v>
+        <v>311005.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1453053.29</v>
+        <v>1453103.14</v>
       </c>
       <c r="E138" s="5">
-        <v>21247.65</v>
+        <v>21253.71</v>
       </c>
       <c r="F138" s="5">
-        <v>136725.18</v>
+        <v>136732.54999999999</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1611026.12</v>
+        <v>1611089.4</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2425213.34</v>
+        <v>2425579.0699999998</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14296.82</v>
+        <v>14303.3</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2366170.75</v>
+        <v>2366542.96</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4337382.24</v>
+        <v>4337889.07</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26840.92</v>
+        <v>26855.95</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4239951</v>
+        <v>4240472.8600000003</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4563264.0199999996</v>
+        <v>4563767.9400000004</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30701.119999999999</v>
+        <v>30714.39</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4403344.41</v>
+        <v>4403861.5999999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9206292.8100000005</v>
+        <v>9207660.6099999994</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64031.59</v>
+        <v>64070.48</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8946518.6999999993</v>
+        <v>8947925.3900000006</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>226462.1</v>
+        <v>226592.1</v>
       </c>
       <c r="E211" s="5">
-        <v>251379.8</v>
+        <v>251579.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>477841.9</v>
+        <v>478171.9</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14835299.01</v>
+        <v>14837347.49</v>
       </c>
       <c r="E239" s="5">
-        <v>215184.12</v>
+        <v>215205.75</v>
       </c>
       <c r="F239" s="5">
-        <v>74041.84</v>
+        <v>74089.210000000006</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15124524.970000001</v>
+        <v>15126642.449999999</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>109224</v>
+        <v>109408.5</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>109224</v>
+        <v>109408.5</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+      <selection activeCell="A2" sqref="A2:A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4056,10 +4056,10 @@
         <v>13</v>
       </c>
       <c r="D113" s="5">
-        <v>1420.5</v>
+        <v>1446.5</v>
       </c>
       <c r="E113" s="5">
-        <v>1770</v>
+        <v>1810</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="5">
-        <v>3190.5</v>
+        <v>3256.5</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4264,10 +4264,10 @@
         <v>13</v>
       </c>
       <c r="D121" s="5">
-        <v>5637.59</v>
+        <v>5663.59</v>
       </c>
       <c r="E121" s="5">
-        <v>7690.08</v>
+        <v>7730.08</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="5">
-        <v>13327.67</v>
+        <v>13393.67</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127646.41</v>
+        <v>127711.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183359.22</v>
+        <v>183459.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>311005.63</v>
+        <v>311170.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2425579.0699999998</v>
+        <v>2426070.9900000002</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14303.3</v>
+        <v>14321.46</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2366542.96</v>
+        <v>2367053.04</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4337889.07</v>
+        <v>4338680.8600000003</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26855.95</v>
+        <v>26885.56</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4240472.8600000003</v>
+        <v>4241294.26</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4563767.9400000004</v>
+        <v>4565468.63</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30714.39</v>
+        <v>30772.31</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4403861.5999999996</v>
+        <v>4405620.21</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9207660.6099999994</v>
+        <v>9211762.5199999996</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64070.48</v>
+        <v>64189.9</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8947925.3900000006</v>
+        <v>8952146.7200000007</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41239</v>
+        <v>41255.300000000003</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41239</v>
+        <v>41255.300000000003</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>226592.1</v>
+        <v>227019.6</v>
       </c>
       <c r="E211" s="5">
-        <v>251579.8</v>
+        <v>252029.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>478171.9</v>
+        <v>479049.4</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14837347.49</v>
+        <v>14841496.619999999</v>
       </c>
       <c r="E239" s="5">
-        <v>215205.75</v>
+        <v>215249.01</v>
       </c>
       <c r="F239" s="5">
-        <v>74089.210000000006</v>
+        <v>74268.05</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15126642.449999999</v>
+        <v>15131013.68</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7488,7 +7488,7 @@
         <v>115</v>
       </c>
       <c r="D245" s="5">
-        <v>98537.600000000006</v>
+        <v>98670.399999999994</v>
       </c>
       <c r="E245" s="5">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="5">
-        <v>98537.600000000006</v>
+        <v>98670.399999999994</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8112,7 +8112,7 @@
         <v>139</v>
       </c>
       <c r="D269" s="5">
-        <v>110.8</v>
+        <v>221.6</v>
       </c>
       <c r="E269" s="5">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="5">
-        <v>110.8</v>
+        <v>221.6</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>109408.5</v>
+        <v>109593</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>109408.5</v>
+        <v>109593</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="D301" s="5">
-        <v>2506582.0299999998</v>
+        <v>2511732.0299999998</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1181387.32</v>
+        <v>1183962.32</v>
       </c>
       <c r="H301" s="5">
-        <v>1325194.71</v>
+        <v>1327769.71</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,7 +8970,7 @@
         <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>2028077.69</v>
+        <v>2028850.19</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8979,10 +8979,10 @@
         <v>11582.17</v>
       </c>
       <c r="G302" s="5">
-        <v>1799659.63</v>
+        <v>1800354.88</v>
       </c>
       <c r="H302" s="5">
-        <v>240000.23</v>
+        <v>240077.48</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285500.44</v>
+        <v>285507.76</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25608.69</v>
+        <v>25609.81</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311109.09000000003</v>
+        <v>311117.53000000003</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631009.30000000005</v>
+        <v>631071.34</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59963.1</v>
+        <v>59972.61</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>690972.4</v>
+        <v>691043.95</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>687333.82</v>
+        <v>687465.46</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60864.14</v>
+        <v>60884.34</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>748197.96</v>
+        <v>748349.8</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1444225.83</v>
+        <v>1444438.11</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129176.2</v>
+        <v>129208.76</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1573400.05</v>
+        <v>1573644.89</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>468530</v>
+        <v>469690</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>468530</v>
+        <v>469690</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2426070.9900000002</v>
+        <v>2426435.0499999998</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14321.46</v>
+        <v>14327.95</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2367053.04</v>
+        <v>2367423.59</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4338680.8600000003</v>
+        <v>4339583.46</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26885.56</v>
+        <v>26906.59</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4241294.26</v>
+        <v>4242217.8899999997</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4565468.63</v>
+        <v>4566993.21</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30772.31</v>
+        <v>30812.98</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4405620.21</v>
+        <v>4407185.46</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9211762.5199999996</v>
+        <v>9214329.7200000007</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64189.9</v>
+        <v>64258.82</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8952146.7200000007</v>
+        <v>8954782.8399999999</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>227019.6</v>
+        <v>227214.54</v>
       </c>
       <c r="E211" s="5">
-        <v>252029.8</v>
+        <v>252329.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>479049.4</v>
+        <v>479544.34</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14841496.619999999</v>
+        <v>14844689.220000001</v>
       </c>
       <c r="E239" s="5">
-        <v>215249.01</v>
+        <v>215275.55</v>
       </c>
       <c r="F239" s="5">
-        <v>74268.05</v>
+        <v>74344.08</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15131013.68</v>
+        <v>15134308.85</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4082,19 +4082,19 @@
         <v>7</v>
       </c>
       <c r="D114" s="5">
-        <v>113280.42</v>
+        <v>113413.63</v>
       </c>
       <c r="E114" s="5">
         <v>2729.44</v>
       </c>
       <c r="F114" s="5">
-        <v>51217.599999999999</v>
+        <v>51276.92</v>
       </c>
       <c r="G114" s="5">
         <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>167227.46</v>
+        <v>167419.99</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4160,19 +4160,19 @@
         <v>12</v>
       </c>
       <c r="D117" s="5">
-        <v>39353.4</v>
+        <v>39360.39</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
       <c r="F117" s="5">
-        <v>12669.2</v>
+        <v>12671.65</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>52022.6</v>
+        <v>52032.04</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4186,19 +4186,19 @@
         <v>9</v>
       </c>
       <c r="D118" s="5">
-        <v>89897.41</v>
+        <v>89906.69</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>29143.040000000001</v>
+        <v>29146.29</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>119040.45</v>
+        <v>119052.98</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4212,19 +4212,19 @@
         <v>10</v>
       </c>
       <c r="D119" s="5">
-        <v>80614.45</v>
+        <v>80640.11</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>25915.56</v>
+        <v>25924.79</v>
       </c>
       <c r="G119" s="5">
         <v>5.19</v>
       </c>
       <c r="H119" s="5">
-        <v>106524.82</v>
+        <v>106559.71</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4238,19 +4238,19 @@
         <v>11</v>
       </c>
       <c r="D120" s="5">
-        <v>172646.84</v>
+        <v>172691.79</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
       <c r="F120" s="5">
-        <v>55938.62</v>
+        <v>55954.37</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>228585.46</v>
+        <v>228646.16</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84500.22</v>
+        <v>84501.48</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17811.93</v>
+        <v>17812.21</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102312.15</v>
+        <v>102313.69</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>173596.58</v>
+        <v>173599.5</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36368.980000000003</v>
+        <v>36369.629999999997</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>209965.56</v>
+        <v>209969.13</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>205757.24</v>
+        <v>205767.87</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43233.58</v>
+        <v>43235.95</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>248990.82</v>
+        <v>249003.82</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>423586.75</v>
+        <v>423610.64</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89392.31</v>
+        <v>89397.63</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>512978.16</v>
+        <v>513007.37</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285507.76</v>
+        <v>285515.44</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25609.81</v>
+        <v>25610.68</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311117.53000000003</v>
+        <v>311126.08</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631071.34</v>
+        <v>631081.81000000006</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>59972.61</v>
+        <v>59973.79</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>691043.95</v>
+        <v>691055.6</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>687465.46</v>
+        <v>687477.88</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60884.34</v>
+        <v>60885.75</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>748349.8</v>
+        <v>748363.63</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1444438.11</v>
+        <v>1444451.18</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129208.76</v>
+        <v>129210.24000000001</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1573644.89</v>
+        <v>1573659.44</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1453103.14</v>
+        <v>1453295.38</v>
       </c>
       <c r="E138" s="5">
         <v>21253.71</v>
       </c>
       <c r="F138" s="5">
-        <v>136732.54999999999</v>
+        <v>136754.96</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1611089.4</v>
+        <v>1611304.05</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
         <v>23</v>
       </c>
       <c r="D147" s="5">
-        <v>3960.45</v>
+        <v>3980.76</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>3960.45</v>
+        <v>3980.76</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>469690</v>
+        <v>469865</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>469690</v>
+        <v>469865</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2426435.0499999998</v>
+        <v>2426583.92</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14327.95</v>
+        <v>14333.37</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2367423.59</v>
+        <v>2367577.88</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4339583.46</v>
+        <v>4339983.05</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26906.59</v>
+        <v>26926.39</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4242217.8899999997</v>
+        <v>4242637.28</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4566993.21</v>
+        <v>4567417.24</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30812.98</v>
+        <v>30829.62</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4407185.46</v>
+        <v>4407626.13</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9214329.7200000007</v>
+        <v>9214993.6899999995</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64258.82</v>
+        <v>64283.87</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8954782.8399999999</v>
+        <v>8955471.8599999994</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5980,7 +5980,7 @@
         <v>59</v>
       </c>
       <c r="D187" s="5">
-        <v>22568</v>
+        <v>22971</v>
       </c>
       <c r="E187" s="5">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>22568</v>
+        <v>22971</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6162,7 +6162,7 @@
         <v>66</v>
       </c>
       <c r="D194" s="5">
-        <v>2292</v>
+        <v>2304</v>
       </c>
       <c r="E194" s="5">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="5">
-        <v>2292</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>227214.54</v>
+        <v>227583.54</v>
       </c>
       <c r="E211" s="5">
-        <v>252329.8</v>
+        <v>252689.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>479544.34</v>
+        <v>480273.34</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14844689.220000001</v>
+        <v>14846599.26</v>
       </c>
       <c r="E239" s="5">
-        <v>215275.55</v>
+        <v>215300.63</v>
       </c>
       <c r="F239" s="5">
-        <v>74344.08</v>
+        <v>74428.62</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15134308.85</v>
+        <v>15136328.51</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9360,7 +9360,7 @@
         <v>185</v>
       </c>
       <c r="D317" s="5">
-        <v>15521.1</v>
+        <v>15602.79</v>
       </c>
       <c r="E317" s="5">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="H317" s="5">
-        <v>15521.1</v>
+        <v>15602.79</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8124.2</v>
+        <v>8129.1</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8124.2</v>
+        <v>8129.1</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="224">
   <si>
-    <t>AÑO DEUDA</t>
-  </si>
-  <si>
-    <t>CONCEPTO DE PAGO</t>
-  </si>
-  <si>
     <t>SUBCONCEPTO DE PAGO</t>
   </si>
   <si>
@@ -691,6 +685,12 @@
   </si>
   <si>
     <t>VÓLEY, BÁSQUET Y FÚTBOL DE 16 A MÁS AÑOS(12:00 A 13:00)-LU,MI Y VI(1 H)</t>
+  </si>
+  <si>
+    <t>anio_deuda</t>
+  </si>
+  <si>
+    <t>concepto</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C326" sqref="C326"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,28 +1135,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>1999</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>80</v>
@@ -1190,10 +1190,10 @@
         <v>2000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
         <v>49.13</v>
@@ -1216,10 +1216,10 @@
         <v>2001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>50.24</v>
@@ -1242,10 +1242,10 @@
         <v>2002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>68.319999999999993</v>
@@ -1268,10 +1268,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>37.6</v>
@@ -1294,10 +1294,10 @@
         <v>2002</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4">
         <v>82.96</v>
@@ -1320,10 +1320,10 @@
         <v>2003</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
         <v>4.8</v>
@@ -1346,10 +1346,10 @@
         <v>2003</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>202.56</v>
@@ -1372,10 +1372,10 @@
         <v>2003</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="4">
         <v>59.04</v>
@@ -1398,10 +1398,10 @@
         <v>2003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>74.64</v>
@@ -1424,10 +1424,10 @@
         <v>2003</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4">
         <v>137.33000000000001</v>
@@ -1450,10 +1450,10 @@
         <v>2004</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>5.76</v>
@@ -1476,10 +1476,10 @@
         <v>2004</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4">
         <v>184.2</v>
@@ -1502,10 +1502,10 @@
         <v>2004</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="4">
         <v>58.2</v>
@@ -1528,10 +1528,10 @@
         <v>2004</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
         <v>92.16</v>
@@ -1554,10 +1554,10 @@
         <v>2004</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4">
         <v>71.040000000000006</v>
@@ -1580,10 +1580,10 @@
         <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4">
         <v>19.8</v>
@@ -1606,10 +1606,10 @@
         <v>2006</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4">
         <v>137.38</v>
@@ -1632,10 +1632,10 @@
         <v>2007</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4">
         <v>8.1999999999999993</v>
@@ -1658,10 +1658,10 @@
         <v>2007</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4">
         <v>16.48</v>
@@ -1684,10 +1684,10 @@
         <v>2007</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
@@ -1710,10 +1710,10 @@
         <v>2007</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4">
         <v>11.35</v>
@@ -1736,10 +1736,10 @@
         <v>2007</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4">
         <v>280.19</v>
@@ -1762,10 +1762,10 @@
         <v>2008</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4">
         <v>40.89</v>
@@ -1788,10 +1788,10 @@
         <v>2008</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4">
         <v>60.29</v>
@@ -1814,10 +1814,10 @@
         <v>2008</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D27" s="4">
         <v>46.35</v>
@@ -1840,10 +1840,10 @@
         <v>2008</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4">
         <v>49.64</v>
@@ -1866,10 +1866,10 @@
         <v>2008</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4">
         <v>255.35</v>
@@ -1892,10 +1892,10 @@
         <v>2009</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4">
         <v>121.61</v>
@@ -1918,10 +1918,10 @@
         <v>2009</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4">
         <v>208.98</v>
@@ -1944,10 +1944,10 @@
         <v>2009</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D32" s="4">
         <v>162.24</v>
@@ -1970,10 +1970,10 @@
         <v>2009</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4">
         <v>185.02</v>
@@ -1996,10 +1996,10 @@
         <v>2009</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="4">
         <v>78.5</v>
@@ -2022,10 +2022,10 @@
         <v>2010</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4">
         <v>104.52</v>
@@ -2048,10 +2048,10 @@
         <v>2010</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4">
         <v>148.07</v>
@@ -2074,10 +2074,10 @@
         <v>2010</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D37" s="4">
         <v>141.93</v>
@@ -2100,10 +2100,10 @@
         <v>2010</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="4">
         <v>151.16999999999999</v>
@@ -2126,10 +2126,10 @@
         <v>2010</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4">
         <v>13</v>
@@ -2152,10 +2152,10 @@
         <v>2010</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4">
         <v>189.31</v>
@@ -2178,10 +2178,10 @@
         <v>2011</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4">
         <v>111.69</v>
@@ -2204,10 +2204,10 @@
         <v>2011</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4">
         <v>177.77</v>
@@ -2230,10 +2230,10 @@
         <v>2011</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D43" s="4">
         <v>169</v>
@@ -2256,10 +2256,10 @@
         <v>2011</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4">
         <v>113.62</v>
@@ -2282,10 +2282,10 @@
         <v>2011</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4">
         <v>39</v>
@@ -2308,10 +2308,10 @@
         <v>2011</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="4">
         <v>1151.28</v>
@@ -2334,10 +2334,10 @@
         <v>2011</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4">
         <v>501.24</v>
@@ -2360,10 +2360,10 @@
         <v>2012</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="4">
         <v>117.43</v>
@@ -2386,10 +2386,10 @@
         <v>2012</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="4">
         <v>453.46</v>
@@ -2412,10 +2412,10 @@
         <v>2012</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D50" s="4">
         <v>388.38</v>
@@ -2438,10 +2438,10 @@
         <v>2012</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="4">
         <v>502.02</v>
@@ -2464,10 +2464,10 @@
         <v>2012</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4">
         <v>257</v>
@@ -2490,10 +2490,10 @@
         <v>2012</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4">
         <v>435.74</v>
@@ -2516,10 +2516,10 @@
         <v>2012</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" s="4">
         <v>873.19</v>
@@ -2542,10 +2542,10 @@
         <v>2013</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4">
         <v>325.83999999999997</v>
@@ -2568,10 +2568,10 @@
         <v>2013</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4">
         <v>801.92</v>
@@ -2594,10 +2594,10 @@
         <v>2013</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D57" s="4">
         <v>728.15</v>
@@ -2620,10 +2620,10 @@
         <v>2013</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="4">
         <v>1365.13</v>
@@ -2646,10 +2646,10 @@
         <v>2013</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4">
         <v>252</v>
@@ -2672,10 +2672,10 @@
         <v>2013</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4">
         <v>955.74</v>
@@ -2698,10 +2698,10 @@
         <v>2013</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="4">
         <v>1411.66</v>
@@ -2724,10 +2724,10 @@
         <v>2014</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D62" s="4">
         <v>521.62</v>
@@ -2750,10 +2750,10 @@
         <v>2014</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="4">
         <v>2832.41</v>
@@ -2776,10 +2776,10 @@
         <v>2014</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D64" s="4">
         <v>1058.42</v>
@@ -2802,10 +2802,10 @@
         <v>2014</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" s="4">
         <v>2099</v>
@@ -2828,10 +2828,10 @@
         <v>2014</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="4">
         <v>38</v>
@@ -2854,10 +2854,10 @@
         <v>2014</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4">
         <v>1399.39</v>
@@ -2880,10 +2880,10 @@
         <v>2014</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D68" s="4">
         <v>3671.16</v>
@@ -2906,10 +2906,10 @@
         <v>2014</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="4">
         <v>3800</v>
@@ -2932,10 +2932,10 @@
         <v>2015</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70" s="4">
         <v>1360.12</v>
@@ -2958,10 +2958,10 @@
         <v>2015</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4">
         <v>4257.93</v>
@@ -2984,10 +2984,10 @@
         <v>2015</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D72" s="4">
         <v>2378.34</v>
@@ -3010,10 +3010,10 @@
         <v>2015</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" s="4">
         <v>4943.8900000000003</v>
@@ -3036,10 +3036,10 @@
         <v>2015</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="4">
         <v>254.55</v>
@@ -3062,10 +3062,10 @@
         <v>2015</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" s="4">
         <v>2110.85</v>
@@ -3088,10 +3088,10 @@
         <v>2015</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" s="4">
         <v>6140.79</v>
@@ -3114,10 +3114,10 @@
         <v>2016</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77" s="4">
         <v>1632.74</v>
@@ -3140,10 +3140,10 @@
         <v>2016</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" s="4">
         <v>4380.12</v>
@@ -3166,10 +3166,10 @@
         <v>2016</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D79" s="4">
         <v>3513.14</v>
@@ -3192,10 +3192,10 @@
         <v>2016</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" s="4">
         <v>7489.58</v>
@@ -3218,10 +3218,10 @@
         <v>2016</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="4">
         <v>152</v>
@@ -3244,10 +3244,10 @@
         <v>2016</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" s="4">
         <v>4367.12</v>
@@ -3270,10 +3270,10 @@
         <v>2016</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83" s="4">
         <v>10142.780000000001</v>
@@ -3296,10 +3296,10 @@
         <v>2016</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" s="4">
         <v>86.22</v>
@@ -3322,10 +3322,10 @@
         <v>2017</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D85" s="4">
         <v>3597.48</v>
@@ -3348,10 +3348,10 @@
         <v>2017</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" s="4">
         <v>10779.98</v>
@@ -3374,10 +3374,10 @@
         <v>2017</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D87" s="4">
         <v>9354.0300000000007</v>
@@ -3400,10 +3400,10 @@
         <v>2017</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" s="4">
         <v>16611.62</v>
@@ -3426,10 +3426,10 @@
         <v>2017</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" s="4">
         <v>410</v>
@@ -3452,10 +3452,10 @@
         <v>2017</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" s="4">
         <v>546</v>
@@ -3478,10 +3478,10 @@
         <v>2017</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D91" s="4">
         <v>28424.71</v>
@@ -3504,10 +3504,10 @@
         <v>2017</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D92" s="4">
         <v>90.12</v>
@@ -3530,10 +3530,10 @@
         <v>2018</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" s="4">
         <v>5458.68</v>
@@ -3556,10 +3556,10 @@
         <v>2018</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" s="4">
         <v>21518.7</v>
@@ -3582,10 +3582,10 @@
         <v>2018</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D95" s="4">
         <v>14614.23</v>
@@ -3608,10 +3608,10 @@
         <v>2018</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" s="4">
         <v>26943.74</v>
@@ -3634,10 +3634,10 @@
         <v>2018</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" s="4">
         <v>455</v>
@@ -3660,10 +3660,10 @@
         <v>2018</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98" s="4">
         <v>37952.370000000003</v>
@@ -3686,10 +3686,10 @@
         <v>2018</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" s="4">
         <v>2380</v>
@@ -3712,10 +3712,10 @@
         <v>2018</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D100" s="4">
         <v>4816.8100000000004</v>
@@ -3738,10 +3738,10 @@
         <v>2019</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D101" s="4">
         <v>10500.62</v>
@@ -3764,10 +3764,10 @@
         <v>2019</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="4">
         <v>32342.41</v>
@@ -3790,10 +3790,10 @@
         <v>2019</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D103" s="4">
         <v>23858.75</v>
@@ -3816,10 +3816,10 @@
         <v>2019</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" s="4">
         <v>45793.08</v>
@@ -3842,10 +3842,10 @@
         <v>2019</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" s="4">
         <v>2497.4699999999998</v>
@@ -3868,10 +3868,10 @@
         <v>2019</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D106" s="4">
         <v>56092.42</v>
@@ -3894,10 +3894,10 @@
         <v>2019</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D107" s="4">
         <v>4574.45</v>
@@ -3920,10 +3920,10 @@
         <v>2019</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D108" s="4">
         <v>59876.82</v>
@@ -3946,10 +3946,10 @@
         <v>2020</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" s="4">
         <v>23635.17</v>
@@ -3972,10 +3972,10 @@
         <v>2020</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="4">
         <v>50259.77</v>
@@ -3998,10 +3998,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D111" s="4">
         <v>47399.040000000001</v>
@@ -4024,10 +4024,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4">
         <v>100102.66</v>
@@ -4050,10 +4050,10 @@
         <v>2020</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" s="4">
         <v>1446.5</v>
@@ -4076,10 +4076,10 @@
         <v>2020</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D114" s="4">
         <v>113413.63</v>
@@ -4102,10 +4102,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" s="4">
         <v>27472.33</v>
@@ -4128,10 +4128,10 @@
         <v>2020</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D116" s="4">
         <v>852551.12</v>
@@ -4154,10 +4154,10 @@
         <v>2021</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D117" s="4">
         <v>39360.39</v>
@@ -4180,10 +4180,10 @@
         <v>2021</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="4">
         <v>89906.69</v>
@@ -4206,10 +4206,10 @@
         <v>2021</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D119" s="4">
         <v>80640.11</v>
@@ -4232,10 +4232,10 @@
         <v>2021</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="4">
         <v>172691.79</v>
@@ -4258,10 +4258,10 @@
         <v>2021</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" s="4">
         <v>5663.59</v>
@@ -4284,10 +4284,10 @@
         <v>2021</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D122" s="4">
         <v>187382.86</v>
@@ -4310,10 +4310,10 @@
         <v>2021</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" s="4">
         <v>104625.16</v>
@@ -4336,10 +4336,10 @@
         <v>2021</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124" s="4">
         <v>752479.15</v>
@@ -4362,10 +4362,10 @@
         <v>2022</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D125" s="4">
         <v>84501.48</v>
@@ -4388,10 +4388,10 @@
         <v>2022</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" s="4">
         <v>173599.5</v>
@@ -4414,10 +4414,10 @@
         <v>2022</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D127" s="4">
         <v>205767.87</v>
@@ -4440,10 +4440,10 @@
         <v>2022</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D128" s="4">
         <v>423610.64</v>
@@ -4466,10 +4466,10 @@
         <v>2022</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="4">
         <v>16326.45</v>
@@ -4492,10 +4492,10 @@
         <v>2022</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130" s="4">
         <v>413582.64</v>
@@ -4518,10 +4518,10 @@
         <v>2022</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131" s="4">
         <v>316283.38</v>
@@ -4544,10 +4544,10 @@
         <v>2022</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D132" s="4">
         <v>979297.25</v>
@@ -4570,10 +4570,10 @@
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" s="4">
         <v>285549.68</v>
@@ -4596,10 +4596,10 @@
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" s="4">
         <v>631207.89</v>
@@ -4622,10 +4622,10 @@
         <v>2023</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D135" s="4">
         <v>687682.45</v>
@@ -4648,10 +4648,10 @@
         <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D136" s="4">
         <v>1444874.88</v>
@@ -4674,10 +4674,10 @@
         <v>2023</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D137" s="4">
         <v>127724.41</v>
@@ -4700,10 +4700,10 @@
         <v>2023</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D138" s="4">
         <v>1453715.39</v>
@@ -4726,10 +4726,10 @@
         <v>2023</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D139" s="4">
         <v>583989.75</v>
@@ -4752,10 +4752,10 @@
         <v>2023</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D140" s="4">
         <v>1403439.52</v>
@@ -4778,10 +4778,10 @@
         <v>2024</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D141" s="4">
         <v>5414.8</v>
@@ -4804,10 +4804,10 @@
         <v>2024</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D142" s="4">
         <v>4530</v>
@@ -4830,10 +4830,10 @@
         <v>2024</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D143" s="4">
         <v>8100</v>
@@ -4856,10 +4856,10 @@
         <v>2024</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D144" s="4">
         <v>12240</v>
@@ -4882,10 +4882,10 @@
         <v>2024</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D145" s="4">
         <v>192150</v>
@@ -4908,10 +4908,10 @@
         <v>2024</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D146" s="4">
         <v>0.3</v>
@@ -4934,10 +4934,10 @@
         <v>2024</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D147" s="4">
         <v>3980.76</v>
@@ -4960,10 +4960,10 @@
         <v>2024</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D148" s="4">
         <v>469865</v>
@@ -4986,10 +4986,10 @@
         <v>2024</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D149" s="4">
         <v>362632.4</v>
@@ -5012,10 +5012,10 @@
         <v>2024</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D150" s="4">
         <v>2203</v>
@@ -5038,10 +5038,10 @@
         <v>2024</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="4">
         <v>120</v>
@@ -5064,10 +5064,10 @@
         <v>2024</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D152" s="4">
         <v>3</v>
@@ -5090,10 +5090,10 @@
         <v>2024</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D153" s="4">
         <v>4164.3</v>
@@ -5116,10 +5116,10 @@
         <v>2024</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D154" s="4">
         <v>13629.6</v>
@@ -5142,10 +5142,10 @@
         <v>2024</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D155" s="4">
         <v>565.20000000000005</v>
@@ -5168,10 +5168,10 @@
         <v>2024</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D156" s="4">
         <v>2426635.39</v>
@@ -5194,10 +5194,10 @@
         <v>2024</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D157" s="4">
         <v>4340220.45</v>
@@ -5220,10 +5220,10 @@
         <v>2024</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D158" s="4">
         <v>4567876.62</v>
@@ -5246,10 +5246,10 @@
         <v>2024</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D159" s="4">
         <v>9215685.9299999997</v>
@@ -5272,10 +5272,10 @@
         <v>2024</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D160" s="4">
         <v>160</v>
@@ -5298,10 +5298,10 @@
         <v>2024</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D161" s="4">
         <v>135.30000000000001</v>
@@ -5324,10 +5324,10 @@
         <v>2024</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D162" s="4">
         <v>60.3</v>
@@ -5350,10 +5350,10 @@
         <v>2024</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D163" s="4">
         <v>120.6</v>
@@ -5376,10 +5376,10 @@
         <v>2024</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D164" s="4">
         <v>60.3</v>
@@ -5402,10 +5402,10 @@
         <v>2024</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D165" s="4">
         <v>301.5</v>
@@ -5428,10 +5428,10 @@
         <v>2024</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D166" s="4">
         <v>6768</v>
@@ -5454,10 +5454,10 @@
         <v>2024</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D167" s="4">
         <v>144</v>
@@ -5480,10 +5480,10 @@
         <v>2024</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D168" s="4">
         <v>6798</v>
@@ -5506,10 +5506,10 @@
         <v>2024</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D169" s="4">
         <v>618</v>
@@ -5532,10 +5532,10 @@
         <v>2024</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D170" s="4">
         <v>25358</v>
@@ -5558,10 +5558,10 @@
         <v>2024</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D171" s="4">
         <v>145</v>
@@ -5584,10 +5584,10 @@
         <v>2024</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D172" s="4">
         <v>217.5</v>
@@ -5610,10 +5610,10 @@
         <v>2024</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D173" s="4">
         <v>117.3</v>
@@ -5636,10 +5636,10 @@
         <v>2024</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D174" s="4">
         <v>34.5</v>
@@ -5662,10 +5662,10 @@
         <v>2024</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D175" s="4">
         <v>1849.2</v>
@@ -5688,10 +5688,10 @@
         <v>2024</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D176" s="4">
         <v>230</v>
@@ -5714,10 +5714,10 @@
         <v>2024</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D177" s="4">
         <v>1476.6</v>
@@ -5740,10 +5740,10 @@
         <v>2024</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D178" s="4">
         <v>60.3</v>
@@ -5766,10 +5766,10 @@
         <v>2024</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D179" s="4">
         <v>41.4</v>
@@ -5792,10 +5792,10 @@
         <v>2024</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D180" s="4">
         <v>2801.4</v>
@@ -5818,10 +5818,10 @@
         <v>2024</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D181" s="4">
         <v>171.6</v>
@@ -5844,10 +5844,10 @@
         <v>2024</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D182" s="4">
         <v>288.60000000000002</v>
@@ -5870,10 +5870,10 @@
         <v>2024</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D183" s="4">
         <v>18596.599999999999</v>
@@ -5896,10 +5896,10 @@
         <v>2024</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D184" s="4">
         <v>10479.799999999999</v>
@@ -5922,10 +5922,10 @@
         <v>2024</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D185" s="4">
         <v>924.5</v>
@@ -5948,10 +5948,10 @@
         <v>2024</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D186" s="4">
         <v>693.5</v>
@@ -5974,10 +5974,10 @@
         <v>2024</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D187" s="4">
         <v>22971</v>
@@ -6000,10 +6000,10 @@
         <v>2024</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D188" s="4">
         <v>521</v>
@@ -6026,10 +6026,10 @@
         <v>2024</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D189" s="4">
         <v>29900</v>
@@ -6052,10 +6052,10 @@
         <v>2024</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D190" s="4">
         <v>396</v>
@@ -6078,10 +6078,10 @@
         <v>2024</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D191" s="4">
         <v>5313</v>
@@ -6104,10 +6104,10 @@
         <v>2024</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D192" s="4">
         <v>58232</v>
@@ -6130,10 +6130,10 @@
         <v>2024</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D193" s="4">
         <v>950.4</v>
@@ -6156,10 +6156,10 @@
         <v>2024</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D194" s="4">
         <v>2304</v>
@@ -6182,10 +6182,10 @@
         <v>2024</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D195" s="4">
         <v>957</v>
@@ -6208,10 +6208,10 @@
         <v>2024</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D196" s="4">
         <v>3979</v>
@@ -6234,10 +6234,10 @@
         <v>2024</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D197" s="4">
         <v>15381.9</v>
@@ -6260,10 +6260,10 @@
         <v>2024</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D198" s="4">
         <v>620.70000000000005</v>
@@ -6286,10 +6286,10 @@
         <v>2024</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D199" s="4">
         <v>288.8</v>
@@ -6312,10 +6312,10 @@
         <v>2024</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D200" s="4">
         <v>2272</v>
@@ -6338,10 +6338,10 @@
         <v>2024</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D201" s="4">
         <v>4302</v>
@@ -6364,10 +6364,10 @@
         <v>2024</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D202" s="4">
         <v>391.1</v>
@@ -6390,10 +6390,10 @@
         <v>2024</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D203" s="4">
         <v>150</v>
@@ -6416,10 +6416,10 @@
         <v>2024</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D204" s="4">
         <v>520.79999999999995</v>
@@ -6442,10 +6442,10 @@
         <v>2024</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D205" s="4">
         <v>41255.300000000003</v>
@@ -6468,10 +6468,10 @@
         <v>2024</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D206" s="4">
         <v>449.8</v>
@@ -6494,10 +6494,10 @@
         <v>2024</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D207" s="4">
         <v>147000</v>
@@ -6520,10 +6520,10 @@
         <v>2024</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D208" s="4">
         <v>111.3</v>
@@ -6546,10 +6546,10 @@
         <v>2024</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D209" s="4">
         <v>53.95</v>
@@ -6572,10 +6572,10 @@
         <v>2024</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D210" s="4">
         <v>2175.4</v>
@@ -6598,10 +6598,10 @@
         <v>2024</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D211" s="4">
         <v>227813.54</v>
@@ -6624,10 +6624,10 @@
         <v>2024</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D212" s="4">
         <v>400</v>
@@ -6650,10 +6650,10 @@
         <v>2024</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D213" s="4">
         <v>420</v>
@@ -6676,10 +6676,10 @@
         <v>2024</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D214" s="4">
         <v>210</v>
@@ -6702,10 +6702,10 @@
         <v>2024</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D215" s="4">
         <v>15525</v>
@@ -6728,10 +6728,10 @@
         <v>2024</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D216" s="4">
         <v>200</v>
@@ -6754,10 +6754,10 @@
         <v>2024</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D217" s="4">
         <v>16650</v>
@@ -6780,10 +6780,10 @@
         <v>2024</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D218" s="4">
         <v>900</v>
@@ -6806,10 +6806,10 @@
         <v>2024</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D219" s="4">
         <v>14350</v>
@@ -6832,10 +6832,10 @@
         <v>2024</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D220" s="4">
         <v>7405</v>
@@ -6858,10 +6858,10 @@
         <v>2024</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D221" s="4">
         <v>75</v>
@@ -6884,10 +6884,10 @@
         <v>2024</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D222" s="4">
         <v>26114.400000000001</v>
@@ -6910,10 +6910,10 @@
         <v>2024</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D223" s="4">
         <v>12503.8</v>
@@ -6936,10 +6936,10 @@
         <v>2024</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D224" s="4">
         <v>482.9</v>
@@ -6962,10 +6962,10 @@
         <v>2024</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D225" s="4">
         <v>1253.2</v>
@@ -6988,10 +6988,10 @@
         <v>2024</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D226" s="4">
         <v>47.6</v>
@@ -7014,10 +7014,10 @@
         <v>2024</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D227" s="4">
         <v>4149.6000000000004</v>
@@ -7040,10 +7040,10 @@
         <v>2024</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D228" s="4">
         <v>3240</v>
@@ -7066,10 +7066,10 @@
         <v>2024</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D229" s="4">
         <v>2301</v>
@@ -7092,10 +7092,10 @@
         <v>2024</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D230" s="4">
         <v>1092</v>
@@ -7118,10 +7118,10 @@
         <v>2024</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D231" s="4">
         <v>732</v>
@@ -7144,10 +7144,10 @@
         <v>2024</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D232" s="4">
         <v>688.5</v>
@@ -7170,10 +7170,10 @@
         <v>2024</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D233" s="4">
         <v>39355</v>
@@ -7196,10 +7196,10 @@
         <v>2024</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D234" s="4">
         <v>1320</v>
@@ -7222,10 +7222,10 @@
         <v>2024</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D235" s="4">
         <v>1400</v>
@@ -7248,10 +7248,10 @@
         <v>2024</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D236" s="4">
         <v>7150</v>
@@ -7274,10 +7274,10 @@
         <v>2024</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D237" s="4">
         <v>4770</v>
@@ -7300,10 +7300,10 @@
         <v>2024</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D238" s="4">
         <v>6105</v>
@@ -7326,13 +7326,13 @@
         <v>2024</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D239" s="4">
-        <v>14848552.949999999</v>
+        <v>14848722.050000001</v>
       </c>
       <c r="E239" s="4">
         <v>215315.05</v>
@@ -7352,10 +7352,10 @@
         <v>2024</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D240" s="4">
         <v>330</v>
@@ -7378,10 +7378,10 @@
         <v>2024</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D241" s="4">
         <v>233902.3</v>
@@ -7404,10 +7404,10 @@
         <v>2024</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D242" s="4">
         <v>5645205.0300000003</v>
@@ -7430,10 +7430,10 @@
         <v>2024</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D243" s="4">
         <v>571.65</v>
@@ -7456,10 +7456,10 @@
         <v>2024</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D244" s="4">
         <v>1088</v>
@@ -7482,10 +7482,10 @@
         <v>2024</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D245" s="4">
         <v>98670.399999999994</v>
@@ -7508,10 +7508,10 @@
         <v>2024</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D246" s="4">
         <v>8375</v>
@@ -7534,10 +7534,10 @@
         <v>2024</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D247" s="4">
         <v>97402.2</v>
@@ -7560,10 +7560,10 @@
         <v>2024</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D248" s="4">
         <v>37.6</v>
@@ -7586,10 +7586,10 @@
         <v>2024</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D249" s="4">
         <v>37.6</v>
@@ -7612,10 +7612,10 @@
         <v>2024</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D250" s="4">
         <v>37.6</v>
@@ -7638,10 +7638,10 @@
         <v>2024</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D251" s="4">
         <v>100.5</v>
@@ -7664,10 +7664,10 @@
         <v>2024</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D252" s="4">
         <v>426.1</v>
@@ -7690,10 +7690,10 @@
         <v>2024</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D253" s="4">
         <v>225.6</v>
@@ -7716,10 +7716,10 @@
         <v>2024</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D254" s="4">
         <v>426.1</v>
@@ -7742,10 +7742,10 @@
         <v>2024</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D255" s="4">
         <v>9560.4</v>
@@ -7768,10 +7768,10 @@
         <v>2024</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D256" s="4">
         <v>179318.26</v>
@@ -7794,10 +7794,10 @@
         <v>2024</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D257" s="4">
         <v>126.6</v>
@@ -7820,10 +7820,10 @@
         <v>2024</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D258" s="4">
         <v>100.5</v>
@@ -7846,10 +7846,10 @@
         <v>2024</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D259" s="4">
         <v>11436.6</v>
@@ -7872,10 +7872,10 @@
         <v>2024</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D260" s="4">
         <v>150.4</v>
@@ -7898,10 +7898,10 @@
         <v>2024</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D261" s="4">
         <v>37.6</v>
@@ -7924,10 +7924,10 @@
         <v>2024</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D262" s="4">
         <v>37.6</v>
@@ -7950,10 +7950,10 @@
         <v>2024</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D263" s="4">
         <v>37.6</v>
@@ -7976,10 +7976,10 @@
         <v>2024</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D264" s="4">
         <v>2935.2</v>
@@ -8002,10 +8002,10 @@
         <v>2024</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D265" s="4">
         <v>1530</v>
@@ -8028,10 +8028,10 @@
         <v>2024</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D266" s="4">
         <v>140.1</v>
@@ -8054,10 +8054,10 @@
         <v>2024</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D267" s="4">
         <v>140.1</v>
@@ -8080,10 +8080,10 @@
         <v>2024</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D268" s="4">
         <v>4355.8999999999996</v>
@@ -8106,10 +8106,10 @@
         <v>2024</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D269" s="4">
         <v>221.6</v>
@@ -8132,10 +8132,10 @@
         <v>2024</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D270" s="4">
         <v>140.1</v>
@@ -8158,10 +8158,10 @@
         <v>2024</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D271" s="4">
         <v>136</v>
@@ -8184,10 +8184,10 @@
         <v>2024</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D272" s="4">
         <v>9225.2999999999993</v>
@@ -8210,10 +8210,10 @@
         <v>2024</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D273" s="4">
         <v>5605.2</v>
@@ -8236,10 +8236,10 @@
         <v>2024</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D274" s="4">
         <v>227.9</v>
@@ -8262,10 +8262,10 @@
         <v>2024</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D275" s="4">
         <v>1341</v>
@@ -8288,10 +8288,10 @@
         <v>2024</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D276" s="4">
         <v>3072.3</v>
@@ -8314,10 +8314,10 @@
         <v>2024</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D277" s="4">
         <v>368.1</v>
@@ -8340,10 +8340,10 @@
         <v>2024</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D278" s="4">
         <v>796.7</v>
@@ -8366,10 +8366,10 @@
         <v>2024</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D279" s="4">
         <v>2390.1</v>
@@ -8392,10 +8392,10 @@
         <v>2024</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D280" s="4">
         <v>3983.5</v>
@@ -8418,10 +8418,10 @@
         <v>2024</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D281" s="4">
         <v>3717</v>
@@ -8444,10 +8444,10 @@
         <v>2024</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D282" s="4">
         <v>2247</v>
@@ -8470,10 +8470,10 @@
         <v>2024</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D283" s="4">
         <v>109593</v>
@@ -8496,10 +8496,10 @@
         <v>2024</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D284" s="4">
         <v>27972</v>
@@ -8522,10 +8522,10 @@
         <v>2024</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D285" s="4">
         <v>1874</v>
@@ -8548,10 +8548,10 @@
         <v>2024</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D286" s="4">
         <v>54.6</v>
@@ -8574,10 +8574,10 @@
         <v>2024</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D287" s="4">
         <v>1680</v>
@@ -8600,10 +8600,10 @@
         <v>2024</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D288" s="4">
         <v>2100</v>
@@ -8626,10 +8626,10 @@
         <v>2024</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D289" s="4">
         <v>70</v>
@@ -8652,10 +8652,10 @@
         <v>2024</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D290" s="4">
         <v>4980</v>
@@ -8678,10 +8678,10 @@
         <v>2024</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D291" s="4">
         <v>3760</v>
@@ -8704,10 +8704,10 @@
         <v>2024</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D292" s="4">
         <v>409.2</v>
@@ -8730,10 +8730,10 @@
         <v>2024</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D293" s="4">
         <v>33.5</v>
@@ -8756,10 +8756,10 @@
         <v>2024</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D294" s="4">
         <v>167.5</v>
@@ -8782,10 +8782,10 @@
         <v>2024</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D295" s="4">
         <v>23052.1</v>
@@ -8808,10 +8808,10 @@
         <v>2024</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D296" s="4">
         <v>916.1</v>
@@ -8834,10 +8834,10 @@
         <v>2024</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D297" s="4">
         <v>4380</v>
@@ -8860,10 +8860,10 @@
         <v>2024</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D298" s="4">
         <v>261</v>
@@ -8886,10 +8886,10 @@
         <v>2024</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D299" s="4">
         <v>744.5</v>
@@ -8912,10 +8912,10 @@
         <v>2024</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D300" s="4">
         <v>234.5</v>
@@ -8938,10 +8938,10 @@
         <v>2024</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D301" s="4">
         <v>2511732.0299999998</v>
@@ -8964,10 +8964,10 @@
         <v>2024</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D302" s="4">
         <v>2028850.19</v>
@@ -8990,10 +8990,10 @@
         <v>2024</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D303" s="4">
         <v>5073</v>
@@ -9016,10 +9016,10 @@
         <v>2024</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D304" s="4">
         <v>3135</v>
@@ -9042,10 +9042,10 @@
         <v>2024</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D305" s="4">
         <v>570.64</v>
@@ -9068,10 +9068,10 @@
         <v>2024</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D306" s="4">
         <v>2828.87</v>
@@ -9094,10 +9094,10 @@
         <v>2024</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D307" s="4">
         <v>6</v>
@@ -9120,10 +9120,10 @@
         <v>2024</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D308" s="4">
         <v>2191</v>
@@ -9146,10 +9146,10 @@
         <v>2024</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D309" s="4">
         <v>1510</v>
@@ -9172,10 +9172,10 @@
         <v>2024</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D310" s="4">
         <v>220</v>
@@ -9198,10 +9198,10 @@
         <v>2024</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D311" s="4">
         <v>1560</v>
@@ -9224,10 +9224,10 @@
         <v>2024</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D312" s="4">
         <v>7882</v>
@@ -9250,10 +9250,10 @@
         <v>2024</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D313" s="4">
         <v>3645</v>
@@ -9276,10 +9276,10 @@
         <v>2024</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D314" s="4">
         <v>13090</v>
@@ -9302,10 +9302,10 @@
         <v>2024</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D315" s="4">
         <v>90</v>
@@ -9328,10 +9328,10 @@
         <v>2024</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D316" s="4">
         <v>33</v>
@@ -9354,10 +9354,10 @@
         <v>2024</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D317" s="4">
         <v>15602.79</v>
@@ -9380,10 +9380,10 @@
         <v>2024</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D318" s="4">
         <v>268.39999999999998</v>
@@ -9406,10 +9406,10 @@
         <v>2024</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D319" s="4">
         <v>1908</v>
@@ -9432,10 +9432,10 @@
         <v>2024</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D320" s="4">
         <v>533.70000000000005</v>
@@ -9458,10 +9458,10 @@
         <v>2024</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D321" s="4">
         <v>850.5</v>
@@ -9484,10 +9484,10 @@
         <v>2024</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D322" s="4">
         <v>8129.1</v>
@@ -9510,10 +9510,10 @@
         <v>2024</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D323" s="4">
         <v>327.3</v>
@@ -9536,10 +9536,10 @@
         <v>2024</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D324" s="4">
         <v>1447.2</v>
@@ -9562,10 +9562,10 @@
         <v>2024</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D325" s="4">
         <v>9751.5</v>
@@ -9588,10 +9588,10 @@
         <v>2024</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D326" s="4">
         <v>1080</v>
@@ -9614,10 +9614,10 @@
         <v>2024</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D327" s="4">
         <v>1071</v>
@@ -9640,10 +9640,10 @@
         <v>2024</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D328" s="4">
         <v>52</v>
@@ -9666,10 +9666,10 @@
         <v>2024</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D329" s="4">
         <v>4320</v>
@@ -9692,10 +9692,10 @@
         <v>2024</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D330" s="4">
         <v>2300</v>
@@ -9718,10 +9718,10 @@
         <v>2024</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D331" s="4">
         <v>62968</v>
@@ -9744,10 +9744,10 @@
         <v>2024</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D332" s="4">
         <v>6</v>
@@ -9770,10 +9770,10 @@
         <v>2024</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D333" s="4">
         <v>16.8</v>
@@ -9796,10 +9796,10 @@
         <v>2024</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D334" s="4">
         <v>1</v>
@@ -9822,10 +9822,10 @@
         <v>2024</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D335" s="4">
         <v>2</v>
@@ -9848,10 +9848,10 @@
         <v>2024</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D336" s="4">
         <v>18928.8</v>
@@ -9874,10 +9874,10 @@
         <v>2024</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D337" s="4">
         <v>140</v>
@@ -9900,10 +9900,10 @@
         <v>2024</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D338" s="4">
         <v>75</v>
@@ -9926,10 +9926,10 @@
         <v>2024</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D339" s="4">
         <v>750</v>
@@ -9952,10 +9952,10 @@
         <v>2024</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D340" s="4">
         <v>450</v>
@@ -9978,10 +9978,10 @@
         <v>2024</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D341" s="4">
         <v>225</v>
@@ -10004,10 +10004,10 @@
         <v>2024</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D342" s="4">
         <v>140</v>
@@ -10030,10 +10030,10 @@
         <v>2024</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D343" s="4">
         <v>70</v>
@@ -10056,10 +10056,10 @@
         <v>2024</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D344" s="4">
         <v>75</v>
@@ -10082,10 +10082,10 @@
         <v>2024</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D345" s="4">
         <v>160</v>
@@ -10108,10 +10108,10 @@
         <v>2024</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D346" s="4">
         <v>525</v>
@@ -10134,10 +10134,10 @@
         <v>2024</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D347" s="4">
         <v>300</v>
@@ -10160,10 +10160,10 @@
         <v>2024</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D348" s="4">
         <v>225</v>
@@ -10186,10 +10186,10 @@
         <v>2024</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D349" s="4">
         <v>75</v>
@@ -10212,10 +10212,10 @@
         <v>2024</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D350" s="4">
         <v>75</v>
@@ -10238,10 +10238,10 @@
         <v>2024</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D351" s="4">
         <v>1075.2</v>
@@ -10264,10 +10264,10 @@
         <v>2024</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D352" s="4">
         <v>5255</v>
@@ -10290,10 +10290,10 @@
         <v>2024</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D353" s="4">
         <v>75</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3536,19 +3536,19 @@
         <v>12</v>
       </c>
       <c r="D93" s="5">
-        <v>5471.22</v>
+        <v>5472.42</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>3941.6</v>
+        <v>3942.47</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>9412.82</v>
+        <v>9414.89</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3562,19 +3562,19 @@
         <v>9</v>
       </c>
       <c r="D94" s="5">
-        <v>21567.84</v>
+        <v>21595.74</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
       <c r="F94" s="5">
-        <v>15365.77</v>
+        <v>15386.08</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>36933.61</v>
+        <v>36981.82</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3588,19 +3588,19 @@
         <v>10</v>
       </c>
       <c r="D95" s="5">
-        <v>14658.36</v>
+        <v>14729.46</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
       <c r="F95" s="5">
-        <v>10592.44</v>
+        <v>10644.16</v>
       </c>
       <c r="G95" s="5">
         <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>25250.799999999999</v>
+        <v>25373.62</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3614,19 +3614,19 @@
         <v>11</v>
       </c>
       <c r="D96" s="5">
-        <v>26990.75</v>
+        <v>27191.93</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
       <c r="F96" s="5">
-        <v>19599.689999999999</v>
+        <v>19746.03</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>46590.44</v>
+        <v>46937.96</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4368,19 +4368,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84563.76</v>
+        <v>84628.84</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17828.599999999999</v>
+        <v>17851.759999999998</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102392.36</v>
+        <v>102480.6</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>173806.38</v>
+        <v>173837.36</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36424.06</v>
+        <v>36433.519999999997</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>210230.44</v>
+        <v>210270.88</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>205960.47</v>
+        <v>205976.52</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43286.64</v>
+        <v>43291.54</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>249247.11</v>
+        <v>249268.06</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>423821.24</v>
+        <v>423894.02</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89453.04</v>
+        <v>89475.24</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>513273.38</v>
+        <v>513368.36</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4498,19 +4498,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>414352.01</v>
+        <v>414746.96</v>
       </c>
       <c r="E130" s="5">
-        <v>8145.74</v>
+        <v>8151.8</v>
       </c>
       <c r="F130" s="5">
-        <v>117785.82</v>
+        <v>117913.78</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>540283.56999999995</v>
+        <v>540812.54</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285632.39</v>
+        <v>285683.05</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25628</v>
+        <v>25634.93</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311260.34999999998</v>
+        <v>311317.94</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631448.76</v>
+        <v>631590.40000000002</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60027.63</v>
+        <v>60049.120000000003</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>691476.39</v>
+        <v>691639.52</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>687904.96</v>
+        <v>688170.14</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60946.99</v>
+        <v>60986.2</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>748851.95</v>
+        <v>749156.34</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1445133.42</v>
+        <v>1445455.12</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129305.59</v>
+        <v>129354.31</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1574437.03</v>
+        <v>1574807.45</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127902.41</v>
+        <v>127993.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183649.22</v>
+        <v>183789.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>311551.63</v>
+        <v>311782.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1454542.71</v>
+        <v>1456082.92</v>
       </c>
       <c r="E138" s="5">
-        <v>21259.77</v>
+        <v>21273.040000000001</v>
       </c>
       <c r="F138" s="5">
-        <v>136939.48000000001</v>
+        <v>137171.53</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1612741.96</v>
+        <v>1614527.49</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,7 @@
         <v>29</v>
       </c>
       <c r="D153" s="5">
-        <v>4164.3</v>
+        <v>4362.6000000000004</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="5">
-        <v>4164.3</v>
+        <v>4362.6000000000004</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2426944.13</v>
+        <v>2428034.4300000002</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14342.36</v>
+        <v>14366.98</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2367947.08</v>
+        <v>2369062</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4340830.7300000004</v>
+        <v>4343428.7699999996</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>26953.93</v>
+        <v>27026.51</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4243512.5</v>
+        <v>4246183.12</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4568751.7</v>
+        <v>4570528.1900000004</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30870.48</v>
+        <v>30921.78</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4409001.45</v>
+        <v>4410829.24</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9217176.7599999998</v>
+        <v>9221228.0800000001</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64340.33</v>
+        <v>64455.5</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8957711.3900000006</v>
+        <v>8961877.8800000008</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41255.300000000003</v>
+        <v>41271.599999999999</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41255.300000000003</v>
+        <v>41271.599999999999</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="D209" s="5">
-        <v>53.95</v>
+        <v>71.95</v>
       </c>
       <c r="E209" s="5">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="5">
-        <v>53.95</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,7 +6578,7 @@
         <v>82</v>
       </c>
       <c r="D210" s="5">
-        <v>2176.6999999999998</v>
+        <v>2182.1</v>
       </c>
       <c r="E210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>2176.6999999999998</v>
+        <v>2182.1</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>228143.54</v>
+        <v>228825.04</v>
       </c>
       <c r="E211" s="5">
-        <v>253239.8</v>
+        <v>253924.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>481383.34</v>
+        <v>482749.84</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7176,7 +7176,7 @@
         <v>104</v>
       </c>
       <c r="D233" s="5">
-        <v>39355</v>
+        <v>39440</v>
       </c>
       <c r="E233" s="5">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="5">
-        <v>39355</v>
+        <v>39440</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14850329.789999999</v>
+        <v>14857384.140000001</v>
       </c>
       <c r="E239" s="5">
-        <v>215315.05</v>
+        <v>215374.19</v>
       </c>
       <c r="F239" s="5">
-        <v>74537.75</v>
+        <v>74725.81</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15140182.59</v>
+        <v>15147484.140000001</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="D301" s="5">
-        <v>2512762.0299999998</v>
+        <v>2513792.0299999998</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1184477.32</v>
+        <v>1184992.32</v>
       </c>
       <c r="H301" s="5">
-        <v>1328284.71</v>
+        <v>1328799.71</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
         <v>189</v>
       </c>
       <c r="D321" s="5">
-        <v>850.5</v>
+        <v>856.8</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>850.5</v>
+        <v>856.8</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8134</v>
+        <v>8148.7</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8134</v>
+        <v>8148.7</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9698,7 +9698,7 @@
         <v>198</v>
       </c>
       <c r="D330" s="5">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="E330" s="5">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H330" s="5">
-        <v>2300</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9724,7 +9724,7 @@
         <v>199</v>
       </c>
       <c r="D331" s="5">
-        <v>62968</v>
+        <v>63104</v>
       </c>
       <c r="E331" s="5">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="5">
-        <v>62968</v>
+        <v>63104</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4966,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>469865</v>
+        <v>469920</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>469865</v>
+        <v>469920</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2428034.4300000002</v>
+        <v>2428185.06</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14366.98</v>
+        <v>14370.8</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2369062</v>
+        <v>2369216.4500000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4343428.7699999996</v>
+        <v>4343895.66</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27026.51</v>
+        <v>27042.51</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4246183.12</v>
+        <v>4246666.01</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4570528.1900000004</v>
+        <v>4571588.21</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30921.78</v>
+        <v>30959.65</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4410829.24</v>
+        <v>4411927.13</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9221228.0800000001</v>
+        <v>9222719.3800000008</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64455.5</v>
+        <v>64504.59</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8961877.8800000008</v>
+        <v>8963418.2699999996</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41271.599999999999</v>
+        <v>41287.9</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41271.599999999999</v>
+        <v>41287.9</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,7 +6578,7 @@
         <v>82</v>
       </c>
       <c r="D210" s="5">
-        <v>2182.1</v>
+        <v>2184.1</v>
       </c>
       <c r="E210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>2182.1</v>
+        <v>2184.1</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>228825.04</v>
+        <v>229020.04</v>
       </c>
       <c r="E211" s="5">
-        <v>253924.8</v>
+        <v>254224.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>482749.84</v>
+        <v>483244.84</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7046,7 +7046,7 @@
         <v>99</v>
       </c>
       <c r="D228" s="5">
-        <v>3240</v>
+        <v>3262.5</v>
       </c>
       <c r="E228" s="5">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="5">
-        <v>3240</v>
+        <v>3262.5</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14857384.140000001</v>
+        <v>14859233.98</v>
       </c>
       <c r="E239" s="5">
-        <v>215374.19</v>
+        <v>215412.85</v>
       </c>
       <c r="F239" s="5">
-        <v>74725.81</v>
+        <v>74795.72</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15147484.140000001</v>
+        <v>15149442.550000001</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>109777.5</v>
+        <v>109962</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>109777.5</v>
+        <v>109962</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="D301" s="5">
-        <v>2513792.0299999998</v>
+        <v>2518942.0299999998</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1184992.32</v>
+        <v>1187567.32</v>
       </c>
       <c r="H301" s="5">
-        <v>1328799.71</v>
+        <v>1331374.71</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1117,14 +1117,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
@@ -4368,19 +4368,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84628.84</v>
+        <v>84692.800000000003</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17851.759999999998</v>
+        <v>17868.59</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102480.6</v>
+        <v>102561.39</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>173837.36</v>
+        <v>174092.96</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36433.519999999997</v>
+        <v>36500.78</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>210270.88</v>
+        <v>210593.74</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>205976.52</v>
+        <v>206316.72</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43291.54</v>
+        <v>43381.06</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>249268.06</v>
+        <v>249697.78</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>423894.02</v>
+        <v>424570.46</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89475.24</v>
+        <v>89653.24</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>513368.36</v>
+        <v>514222.8</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4498,19 +4498,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>414746.96</v>
+        <v>415760.24</v>
       </c>
       <c r="E130" s="5">
-        <v>8151.8</v>
+        <v>8157.86</v>
       </c>
       <c r="F130" s="5">
-        <v>117913.78</v>
+        <v>118244.23</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>540812.54</v>
+        <v>542162.32999999996</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4550,19 +4550,19 @@
         <v>16</v>
       </c>
       <c r="D132" s="5">
-        <v>979297.25</v>
+        <v>981597.25</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
       <c r="F132" s="5">
-        <v>26746.65</v>
+        <v>26816.82</v>
       </c>
       <c r="G132" s="5">
-        <v>873907.39</v>
+        <v>875977.39</v>
       </c>
       <c r="H132" s="5">
-        <v>132136.51</v>
+        <v>132436.68</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285683.05</v>
+        <v>285719.09000000003</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25634.93</v>
+        <v>25641.14</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311317.94</v>
+        <v>311360.19</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631590.40000000002</v>
+        <v>631774.07999999996</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60049.120000000003</v>
+        <v>60079.13</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>691639.52</v>
+        <v>691853.21</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>688170.14</v>
+        <v>688432.36</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>60986.2</v>
+        <v>61028.47</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>749156.34</v>
+        <v>749460.83</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1445455.12</v>
+        <v>1445890.31</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129354.31</v>
+        <v>129427.02</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1574807.45</v>
+        <v>1575315.35</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>127993.41</v>
+        <v>128071.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183789.22</v>
+        <v>183909.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>311782.63</v>
+        <v>311980.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1456082.92</v>
+        <v>1457290.07</v>
       </c>
       <c r="E138" s="5">
-        <v>21273.040000000001</v>
+        <v>21285.16</v>
       </c>
       <c r="F138" s="5">
-        <v>137171.53</v>
+        <v>137365.57</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1614527.49</v>
+        <v>1615940.8</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4732,7 +4732,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="5">
-        <v>583989.75</v>
+        <v>584979.75</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>86318.29</v>
       </c>
       <c r="H139" s="5">
-        <v>497671.46</v>
+        <v>498661.46</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,19 +4758,19 @@
         <v>16</v>
       </c>
       <c r="D140" s="5">
-        <v>1403439.52</v>
+        <v>1405914.52</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
       <c r="F140" s="5">
-        <v>24304.89</v>
+        <v>24353.3</v>
       </c>
       <c r="G140" s="5">
-        <v>1234923.56</v>
+        <v>1237151.06</v>
       </c>
       <c r="H140" s="5">
-        <v>192820.85</v>
+        <v>193116.76</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>469920</v>
+        <v>470060</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>469920</v>
+        <v>470060</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2428185.06</v>
+        <v>2428291.85</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14370.8</v>
+        <v>14374.47</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2369216.4500000002</v>
+        <v>2369326.91</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4343895.66</v>
+        <v>4344195.22</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27042.51</v>
+        <v>27055.48</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4246666.01</v>
+        <v>4246978.54</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4571588.21</v>
+        <v>4572098.9000000004</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30959.65</v>
+        <v>30983.63</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4411927.13</v>
+        <v>4412461.8</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9222719.3800000008</v>
+        <v>9223286.8100000005</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64504.59</v>
+        <v>64529.279999999999</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8963418.2699999996</v>
+        <v>8964010.3900000006</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>229020.04</v>
+        <v>229576.04</v>
       </c>
       <c r="E211" s="5">
-        <v>254224.8</v>
+        <v>254614.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>483244.84</v>
+        <v>484190.84</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14859233.98</v>
+        <v>14861580.220000001</v>
       </c>
       <c r="E239" s="5">
-        <v>215412.85</v>
+        <v>215435.63</v>
       </c>
       <c r="F239" s="5">
-        <v>74795.72</v>
+        <v>74899.23</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15149442.550000001</v>
+        <v>15151915.08</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,19 +8970,19 @@
         <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>2028850.19</v>
+        <v>2031425.19</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
       <c r="F302" s="5">
-        <v>11582.17</v>
+        <v>11604.26</v>
       </c>
       <c r="G302" s="5">
-        <v>1800354.88</v>
+        <v>1802672.38</v>
       </c>
       <c r="H302" s="5">
-        <v>240077.48</v>
+        <v>240357.07</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9854,7 +9854,7 @@
         <v>204</v>
       </c>
       <c r="D336" s="5">
-        <v>18928.8</v>
+        <v>18968.400000000001</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H336" s="5">
-        <v>18928.8</v>
+        <v>18968.400000000001</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C326" sqref="C326"/>
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3952,19 +3952,19 @@
         <v>12</v>
       </c>
       <c r="D109" s="5">
-        <v>23693.49</v>
+        <v>23703.72</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <v>10547.85</v>
+        <v>10555.05</v>
       </c>
       <c r="G109" s="5">
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>34241.339999999997</v>
+        <v>34258.769999999997</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,19 +3978,19 @@
         <v>9</v>
       </c>
       <c r="D110" s="5">
-        <v>50496.05</v>
+        <v>50516.43</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>22708.93</v>
+        <v>22719.200000000001</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>73204.98</v>
+        <v>73235.63</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,19 +4004,19 @@
         <v>10</v>
       </c>
       <c r="D111" s="5">
-        <v>47585.4</v>
+        <v>47601.87</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>21199.93</v>
+        <v>21208.21</v>
       </c>
       <c r="G111" s="5">
         <v>0</v>
       </c>
       <c r="H111" s="5">
-        <v>68785.33</v>
+        <v>68810.080000000002</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4030,19 +4030,19 @@
         <v>11</v>
       </c>
       <c r="D112" s="5">
-        <v>100768.06</v>
+        <v>100829.6</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
       <c r="F112" s="5">
-        <v>44978.3</v>
+        <v>45009.32</v>
       </c>
       <c r="G112" s="5">
         <v>6.98</v>
       </c>
       <c r="H112" s="5">
-        <v>145739.38</v>
+        <v>145831.94</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285719.09000000003</v>
+        <v>285728.93</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25641.14</v>
+        <v>25642.43</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311360.19</v>
+        <v>311371.32</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631774.07999999996</v>
+        <v>631808.56999999995</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60079.13</v>
+        <v>60083.66</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>691853.21</v>
+        <v>691892.23</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>688432.36</v>
+        <v>688493.05</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>61028.47</v>
+        <v>61037.78</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>749460.83</v>
+        <v>749530.83</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1445890.31</v>
+        <v>1445957.73</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129427.02</v>
+        <v>129435.68</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1575315.35</v>
+        <v>1575391.43</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>128071.41</v>
+        <v>128097.41</v>
       </c>
       <c r="E137" s="5">
-        <v>183909.22</v>
+        <v>183949.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>311980.63</v>
+        <v>312046.63</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1457290.07</v>
+        <v>1457349.47</v>
       </c>
       <c r="E138" s="5">
-        <v>21285.16</v>
+        <v>21297.279999999999</v>
       </c>
       <c r="F138" s="5">
-        <v>137365.57</v>
+        <v>137374.87</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1615940.8</v>
+        <v>1616021.62</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2428291.85</v>
+        <v>2428544.6</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14374.47</v>
+        <v>14381.59</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2369326.91</v>
+        <v>2369586.7799999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4344195.22</v>
+        <v>4344627.8</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27055.48</v>
+        <v>27069.61</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4246978.54</v>
+        <v>4247425.25</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4572098.9000000004</v>
+        <v>4572887.8</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>30983.63</v>
+        <v>31008.240000000002</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4412461.8</v>
+        <v>4413275.3099999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9223286.8100000005</v>
+        <v>9224497.0399999991</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64529.279999999999</v>
+        <v>64569.84</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8964010.3900000006</v>
+        <v>8965261.1799999997</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
         <v>64</v>
       </c>
       <c r="D192" s="5">
-        <v>58232</v>
+        <v>58406</v>
       </c>
       <c r="E192" s="5">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="5">
-        <v>58232</v>
+        <v>58406</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41287.9</v>
+        <v>41304.199999999997</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41287.9</v>
+        <v>41304.199999999997</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,7 +6578,7 @@
         <v>82</v>
       </c>
       <c r="D210" s="5">
-        <v>2184.1</v>
+        <v>2185.3000000000002</v>
       </c>
       <c r="E210" s="5">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>2184.1</v>
+        <v>2185.3000000000002</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>229576.04</v>
+        <v>229884.04</v>
       </c>
       <c r="E211" s="5">
-        <v>254614.8</v>
+        <v>254984.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>484190.84</v>
+        <v>484868.84</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14861580.220000001</v>
+        <v>14863602.390000001</v>
       </c>
       <c r="E239" s="5">
-        <v>215435.63</v>
+        <v>215463.32</v>
       </c>
       <c r="F239" s="5">
-        <v>74899.23</v>
+        <v>74965.179999999993</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15151915.08</v>
+        <v>15154030.890000001</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7514,7 +7514,7 @@
         <v>116</v>
       </c>
       <c r="D246" s="5">
-        <v>8375</v>
+        <v>9045</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="5">
-        <v>8375</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7540,7 +7540,7 @@
         <v>117</v>
       </c>
       <c r="D247" s="5">
-        <v>97402.2</v>
+        <v>98064.8</v>
       </c>
       <c r="E247" s="5">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="5">
-        <v>97402.2</v>
+        <v>98064.8</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8190,7 +8190,7 @@
         <v>142</v>
       </c>
       <c r="D272" s="5">
-        <v>9225.2999999999993</v>
+        <v>9664.6</v>
       </c>
       <c r="E272" s="5">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="H272" s="5">
-        <v>9225.2999999999993</v>
+        <v>9664.6</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>109962</v>
+        <v>110146.5</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>109962</v>
+        <v>110146.5</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8148.7</v>
+        <v>8158.5</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8148.7</v>
+        <v>8158.5</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9854,7 +9854,7 @@
         <v>204</v>
       </c>
       <c r="D336" s="5">
-        <v>18968.400000000001</v>
+        <v>19008</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H336" s="5">
-        <v>18968.400000000001</v>
+        <v>19008</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+      <selection activeCell="B328" sqref="B328:B329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4368,19 +4368,19 @@
         <v>12</v>
       </c>
       <c r="D125" s="5">
-        <v>84692.800000000003</v>
+        <v>84722.36</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <v>17868.59</v>
+        <v>17875.04</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>102561.39</v>
+        <v>102597.4</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>174092.96</v>
+        <v>174122.12</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36500.78</v>
+        <v>36507.14</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>210593.74</v>
+        <v>210629.26</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4420,19 +4420,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="5">
-        <v>206316.72</v>
+        <v>206327.36</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
       <c r="F127" s="5">
-        <v>43381.06</v>
+        <v>43383.38</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>249697.78</v>
+        <v>249710.74</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
         <v>11</v>
       </c>
       <c r="D128" s="5">
-        <v>424570.46</v>
+        <v>424606.84</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>89653.24</v>
+        <v>89661.18</v>
       </c>
       <c r="G128" s="5">
         <v>0.9</v>
       </c>
       <c r="H128" s="5">
-        <v>514222.8</v>
+        <v>514267.12</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4498,19 +4498,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>415760.24</v>
+        <v>415787.84</v>
       </c>
       <c r="E130" s="5">
-        <v>8157.86</v>
+        <v>8163.92</v>
       </c>
       <c r="F130" s="5">
-        <v>118244.23</v>
+        <v>118253.16</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>542162.32999999996</v>
+        <v>542204.92000000004</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285728.93</v>
+        <v>285948.03000000003</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25642.43</v>
+        <v>25675.14</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311371.32</v>
+        <v>311623.13</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631808.56999999995</v>
+        <v>631981.73</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60083.66</v>
+        <v>60111.17</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>691892.23</v>
+        <v>692092.9</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>688493.05</v>
+        <v>688606.79</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>61037.78</v>
+        <v>61055.16</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>749530.83</v>
+        <v>749661.95</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1445957.73</v>
+        <v>1446216.86</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129435.68</v>
+        <v>129475.45</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1575391.43</v>
+        <v>1575690.33</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>128097.41</v>
+        <v>128103.91</v>
       </c>
       <c r="E137" s="5">
-        <v>183949.22</v>
+        <v>183959.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>312046.63</v>
+        <v>312063.13</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1457349.47</v>
+        <v>1458392.45</v>
       </c>
       <c r="E138" s="5">
-        <v>21297.279999999999</v>
+        <v>21309.4</v>
       </c>
       <c r="F138" s="5">
-        <v>137374.87</v>
+        <v>137542.60999999999</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1616021.62</v>
+        <v>1617244.46</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2428544.6</v>
+        <v>2429322.4500000002</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14381.59</v>
+        <v>14397.6</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2369586.7799999998</v>
+        <v>2370380.64</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4344627.8</v>
+        <v>4345726.24</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27069.61</v>
+        <v>27093.040000000001</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4247425.25</v>
+        <v>4248547.12</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4572887.8</v>
+        <v>4574902.3499999996</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31008.240000000002</v>
+        <v>31037.65</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4413275.3099999996</v>
+        <v>4415319.2699999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9224497.0399999991</v>
+        <v>9228039.1600000001</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64569.84</v>
+        <v>64609.97</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8965261.1799999997</v>
+        <v>8968843.4299999997</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="D209" s="5">
-        <v>71.95</v>
+        <v>72.05</v>
       </c>
       <c r="E209" s="5">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="5">
-        <v>71.95</v>
+        <v>72.05</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>229884.04</v>
+        <v>230253.04</v>
       </c>
       <c r="E211" s="5">
-        <v>254984.8</v>
+        <v>255344.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>484868.84</v>
+        <v>485597.84</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14863602.390000001</v>
+        <v>14867324.470000001</v>
       </c>
       <c r="E239" s="5">
-        <v>215463.32</v>
+        <v>215482.65</v>
       </c>
       <c r="F239" s="5">
-        <v>74965.179999999993</v>
+        <v>75047.94</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15154030.890000001</v>
+        <v>15157855.060000001</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>110146.5</v>
+        <v>110331</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>110146.5</v>
+        <v>110331</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
         <v>15</v>
       </c>
       <c r="D301" s="5">
-        <v>2518942.0299999998</v>
+        <v>2522547.0299999998</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -8953,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1187567.32</v>
+        <v>1189369.82</v>
       </c>
       <c r="H301" s="5">
-        <v>1331374.71</v>
+        <v>1333177.21</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,7 +8970,7 @@
         <v>16</v>
       </c>
       <c r="D302" s="5">
-        <v>2031425.19</v>
+        <v>2032197.69</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8979,10 +8979,10 @@
         <v>11604.26</v>
       </c>
       <c r="G302" s="5">
-        <v>1802672.38</v>
+        <v>1803367.63</v>
       </c>
       <c r="H302" s="5">
-        <v>240357.07</v>
+        <v>240434.32</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:H353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328:B329"/>
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4576,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285948.03000000003</v>
+        <v>285965.90000000002</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25675.14</v>
+        <v>25677.23</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311623.13</v>
+        <v>311643.09000000003</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>631981.73</v>
+        <v>632026.04</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60111.17</v>
+        <v>60116.41</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>692092.9</v>
+        <v>692142.45</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4628,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>688606.79</v>
+        <v>688722.5</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>61055.16</v>
+        <v>61069.02</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>749661.95</v>
+        <v>749791.52</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,19 +4654,19 @@
         <v>11</v>
       </c>
       <c r="D136" s="5">
-        <v>1446216.86</v>
+        <v>1446313.75</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
       <c r="F136" s="5">
-        <v>129475.45</v>
+        <v>129486.83</v>
       </c>
       <c r="G136" s="5">
         <v>1.98</v>
       </c>
       <c r="H136" s="5">
-        <v>1575690.33</v>
+        <v>1575798.6</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>470060</v>
+        <v>470280</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>470060</v>
+        <v>470280</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5174,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2429322.4500000002</v>
+        <v>2429415.75</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14397.6</v>
+        <v>14399.61</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2370380.64</v>
+        <v>2370475.9500000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5200,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4345726.24</v>
+        <v>4346076.6100000003</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27093.040000000001</v>
+        <v>27098.720000000001</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4248547.12</v>
+        <v>4248903.17</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5226,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4574902.3499999996</v>
+        <v>4575298.95</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31037.65</v>
+        <v>31049.71</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4415319.2699999996</v>
+        <v>4415727.93</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5252,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9228039.1600000001</v>
+        <v>9229228.2699999996</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64609.97</v>
+        <v>64626.77</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8968843.4299999997</v>
+        <v>8970049.3399999999</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="D211" s="5">
-        <v>230253.04</v>
+        <v>230366.04</v>
       </c>
       <c r="E211" s="5">
-        <v>255344.8</v>
+        <v>255364.8</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>485597.84</v>
+        <v>485730.84</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,19 +7332,19 @@
         <v>7</v>
       </c>
       <c r="D239" s="5">
-        <v>14867324.470000001</v>
+        <v>14878282.49</v>
       </c>
       <c r="E239" s="5">
         <v>215482.65</v>
       </c>
       <c r="F239" s="5">
-        <v>75047.94</v>
+        <v>75251.070000000007</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15157855.060000001</v>
+        <v>15169016.210000001</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="225">
   <si>
     <t>SUBCONCEPTO DE PAGO</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>AUTOR. EVENTOS Y/O ESP.PUB.NO DEPORT. CON AFLUEN. MENOR/IGUAL A 3000 PERSONAS REALIZ. EN LA VIA PUB.</t>
+  </si>
+  <si>
+    <t>AUTOR. PARA LA UBIC. DE ELEM. PUBLIC. EXT.ESPECIAL-TIPO:PANEL MONUMENTAL/MONUMENTAL UNIPOLAR Y TOTEM</t>
   </si>
   <si>
     <t>AUTOR. PARA LA UBIC. DE ELEMENTO PUBLIC. EXT.ILUMINADO-TIPO: AFICHE EN BIENES DOMINIO PRIVADO</t>
@@ -1115,16 +1118,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H353"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="13.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
@@ -1135,10 +1138,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3952,19 +3955,19 @@
         <v>12</v>
       </c>
       <c r="D109" s="5">
-        <v>23703.72</v>
+        <v>23706.52</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <v>10555.05</v>
+        <v>10556.41</v>
       </c>
       <c r="G109" s="5">
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>34258.769999999997</v>
+        <v>34262.93</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,19 +3981,19 @@
         <v>9</v>
       </c>
       <c r="D110" s="5">
-        <v>50516.43</v>
+        <v>50544.58</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>22719.200000000001</v>
+        <v>22732.880000000001</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>73235.63</v>
+        <v>73277.460000000006</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,19 +4007,19 @@
         <v>10</v>
       </c>
       <c r="D111" s="5">
-        <v>47601.87</v>
+        <v>47653.32</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <v>21208.21</v>
+        <v>21233.22</v>
       </c>
       <c r="G111" s="5">
         <v>0</v>
       </c>
       <c r="H111" s="5">
-        <v>68810.080000000002</v>
+        <v>68886.539999999994</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4030,19 +4033,19 @@
         <v>11</v>
       </c>
       <c r="D112" s="5">
-        <v>100829.6</v>
+        <v>100914.5</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
       <c r="F112" s="5">
-        <v>45009.32</v>
+        <v>45051.97</v>
       </c>
       <c r="G112" s="5">
         <v>6.98</v>
       </c>
       <c r="H112" s="5">
-        <v>145831.94</v>
+        <v>145959.49</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>470280</v>
+        <v>470445</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4978,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>470280</v>
+        <v>470445</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4992,7 +4995,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="5">
-        <v>362632.4</v>
+        <v>362712.4</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -5004,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="5">
-        <v>362632.4</v>
+        <v>362712.4</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,19 +5177,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2429415.75</v>
+        <v>2429710.9</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14399.61</v>
+        <v>14404.16</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2370475.9500000002</v>
+        <v>2370775.65</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5200,19 +5203,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4346076.6100000003</v>
+        <v>4346499.9400000004</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27098.720000000001</v>
+        <v>27110.48</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4248903.17</v>
+        <v>4249338.26</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,19 +5229,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4575298.95</v>
+        <v>4575902.3099999996</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31049.71</v>
+        <v>31067.77</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4415727.93</v>
+        <v>4416349.3499999996</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5252,19 +5255,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9229228.2699999996</v>
+        <v>9230318.8100000005</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64626.77</v>
+        <v>64653.94</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8970049.3399999999</v>
+        <v>8971167.0500000007</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5434,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="D166" s="5">
-        <v>6768</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -5446,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H166" s="5">
-        <v>6768</v>
+        <v>283.39999999999998</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5460,7 +5463,7 @@
         <v>39</v>
       </c>
       <c r="D167" s="5">
-        <v>144</v>
+        <v>6768</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -5472,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="5">
-        <v>144</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5486,7 +5489,7 @@
         <v>40</v>
       </c>
       <c r="D168" s="5">
-        <v>6798</v>
+        <v>144</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -5498,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="5">
-        <v>6798</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5512,7 +5515,7 @@
         <v>41</v>
       </c>
       <c r="D169" s="5">
-        <v>618</v>
+        <v>6798</v>
       </c>
       <c r="E169" s="5">
         <v>0</v>
@@ -5524,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="5">
-        <v>618</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,7 +5541,7 @@
         <v>42</v>
       </c>
       <c r="D170" s="5">
-        <v>25358</v>
+        <v>618</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -5550,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="5">
-        <v>25358</v>
+        <v>618</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5564,7 +5567,7 @@
         <v>43</v>
       </c>
       <c r="D171" s="5">
-        <v>145</v>
+        <v>25358</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -5576,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="5">
-        <v>145</v>
+        <v>25358</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5590,7 +5593,7 @@
         <v>44</v>
       </c>
       <c r="D172" s="5">
-        <v>217.5</v>
+        <v>145</v>
       </c>
       <c r="E172" s="5">
         <v>0</v>
@@ -5602,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="5">
-        <v>217.5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,7 +5619,7 @@
         <v>45</v>
       </c>
       <c r="D173" s="5">
-        <v>117.3</v>
+        <v>217.5</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -5628,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="5">
-        <v>117.3</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5642,7 +5645,7 @@
         <v>46</v>
       </c>
       <c r="D174" s="5">
-        <v>34.5</v>
+        <v>117.3</v>
       </c>
       <c r="E174" s="5">
         <v>0</v>
@@ -5654,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="5">
-        <v>34.5</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5668,7 +5671,7 @@
         <v>47</v>
       </c>
       <c r="D175" s="5">
-        <v>1849.2</v>
+        <v>34.5</v>
       </c>
       <c r="E175" s="5">
         <v>0</v>
@@ -5680,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="5">
-        <v>1849.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,7 +5697,7 @@
         <v>48</v>
       </c>
       <c r="D176" s="5">
-        <v>230</v>
+        <v>1849.2</v>
       </c>
       <c r="E176" s="5">
         <v>0</v>
@@ -5706,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H176" s="5">
-        <v>230</v>
+        <v>1849.2</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5720,7 +5723,7 @@
         <v>49</v>
       </c>
       <c r="D177" s="5">
-        <v>1476.6</v>
+        <v>230</v>
       </c>
       <c r="E177" s="5">
         <v>0</v>
@@ -5732,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="5">
-        <v>1476.6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5746,7 +5749,7 @@
         <v>50</v>
       </c>
       <c r="D178" s="5">
-        <v>60.3</v>
+        <v>1476.6</v>
       </c>
       <c r="E178" s="5">
         <v>0</v>
@@ -5758,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="5">
-        <v>60.3</v>
+        <v>1476.6</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5772,7 +5775,7 @@
         <v>51</v>
       </c>
       <c r="D179" s="5">
-        <v>41.4</v>
+        <v>60.3</v>
       </c>
       <c r="E179" s="5">
         <v>0</v>
@@ -5784,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="H179" s="5">
-        <v>41.4</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5798,7 +5801,7 @@
         <v>52</v>
       </c>
       <c r="D180" s="5">
-        <v>2801.4</v>
+        <v>41.4</v>
       </c>
       <c r="E180" s="5">
         <v>0</v>
@@ -5810,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="H180" s="5">
-        <v>2801.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5824,7 +5827,7 @@
         <v>53</v>
       </c>
       <c r="D181" s="5">
-        <v>171.6</v>
+        <v>2801.4</v>
       </c>
       <c r="E181" s="5">
         <v>0</v>
@@ -5836,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="H181" s="5">
-        <v>171.6</v>
+        <v>2801.4</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5850,7 +5853,7 @@
         <v>54</v>
       </c>
       <c r="D182" s="5">
-        <v>288.60000000000002</v>
+        <v>171.6</v>
       </c>
       <c r="E182" s="5">
         <v>0</v>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="H182" s="5">
-        <v>288.60000000000002</v>
+        <v>171.6</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5876,7 +5879,7 @@
         <v>55</v>
       </c>
       <c r="D183" s="5">
-        <v>18596.599999999999</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="E183" s="5">
         <v>0</v>
@@ -5888,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="H183" s="5">
-        <v>18596.599999999999</v>
+        <v>288.60000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5902,7 +5905,7 @@
         <v>56</v>
       </c>
       <c r="D184" s="5">
-        <v>10479.799999999999</v>
+        <v>18596.599999999999</v>
       </c>
       <c r="E184" s="5">
         <v>0</v>
@@ -5914,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H184" s="5">
-        <v>10479.799999999999</v>
+        <v>18596.599999999999</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5928,7 +5931,7 @@
         <v>57</v>
       </c>
       <c r="D185" s="5">
-        <v>924.5</v>
+        <v>10479.799999999999</v>
       </c>
       <c r="E185" s="5">
         <v>0</v>
@@ -5940,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="H185" s="5">
-        <v>924.5</v>
+        <v>10479.799999999999</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5954,7 +5957,7 @@
         <v>58</v>
       </c>
       <c r="D186" s="5">
-        <v>693.5</v>
+        <v>924.5</v>
       </c>
       <c r="E186" s="5">
         <v>0</v>
@@ -5966,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="H186" s="5">
-        <v>693.5</v>
+        <v>924.5</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5980,7 +5983,7 @@
         <v>59</v>
       </c>
       <c r="D187" s="5">
-        <v>22971</v>
+        <v>693.5</v>
       </c>
       <c r="E187" s="5">
         <v>0</v>
@@ -5992,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>22971</v>
+        <v>693.5</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,7 +6009,7 @@
         <v>60</v>
       </c>
       <c r="D188" s="5">
-        <v>521</v>
+        <v>22971</v>
       </c>
       <c r="E188" s="5">
         <v>0</v>
@@ -6018,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="5">
-        <v>521</v>
+        <v>22971</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6032,7 +6035,7 @@
         <v>61</v>
       </c>
       <c r="D189" s="5">
-        <v>29900</v>
+        <v>521</v>
       </c>
       <c r="E189" s="5">
         <v>0</v>
@@ -6044,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="5">
-        <v>29900</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6058,7 +6061,7 @@
         <v>62</v>
       </c>
       <c r="D190" s="5">
-        <v>396</v>
+        <v>29900</v>
       </c>
       <c r="E190" s="5">
         <v>0</v>
@@ -6070,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="5">
-        <v>396</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,7 +6087,7 @@
         <v>63</v>
       </c>
       <c r="D191" s="5">
-        <v>5313</v>
+        <v>396</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -6096,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="5">
-        <v>5313</v>
+        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6110,7 +6113,7 @@
         <v>64</v>
       </c>
       <c r="D192" s="5">
-        <v>58406</v>
+        <v>5313</v>
       </c>
       <c r="E192" s="5">
         <v>0</v>
@@ -6122,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="5">
-        <v>58406</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6136,7 +6139,7 @@
         <v>65</v>
       </c>
       <c r="D193" s="5">
-        <v>950.4</v>
+        <v>58406</v>
       </c>
       <c r="E193" s="5">
         <v>0</v>
@@ -6148,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H193" s="5">
-        <v>950.4</v>
+        <v>58406</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6162,7 +6165,7 @@
         <v>66</v>
       </c>
       <c r="D194" s="5">
-        <v>2304</v>
+        <v>950.4</v>
       </c>
       <c r="E194" s="5">
         <v>0</v>
@@ -6174,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="5">
-        <v>2304</v>
+        <v>950.4</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6188,7 +6191,7 @@
         <v>67</v>
       </c>
       <c r="D195" s="5">
-        <v>957</v>
+        <v>2304</v>
       </c>
       <c r="E195" s="5">
         <v>0</v>
@@ -6200,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="5">
-        <v>957</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6214,7 +6217,7 @@
         <v>68</v>
       </c>
       <c r="D196" s="5">
-        <v>3979</v>
+        <v>957</v>
       </c>
       <c r="E196" s="5">
         <v>0</v>
@@ -6226,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="H196" s="5">
-        <v>3979</v>
+        <v>957</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6240,7 +6243,7 @@
         <v>69</v>
       </c>
       <c r="D197" s="5">
-        <v>15381.9</v>
+        <v>3979</v>
       </c>
       <c r="E197" s="5">
         <v>0</v>
@@ -6252,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="5">
-        <v>15381.9</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,7 +6269,7 @@
         <v>70</v>
       </c>
       <c r="D198" s="5">
-        <v>620.70000000000005</v>
+        <v>15381.9</v>
       </c>
       <c r="E198" s="5">
         <v>0</v>
@@ -6278,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="5">
-        <v>620.70000000000005</v>
+        <v>15381.9</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6292,7 +6295,7 @@
         <v>71</v>
       </c>
       <c r="D199" s="5">
-        <v>288.8</v>
+        <v>620.70000000000005</v>
       </c>
       <c r="E199" s="5">
         <v>0</v>
@@ -6304,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="5">
-        <v>288.8</v>
+        <v>620.70000000000005</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6318,7 +6321,7 @@
         <v>72</v>
       </c>
       <c r="D200" s="5">
-        <v>2272</v>
+        <v>288.8</v>
       </c>
       <c r="E200" s="5">
         <v>0</v>
@@ -6330,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="5">
-        <v>2272</v>
+        <v>288.8</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6344,7 +6347,7 @@
         <v>73</v>
       </c>
       <c r="D201" s="5">
-        <v>4302</v>
+        <v>2272</v>
       </c>
       <c r="E201" s="5">
         <v>0</v>
@@ -6356,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="5">
-        <v>4302</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6370,7 +6373,7 @@
         <v>74</v>
       </c>
       <c r="D202" s="5">
-        <v>391.1</v>
+        <v>4302</v>
       </c>
       <c r="E202" s="5">
         <v>0</v>
@@ -6382,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="5">
-        <v>391.1</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6396,7 +6399,7 @@
         <v>75</v>
       </c>
       <c r="D203" s="5">
-        <v>150</v>
+        <v>391.1</v>
       </c>
       <c r="E203" s="5">
         <v>0</v>
@@ -6408,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="5">
-        <v>150</v>
+        <v>391.1</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6425,7 @@
         <v>76</v>
       </c>
       <c r="D204" s="5">
-        <v>520.79999999999995</v>
+        <v>150</v>
       </c>
       <c r="E204" s="5">
         <v>0</v>
@@ -6434,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="5">
-        <v>520.79999999999995</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6448,7 +6451,7 @@
         <v>77</v>
       </c>
       <c r="D205" s="5">
-        <v>41304.199999999997</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="E205" s="5">
         <v>0</v>
@@ -6460,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="5">
-        <v>41304.199999999997</v>
+        <v>520.79999999999995</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6474,7 +6477,7 @@
         <v>78</v>
       </c>
       <c r="D206" s="5">
-        <v>449.8</v>
+        <v>41353.1</v>
       </c>
       <c r="E206" s="5">
         <v>0</v>
@@ -6486,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="5">
-        <v>449.8</v>
+        <v>41353.1</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6500,7 +6503,7 @@
         <v>79</v>
       </c>
       <c r="D207" s="5">
-        <v>147000</v>
+        <v>449.8</v>
       </c>
       <c r="E207" s="5">
         <v>0</v>
@@ -6512,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="5">
-        <v>147000</v>
+        <v>449.8</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6526,7 +6529,7 @@
         <v>80</v>
       </c>
       <c r="D208" s="5">
-        <v>111.3</v>
+        <v>147000</v>
       </c>
       <c r="E208" s="5">
         <v>0</v>
@@ -6538,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="5">
-        <v>111.3</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,7 +6555,7 @@
         <v>81</v>
       </c>
       <c r="D209" s="5">
-        <v>72.05</v>
+        <v>111.3</v>
       </c>
       <c r="E209" s="5">
         <v>0</v>
@@ -6564,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="5">
-        <v>72.05</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,7 +6581,7 @@
         <v>82</v>
       </c>
       <c r="D210" s="5">
-        <v>2185.3000000000002</v>
+        <v>72.05</v>
       </c>
       <c r="E210" s="5">
         <v>0</v>
@@ -6590,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>2185.3000000000002</v>
+        <v>72.05</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,16 +6601,16 @@
         <v>2024</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D211" s="5">
-        <v>230366.04</v>
+        <v>2185.3000000000002</v>
       </c>
       <c r="E211" s="5">
-        <v>255364.8</v>
+        <v>0</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -6616,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="5">
-        <v>485730.84</v>
+        <v>2185.3000000000002</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6624,16 +6627,16 @@
         <v>2024</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D212" s="5">
-        <v>400</v>
+        <v>230722.04</v>
       </c>
       <c r="E212" s="5">
-        <v>0</v>
+        <v>255704.8</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -6642,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>400</v>
+        <v>486426.84</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6656,7 +6659,7 @@
         <v>84</v>
       </c>
       <c r="D213" s="5">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E213" s="5">
         <v>0</v>
@@ -6668,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="5">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6682,7 +6685,7 @@
         <v>85</v>
       </c>
       <c r="D214" s="5">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="E214" s="5">
         <v>0</v>
@@ -6694,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="5">
-        <v>210</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6708,7 +6711,7 @@
         <v>86</v>
       </c>
       <c r="D215" s="5">
-        <v>15525</v>
+        <v>210</v>
       </c>
       <c r="E215" s="5">
         <v>0</v>
@@ -6720,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="H215" s="5">
-        <v>15525</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,7 +6737,7 @@
         <v>87</v>
       </c>
       <c r="D216" s="5">
-        <v>200</v>
+        <v>15525</v>
       </c>
       <c r="E216" s="5">
         <v>0</v>
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="5">
-        <v>200</v>
+        <v>15525</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6760,7 +6763,7 @@
         <v>88</v>
       </c>
       <c r="D217" s="5">
-        <v>16650</v>
+        <v>200</v>
       </c>
       <c r="E217" s="5">
         <v>0</v>
@@ -6772,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="H217" s="5">
-        <v>16650</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6786,7 +6789,7 @@
         <v>89</v>
       </c>
       <c r="D218" s="5">
-        <v>900</v>
+        <v>16650</v>
       </c>
       <c r="E218" s="5">
         <v>0</v>
@@ -6798,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="H218" s="5">
-        <v>900</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,7 +6815,7 @@
         <v>90</v>
       </c>
       <c r="D219" s="5">
-        <v>14350</v>
+        <v>900</v>
       </c>
       <c r="E219" s="5">
         <v>0</v>
@@ -6824,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="H219" s="5">
-        <v>14350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6838,7 +6841,7 @@
         <v>91</v>
       </c>
       <c r="D220" s="5">
-        <v>7405</v>
+        <v>14350</v>
       </c>
       <c r="E220" s="5">
         <v>0</v>
@@ -6850,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="5">
-        <v>7405</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6864,7 +6867,7 @@
         <v>92</v>
       </c>
       <c r="D221" s="5">
-        <v>75</v>
+        <v>7405</v>
       </c>
       <c r="E221" s="5">
         <v>0</v>
@@ -6876,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="5">
-        <v>75</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6890,7 +6893,7 @@
         <v>93</v>
       </c>
       <c r="D222" s="5">
-        <v>26114.400000000001</v>
+        <v>75</v>
       </c>
       <c r="E222" s="5">
         <v>0</v>
@@ -6902,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="5">
-        <v>26114.400000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6916,7 +6919,7 @@
         <v>94</v>
       </c>
       <c r="D223" s="5">
-        <v>12503.8</v>
+        <v>26114.400000000001</v>
       </c>
       <c r="E223" s="5">
         <v>0</v>
@@ -6928,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="5">
-        <v>12503.8</v>
+        <v>26114.400000000001</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6942,7 +6945,7 @@
         <v>95</v>
       </c>
       <c r="D224" s="5">
-        <v>482.9</v>
+        <v>12627.6</v>
       </c>
       <c r="E224" s="5">
         <v>0</v>
@@ -6954,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="5">
-        <v>482.9</v>
+        <v>12627.6</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6968,7 +6971,7 @@
         <v>96</v>
       </c>
       <c r="D225" s="5">
-        <v>1253.2</v>
+        <v>482.9</v>
       </c>
       <c r="E225" s="5">
         <v>0</v>
@@ -6980,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="5">
-        <v>1253.2</v>
+        <v>482.9</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6994,7 +6997,7 @@
         <v>97</v>
       </c>
       <c r="D226" s="5">
-        <v>47.6</v>
+        <v>1253.2</v>
       </c>
       <c r="E226" s="5">
         <v>0</v>
@@ -7006,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="5">
-        <v>47.6</v>
+        <v>1253.2</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7020,7 +7023,7 @@
         <v>98</v>
       </c>
       <c r="D227" s="5">
-        <v>4149.6000000000004</v>
+        <v>47.6</v>
       </c>
       <c r="E227" s="5">
         <v>0</v>
@@ -7032,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="H227" s="5">
-        <v>4149.6000000000004</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7046,7 +7049,7 @@
         <v>99</v>
       </c>
       <c r="D228" s="5">
-        <v>3262.5</v>
+        <v>4149.6000000000004</v>
       </c>
       <c r="E228" s="5">
         <v>0</v>
@@ -7058,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="5">
-        <v>3262.5</v>
+        <v>4149.6000000000004</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7072,7 +7075,7 @@
         <v>100</v>
       </c>
       <c r="D229" s="5">
-        <v>2301</v>
+        <v>3262.5</v>
       </c>
       <c r="E229" s="5">
         <v>0</v>
@@ -7084,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="H229" s="5">
-        <v>2301</v>
+        <v>3262.5</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7098,7 +7101,7 @@
         <v>101</v>
       </c>
       <c r="D230" s="5">
-        <v>1092</v>
+        <v>2301</v>
       </c>
       <c r="E230" s="5">
         <v>0</v>
@@ -7110,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="5">
-        <v>1092</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7124,7 +7127,7 @@
         <v>102</v>
       </c>
       <c r="D231" s="5">
-        <v>732</v>
+        <v>1092</v>
       </c>
       <c r="E231" s="5">
         <v>0</v>
@@ -7136,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="H231" s="5">
-        <v>732</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7150,7 +7153,7 @@
         <v>103</v>
       </c>
       <c r="D232" s="5">
-        <v>688.5</v>
+        <v>732</v>
       </c>
       <c r="E232" s="5">
         <v>0</v>
@@ -7162,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="H232" s="5">
-        <v>688.5</v>
+        <v>732</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7176,7 +7179,7 @@
         <v>104</v>
       </c>
       <c r="D233" s="5">
-        <v>39440</v>
+        <v>688.5</v>
       </c>
       <c r="E233" s="5">
         <v>0</v>
@@ -7188,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="5">
-        <v>39440</v>
+        <v>688.5</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7202,7 +7205,7 @@
         <v>105</v>
       </c>
       <c r="D234" s="5">
-        <v>1320</v>
+        <v>39610</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -7214,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>1320</v>
+        <v>39610</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7228,7 +7231,7 @@
         <v>106</v>
       </c>
       <c r="D235" s="5">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="E235" s="5">
         <v>0</v>
@@ -7240,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="5">
-        <v>1400</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7254,7 +7257,7 @@
         <v>107</v>
       </c>
       <c r="D236" s="5">
-        <v>7150</v>
+        <v>1400</v>
       </c>
       <c r="E236" s="5">
         <v>0</v>
@@ -7266,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="H236" s="5">
-        <v>7150</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7280,7 +7283,7 @@
         <v>108</v>
       </c>
       <c r="D237" s="5">
-        <v>4770</v>
+        <v>7150</v>
       </c>
       <c r="E237" s="5">
         <v>0</v>
@@ -7292,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="H237" s="5">
-        <v>4770</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7306,7 +7309,7 @@
         <v>109</v>
       </c>
       <c r="D238" s="5">
-        <v>6105</v>
+        <v>4770</v>
       </c>
       <c r="E238" s="5">
         <v>0</v>
@@ -7318,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="H238" s="5">
-        <v>6105</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7326,25 +7329,25 @@
         <v>2024</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D239" s="5">
-        <v>14878282.49</v>
+        <v>6105</v>
       </c>
       <c r="E239" s="5">
-        <v>215482.65</v>
+        <v>0</v>
       </c>
       <c r="F239" s="5">
-        <v>75251.070000000007</v>
+        <v>0</v>
       </c>
       <c r="G239" s="5">
         <v>0</v>
       </c>
       <c r="H239" s="5">
-        <v>15169016.210000001</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7352,25 +7355,25 @@
         <v>2024</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>330</v>
+        <v>14879787.779999999</v>
       </c>
       <c r="E240" s="5">
-        <v>0</v>
+        <v>215489.86</v>
       </c>
       <c r="F240" s="5">
-        <v>0</v>
+        <v>75293.210000000006</v>
       </c>
       <c r="G240" s="5">
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>330</v>
+        <v>15170570.85</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7384,7 +7387,7 @@
         <v>111</v>
       </c>
       <c r="D241" s="5">
-        <v>233902.3</v>
+        <v>330</v>
       </c>
       <c r="E241" s="5">
         <v>0</v>
@@ -7396,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="5">
-        <v>233902.3</v>
+        <v>330</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7410,7 +7413,7 @@
         <v>112</v>
       </c>
       <c r="D242" s="5">
-        <v>5645205.0300000003</v>
+        <v>233902.3</v>
       </c>
       <c r="E242" s="5">
         <v>0</v>
@@ -7422,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="H242" s="5">
-        <v>5645205.0300000003</v>
+        <v>233902.3</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7436,7 +7439,7 @@
         <v>113</v>
       </c>
       <c r="D243" s="5">
-        <v>571.65</v>
+        <v>5645205.0300000003</v>
       </c>
       <c r="E243" s="5">
         <v>0</v>
@@ -7448,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="H243" s="5">
-        <v>571.65</v>
+        <v>5645205.0300000003</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7462,7 +7465,7 @@
         <v>114</v>
       </c>
       <c r="D244" s="5">
-        <v>1088</v>
+        <v>571.65</v>
       </c>
       <c r="E244" s="5">
         <v>0</v>
@@ -7474,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="5">
-        <v>1088</v>
+        <v>571.65</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7488,7 +7491,7 @@
         <v>115</v>
       </c>
       <c r="D245" s="5">
-        <v>98670.399999999994</v>
+        <v>1088</v>
       </c>
       <c r="E245" s="5">
         <v>0</v>
@@ -7500,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="5">
-        <v>98670.399999999994</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7514,7 +7517,7 @@
         <v>116</v>
       </c>
       <c r="D246" s="5">
-        <v>9045</v>
+        <v>98670.399999999994</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -7526,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="5">
-        <v>9045</v>
+        <v>98670.399999999994</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7540,7 +7543,7 @@
         <v>117</v>
       </c>
       <c r="D247" s="5">
-        <v>98064.8</v>
+        <v>9045</v>
       </c>
       <c r="E247" s="5">
         <v>0</v>
@@ -7552,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="5">
-        <v>98064.8</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7566,7 +7569,7 @@
         <v>118</v>
       </c>
       <c r="D248" s="5">
-        <v>37.6</v>
+        <v>98064.8</v>
       </c>
       <c r="E248" s="5">
         <v>0</v>
@@ -7578,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="5">
-        <v>37.6</v>
+        <v>98064.8</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7644,7 +7647,7 @@
         <v>121</v>
       </c>
       <c r="D251" s="5">
-        <v>100.5</v>
+        <v>37.6</v>
       </c>
       <c r="E251" s="5">
         <v>0</v>
@@ -7656,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="H251" s="5">
-        <v>100.5</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,7 +7673,7 @@
         <v>122</v>
       </c>
       <c r="D252" s="5">
-        <v>426.1</v>
+        <v>100.5</v>
       </c>
       <c r="E252" s="5">
         <v>0</v>
@@ -7682,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="5">
-        <v>426.1</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7696,7 +7699,7 @@
         <v>123</v>
       </c>
       <c r="D253" s="5">
-        <v>225.6</v>
+        <v>426.1</v>
       </c>
       <c r="E253" s="5">
         <v>0</v>
@@ -7708,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="5">
-        <v>225.6</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7722,7 +7725,7 @@
         <v>124</v>
       </c>
       <c r="D254" s="5">
-        <v>426.1</v>
+        <v>225.6</v>
       </c>
       <c r="E254" s="5">
         <v>0</v>
@@ -7734,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="H254" s="5">
-        <v>426.1</v>
+        <v>225.6</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7748,7 +7751,7 @@
         <v>125</v>
       </c>
       <c r="D255" s="5">
-        <v>9560.4</v>
+        <v>426.1</v>
       </c>
       <c r="E255" s="5">
         <v>0</v>
@@ -7760,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="5">
-        <v>9560.4</v>
+        <v>426.1</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7774,7 +7777,7 @@
         <v>126</v>
       </c>
       <c r="D256" s="5">
-        <v>179318.26</v>
+        <v>9560.4</v>
       </c>
       <c r="E256" s="5">
         <v>0</v>
@@ -7786,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="5">
-        <v>179318.26</v>
+        <v>9560.4</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7800,7 +7803,7 @@
         <v>127</v>
       </c>
       <c r="D257" s="5">
-        <v>126.6</v>
+        <v>179318.26</v>
       </c>
       <c r="E257" s="5">
         <v>0</v>
@@ -7812,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="5">
-        <v>126.6</v>
+        <v>179318.26</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7826,7 +7829,7 @@
         <v>128</v>
       </c>
       <c r="D258" s="5">
-        <v>100.5</v>
+        <v>126.6</v>
       </c>
       <c r="E258" s="5">
         <v>0</v>
@@ -7838,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="5">
-        <v>100.5</v>
+        <v>126.6</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7852,7 +7855,7 @@
         <v>129</v>
       </c>
       <c r="D259" s="5">
-        <v>11436.6</v>
+        <v>100.5</v>
       </c>
       <c r="E259" s="5">
         <v>0</v>
@@ -7864,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="5">
-        <v>11436.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7878,7 +7881,7 @@
         <v>130</v>
       </c>
       <c r="D260" s="5">
-        <v>150.4</v>
+        <v>11436.6</v>
       </c>
       <c r="E260" s="5">
         <v>0</v>
@@ -7890,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="5">
-        <v>150.4</v>
+        <v>11436.6</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7904,7 +7907,7 @@
         <v>131</v>
       </c>
       <c r="D261" s="5">
-        <v>37.6</v>
+        <v>150.4</v>
       </c>
       <c r="E261" s="5">
         <v>0</v>
@@ -7916,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="5">
-        <v>37.6</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7982,7 +7985,7 @@
         <v>134</v>
       </c>
       <c r="D264" s="5">
-        <v>2935.2</v>
+        <v>37.6</v>
       </c>
       <c r="E264" s="5">
         <v>0</v>
@@ -7994,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="5">
-        <v>2935.2</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8008,7 +8011,7 @@
         <v>135</v>
       </c>
       <c r="D265" s="5">
-        <v>1530</v>
+        <v>2935.2</v>
       </c>
       <c r="E265" s="5">
         <v>0</v>
@@ -8020,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="5">
-        <v>1530</v>
+        <v>2935.2</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8034,7 +8037,7 @@
         <v>136</v>
       </c>
       <c r="D266" s="5">
-        <v>140.1</v>
+        <v>1530</v>
       </c>
       <c r="E266" s="5">
         <v>0</v>
@@ -8046,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="H266" s="5">
-        <v>140.1</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8086,7 +8089,7 @@
         <v>138</v>
       </c>
       <c r="D268" s="5">
-        <v>4355.8999999999996</v>
+        <v>140.1</v>
       </c>
       <c r="E268" s="5">
         <v>0</v>
@@ -8098,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="5">
-        <v>4355.8999999999996</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8112,7 +8115,7 @@
         <v>139</v>
       </c>
       <c r="D269" s="5">
-        <v>221.6</v>
+        <v>4355.8999999999996</v>
       </c>
       <c r="E269" s="5">
         <v>0</v>
@@ -8124,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="5">
-        <v>221.6</v>
+        <v>4355.8999999999996</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8138,7 +8141,7 @@
         <v>140</v>
       </c>
       <c r="D270" s="5">
-        <v>140.1</v>
+        <v>221.6</v>
       </c>
       <c r="E270" s="5">
         <v>0</v>
@@ -8150,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="5">
-        <v>140.1</v>
+        <v>221.6</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8164,7 +8167,7 @@
         <v>141</v>
       </c>
       <c r="D271" s="5">
-        <v>136</v>
+        <v>140.1</v>
       </c>
       <c r="E271" s="5">
         <v>0</v>
@@ -8176,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="5">
-        <v>136</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8190,7 +8193,7 @@
         <v>142</v>
       </c>
       <c r="D272" s="5">
-        <v>9664.6</v>
+        <v>136</v>
       </c>
       <c r="E272" s="5">
         <v>0</v>
@@ -8202,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="H272" s="5">
-        <v>9664.6</v>
+        <v>136</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8216,7 +8219,7 @@
         <v>143</v>
       </c>
       <c r="D273" s="5">
-        <v>5605.2</v>
+        <v>9664.6</v>
       </c>
       <c r="E273" s="5">
         <v>0</v>
@@ -8228,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="H273" s="5">
-        <v>5605.2</v>
+        <v>9664.6</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8242,7 +8245,7 @@
         <v>144</v>
       </c>
       <c r="D274" s="5">
-        <v>227.9</v>
+        <v>5605.2</v>
       </c>
       <c r="E274" s="5">
         <v>0</v>
@@ -8254,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="5">
-        <v>227.9</v>
+        <v>5605.2</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8268,7 +8271,7 @@
         <v>145</v>
       </c>
       <c r="D275" s="5">
-        <v>1341</v>
+        <v>227.9</v>
       </c>
       <c r="E275" s="5">
         <v>0</v>
@@ -8280,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="5">
-        <v>1341</v>
+        <v>227.9</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8294,7 +8297,7 @@
         <v>146</v>
       </c>
       <c r="D276" s="5">
-        <v>3072.3</v>
+        <v>1341</v>
       </c>
       <c r="E276" s="5">
         <v>0</v>
@@ -8306,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="5">
-        <v>3072.3</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8320,7 +8323,7 @@
         <v>147</v>
       </c>
       <c r="D277" s="5">
-        <v>368.1</v>
+        <v>3072.3</v>
       </c>
       <c r="E277" s="5">
         <v>0</v>
@@ -8332,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="5">
-        <v>368.1</v>
+        <v>3072.3</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8346,7 +8349,7 @@
         <v>148</v>
       </c>
       <c r="D278" s="5">
-        <v>796.7</v>
+        <v>368.1</v>
       </c>
       <c r="E278" s="5">
         <v>0</v>
@@ -8358,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="5">
-        <v>796.7</v>
+        <v>368.1</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8372,7 +8375,7 @@
         <v>149</v>
       </c>
       <c r="D279" s="5">
-        <v>2390.1</v>
+        <v>796.7</v>
       </c>
       <c r="E279" s="5">
         <v>0</v>
@@ -8384,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="5">
-        <v>2390.1</v>
+        <v>796.7</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8398,7 +8401,7 @@
         <v>150</v>
       </c>
       <c r="D280" s="5">
-        <v>3983.5</v>
+        <v>2390.1</v>
       </c>
       <c r="E280" s="5">
         <v>0</v>
@@ -8410,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="5">
-        <v>3983.5</v>
+        <v>2390.1</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8424,7 +8427,7 @@
         <v>151</v>
       </c>
       <c r="D281" s="5">
-        <v>3717</v>
+        <v>3983.5</v>
       </c>
       <c r="E281" s="5">
         <v>0</v>
@@ -8436,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="5">
-        <v>3717</v>
+        <v>3983.5</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8450,7 +8453,7 @@
         <v>152</v>
       </c>
       <c r="D282" s="5">
-        <v>2247</v>
+        <v>3717</v>
       </c>
       <c r="E282" s="5">
         <v>0</v>
@@ -8462,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="5">
-        <v>2247</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8479,7 @@
         <v>153</v>
       </c>
       <c r="D283" s="5">
-        <v>110331</v>
+        <v>2247</v>
       </c>
       <c r="E283" s="5">
         <v>0</v>
@@ -8488,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="5">
-        <v>110331</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8502,7 +8505,7 @@
         <v>154</v>
       </c>
       <c r="D284" s="5">
-        <v>27972</v>
+        <v>110331</v>
       </c>
       <c r="E284" s="5">
         <v>0</v>
@@ -8514,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="5">
-        <v>27972</v>
+        <v>110331</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8528,7 +8531,7 @@
         <v>155</v>
       </c>
       <c r="D285" s="5">
-        <v>1874</v>
+        <v>27972</v>
       </c>
       <c r="E285" s="5">
         <v>0</v>
@@ -8540,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="5">
-        <v>1874</v>
+        <v>27972</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8554,7 +8557,7 @@
         <v>156</v>
       </c>
       <c r="D286" s="5">
-        <v>54.6</v>
+        <v>1874</v>
       </c>
       <c r="E286" s="5">
         <v>0</v>
@@ -8566,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="5">
-        <v>54.6</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8580,7 +8583,7 @@
         <v>157</v>
       </c>
       <c r="D287" s="5">
-        <v>1680</v>
+        <v>54.6</v>
       </c>
       <c r="E287" s="5">
         <v>0</v>
@@ -8592,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="5">
-        <v>1680</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8606,7 +8609,7 @@
         <v>158</v>
       </c>
       <c r="D288" s="5">
-        <v>2100</v>
+        <v>1680</v>
       </c>
       <c r="E288" s="5">
         <v>0</v>
@@ -8618,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="5">
-        <v>2100</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8632,7 +8635,7 @@
         <v>159</v>
       </c>
       <c r="D289" s="5">
-        <v>70</v>
+        <v>2100</v>
       </c>
       <c r="E289" s="5">
         <v>0</v>
@@ -8644,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="5">
-        <v>70</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8658,7 +8661,7 @@
         <v>160</v>
       </c>
       <c r="D290" s="5">
-        <v>4980</v>
+        <v>70</v>
       </c>
       <c r="E290" s="5">
         <v>0</v>
@@ -8670,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="5">
-        <v>4980</v>
+        <v>70</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8684,7 +8687,7 @@
         <v>161</v>
       </c>
       <c r="D291" s="5">
-        <v>3760</v>
+        <v>4980</v>
       </c>
       <c r="E291" s="5">
         <v>0</v>
@@ -8696,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="5">
-        <v>3760</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8710,7 +8713,7 @@
         <v>162</v>
       </c>
       <c r="D292" s="5">
-        <v>409.2</v>
+        <v>3760</v>
       </c>
       <c r="E292" s="5">
         <v>0</v>
@@ -8722,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="H292" s="5">
-        <v>409.2</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8736,7 +8739,7 @@
         <v>163</v>
       </c>
       <c r="D293" s="5">
-        <v>33.5</v>
+        <v>409.2</v>
       </c>
       <c r="E293" s="5">
         <v>0</v>
@@ -8748,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="H293" s="5">
-        <v>33.5</v>
+        <v>409.2</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8762,7 +8765,7 @@
         <v>164</v>
       </c>
       <c r="D294" s="5">
-        <v>167.5</v>
+        <v>33.5</v>
       </c>
       <c r="E294" s="5">
         <v>0</v>
@@ -8774,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="5">
-        <v>167.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8788,7 +8791,7 @@
         <v>165</v>
       </c>
       <c r="D295" s="5">
-        <v>23052.1</v>
+        <v>167.5</v>
       </c>
       <c r="E295" s="5">
         <v>0</v>
@@ -8800,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5">
-        <v>23052.1</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8814,7 +8817,7 @@
         <v>166</v>
       </c>
       <c r="D296" s="5">
-        <v>916.1</v>
+        <v>23052.1</v>
       </c>
       <c r="E296" s="5">
         <v>0</v>
@@ -8826,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5">
-        <v>916.1</v>
+        <v>23052.1</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8840,7 +8843,7 @@
         <v>167</v>
       </c>
       <c r="D297" s="5">
-        <v>4380</v>
+        <v>916.1</v>
       </c>
       <c r="E297" s="5">
         <v>0</v>
@@ -8852,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5">
-        <v>4380</v>
+        <v>916.1</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8866,7 +8869,7 @@
         <v>168</v>
       </c>
       <c r="D298" s="5">
-        <v>261</v>
+        <v>4380</v>
       </c>
       <c r="E298" s="5">
         <v>0</v>
@@ -8878,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="5">
-        <v>261</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8892,7 +8895,7 @@
         <v>169</v>
       </c>
       <c r="D299" s="5">
-        <v>744.5</v>
+        <v>261</v>
       </c>
       <c r="E299" s="5">
         <v>0</v>
@@ -8904,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="H299" s="5">
-        <v>744.5</v>
+        <v>261</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8918,7 +8921,7 @@
         <v>170</v>
       </c>
       <c r="D300" s="5">
-        <v>234.5</v>
+        <v>744.5</v>
       </c>
       <c r="E300" s="5">
         <v>0</v>
@@ -8930,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="H300" s="5">
-        <v>234.5</v>
+        <v>744.5</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,13 +8941,13 @@
         <v>2024</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="D301" s="5">
-        <v>2522547.0299999998</v>
+        <v>234.5</v>
       </c>
       <c r="E301" s="5">
         <v>0</v>
@@ -8953,10 +8956,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1189369.82</v>
+        <v>0</v>
       </c>
       <c r="H301" s="5">
-        <v>1333177.21</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8964,25 +8967,25 @@
         <v>2024</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D302" s="5">
-        <v>2032197.69</v>
+        <v>2524607.0299999998</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
       <c r="F302" s="5">
-        <v>11604.26</v>
+        <v>0</v>
       </c>
       <c r="G302" s="5">
-        <v>1803367.63</v>
+        <v>1190399.82</v>
       </c>
       <c r="H302" s="5">
-        <v>240434.32</v>
+        <v>1334207.21</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8990,25 +8993,25 @@
         <v>2024</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="D303" s="5">
-        <v>5073</v>
+        <v>2032197.69</v>
       </c>
       <c r="E303" s="5">
         <v>0</v>
       </c>
       <c r="F303" s="5">
-        <v>0</v>
+        <v>11604.26</v>
       </c>
       <c r="G303" s="5">
-        <v>0</v>
+        <v>1803367.63</v>
       </c>
       <c r="H303" s="5">
-        <v>5073</v>
+        <v>240434.32</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9022,7 +9025,7 @@
         <v>172</v>
       </c>
       <c r="D304" s="5">
-        <v>3135</v>
+        <v>5073</v>
       </c>
       <c r="E304" s="5">
         <v>0</v>
@@ -9034,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="H304" s="5">
-        <v>3135</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9048,7 +9051,7 @@
         <v>173</v>
       </c>
       <c r="D305" s="5">
-        <v>570.64</v>
+        <v>3135</v>
       </c>
       <c r="E305" s="5">
         <v>0</v>
@@ -9060,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="H305" s="5">
-        <v>570.64</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9074,7 +9077,7 @@
         <v>174</v>
       </c>
       <c r="D306" s="5">
-        <v>2828.87</v>
+        <v>570.64</v>
       </c>
       <c r="E306" s="5">
         <v>0</v>
@@ -9086,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="H306" s="5">
-        <v>2828.87</v>
+        <v>570.64</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9100,7 +9103,7 @@
         <v>175</v>
       </c>
       <c r="D307" s="5">
-        <v>6</v>
+        <v>2828.87</v>
       </c>
       <c r="E307" s="5">
         <v>0</v>
@@ -9112,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="H307" s="5">
-        <v>6</v>
+        <v>2828.87</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9126,7 +9129,7 @@
         <v>176</v>
       </c>
       <c r="D308" s="5">
-        <v>2191</v>
+        <v>6</v>
       </c>
       <c r="E308" s="5">
         <v>0</v>
@@ -9138,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="H308" s="5">
-        <v>2191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9152,7 +9155,7 @@
         <v>177</v>
       </c>
       <c r="D309" s="5">
-        <v>1510</v>
+        <v>2191</v>
       </c>
       <c r="E309" s="5">
         <v>0</v>
@@ -9164,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="H309" s="5">
-        <v>1510</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9178,7 +9181,7 @@
         <v>178</v>
       </c>
       <c r="D310" s="5">
-        <v>220</v>
+        <v>1510</v>
       </c>
       <c r="E310" s="5">
         <v>0</v>
@@ -9190,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="H310" s="5">
-        <v>220</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9204,7 +9207,7 @@
         <v>179</v>
       </c>
       <c r="D311" s="5">
-        <v>1560</v>
+        <v>220</v>
       </c>
       <c r="E311" s="5">
         <v>0</v>
@@ -9216,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="H311" s="5">
-        <v>1560</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9230,7 +9233,7 @@
         <v>180</v>
       </c>
       <c r="D312" s="5">
-        <v>7882</v>
+        <v>1560</v>
       </c>
       <c r="E312" s="5">
         <v>0</v>
@@ -9242,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="H312" s="5">
-        <v>7882</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9256,7 +9259,7 @@
         <v>181</v>
       </c>
       <c r="D313" s="5">
-        <v>3645</v>
+        <v>7882</v>
       </c>
       <c r="E313" s="5">
         <v>0</v>
@@ -9268,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="H313" s="5">
-        <v>3645</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9282,7 +9285,7 @@
         <v>182</v>
       </c>
       <c r="D314" s="5">
-        <v>13090</v>
+        <v>3645</v>
       </c>
       <c r="E314" s="5">
         <v>0</v>
@@ -9294,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="H314" s="5">
-        <v>13090</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9308,7 +9311,7 @@
         <v>183</v>
       </c>
       <c r="D315" s="5">
-        <v>90</v>
+        <v>13090</v>
       </c>
       <c r="E315" s="5">
         <v>0</v>
@@ -9320,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="H315" s="5">
-        <v>90</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9334,7 +9337,7 @@
         <v>184</v>
       </c>
       <c r="D316" s="5">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -9346,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="H316" s="5">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9360,7 +9363,7 @@
         <v>185</v>
       </c>
       <c r="D317" s="5">
-        <v>15602.79</v>
+        <v>33</v>
       </c>
       <c r="E317" s="5">
         <v>0</v>
@@ -9372,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="H317" s="5">
-        <v>15602.79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9386,7 +9389,7 @@
         <v>186</v>
       </c>
       <c r="D318" s="5">
-        <v>268.39999999999998</v>
+        <v>15602.79</v>
       </c>
       <c r="E318" s="5">
         <v>0</v>
@@ -9398,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="H318" s="5">
-        <v>268.39999999999998</v>
+        <v>15602.79</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9412,7 +9415,7 @@
         <v>187</v>
       </c>
       <c r="D319" s="5">
-        <v>1908</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="E319" s="5">
         <v>0</v>
@@ -9424,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="H319" s="5">
-        <v>1908</v>
+        <v>268.39999999999998</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9438,7 +9441,7 @@
         <v>188</v>
       </c>
       <c r="D320" s="5">
-        <v>533.70000000000005</v>
+        <v>1908</v>
       </c>
       <c r="E320" s="5">
         <v>0</v>
@@ -9450,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="H320" s="5">
-        <v>533.70000000000005</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9467,7 @@
         <v>189</v>
       </c>
       <c r="D321" s="5">
-        <v>856.8</v>
+        <v>533.70000000000005</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -9476,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>856.8</v>
+        <v>533.70000000000005</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9493,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>8158.5</v>
+        <v>856.8</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9502,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>8158.5</v>
+        <v>856.8</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9516,7 +9519,7 @@
         <v>191</v>
       </c>
       <c r="D323" s="5">
-        <v>327.3</v>
+        <v>8158.5</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -9528,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="H323" s="5">
-        <v>327.3</v>
+        <v>8158.5</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9542,7 +9545,7 @@
         <v>192</v>
       </c>
       <c r="D324" s="5">
-        <v>1447.2</v>
+        <v>327.3</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -9554,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="H324" s="5">
-        <v>1447.2</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9568,7 +9571,7 @@
         <v>193</v>
       </c>
       <c r="D325" s="5">
-        <v>9751.5</v>
+        <v>1447.2</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -9580,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="H325" s="5">
-        <v>9751.5</v>
+        <v>1447.2</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9594,7 +9597,7 @@
         <v>194</v>
       </c>
       <c r="D326" s="5">
-        <v>1080</v>
+        <v>9751.5</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -9606,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="5">
-        <v>1080</v>
+        <v>9751.5</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9620,7 +9623,7 @@
         <v>195</v>
       </c>
       <c r="D327" s="5">
-        <v>1190</v>
+        <v>1080</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -9632,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="H327" s="5">
-        <v>1190</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9646,7 +9649,7 @@
         <v>196</v>
       </c>
       <c r="D328" s="5">
-        <v>52</v>
+        <v>1190</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -9658,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="H328" s="5">
-        <v>52</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9672,7 +9675,7 @@
         <v>197</v>
       </c>
       <c r="D329" s="5">
-        <v>4320</v>
+        <v>52</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -9684,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="H329" s="5">
-        <v>4320</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9698,7 +9701,7 @@
         <v>198</v>
       </c>
       <c r="D330" s="5">
-        <v>2310</v>
+        <v>4356</v>
       </c>
       <c r="E330" s="5">
         <v>0</v>
@@ -9710,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="H330" s="5">
-        <v>2310</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9724,7 +9727,7 @@
         <v>199</v>
       </c>
       <c r="D331" s="5">
-        <v>63104</v>
+        <v>2310</v>
       </c>
       <c r="E331" s="5">
         <v>0</v>
@@ -9736,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="5">
-        <v>63104</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9750,7 +9753,7 @@
         <v>200</v>
       </c>
       <c r="D332" s="5">
-        <v>6</v>
+        <v>63376</v>
       </c>
       <c r="E332" s="5">
         <v>0</v>
@@ -9762,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H332" s="5">
-        <v>6</v>
+        <v>63376</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9776,7 +9779,7 @@
         <v>201</v>
       </c>
       <c r="D333" s="5">
-        <v>16.8</v>
+        <v>6</v>
       </c>
       <c r="E333" s="5">
         <v>0</v>
@@ -9788,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="H333" s="5">
-        <v>16.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9802,7 +9805,7 @@
         <v>202</v>
       </c>
       <c r="D334" s="5">
-        <v>1</v>
+        <v>16.8</v>
       </c>
       <c r="E334" s="5">
         <v>0</v>
@@ -9814,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="H334" s="5">
-        <v>1</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9828,7 +9831,7 @@
         <v>203</v>
       </c>
       <c r="D335" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E335" s="5">
         <v>0</v>
@@ -9840,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="H335" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9854,7 +9857,7 @@
         <v>204</v>
       </c>
       <c r="D336" s="5">
-        <v>19008</v>
+        <v>2</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -9866,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="H336" s="5">
-        <v>19008</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9880,7 +9883,7 @@
         <v>205</v>
       </c>
       <c r="D337" s="5">
-        <v>140</v>
+        <v>19008</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -9892,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="H337" s="5">
-        <v>140</v>
+        <v>19008</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9906,7 +9909,7 @@
         <v>206</v>
       </c>
       <c r="D338" s="5">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="E338" s="5">
         <v>0</v>
@@ -9918,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="H338" s="5">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9932,7 +9935,7 @@
         <v>207</v>
       </c>
       <c r="D339" s="5">
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="E339" s="5">
         <v>0</v>
@@ -9944,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="H339" s="5">
-        <v>750</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9958,7 +9961,7 @@
         <v>208</v>
       </c>
       <c r="D340" s="5">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -9970,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="H340" s="5">
-        <v>450</v>
+        <v>750</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9984,7 +9987,7 @@
         <v>209</v>
       </c>
       <c r="D341" s="5">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="E341" s="5">
         <v>0</v>
@@ -9996,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="H341" s="5">
-        <v>225</v>
+        <v>450</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10010,7 +10013,7 @@
         <v>210</v>
       </c>
       <c r="D342" s="5">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="E342" s="5">
         <v>0</v>
@@ -10022,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="H342" s="5">
-        <v>140</v>
+        <v>225</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10036,7 +10039,7 @@
         <v>211</v>
       </c>
       <c r="D343" s="5">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="E343" s="5">
         <v>0</v>
@@ -10048,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="H343" s="5">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10062,7 +10065,7 @@
         <v>212</v>
       </c>
       <c r="D344" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E344" s="5">
         <v>0</v>
@@ -10074,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="H344" s="5">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10088,7 +10091,7 @@
         <v>213</v>
       </c>
       <c r="D345" s="5">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="E345" s="5">
         <v>0</v>
@@ -10100,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="H345" s="5">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10114,7 +10117,7 @@
         <v>214</v>
       </c>
       <c r="D346" s="5">
-        <v>525</v>
+        <v>160</v>
       </c>
       <c r="E346" s="5">
         <v>0</v>
@@ -10126,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H346" s="5">
-        <v>525</v>
+        <v>160</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10140,7 +10143,7 @@
         <v>215</v>
       </c>
       <c r="D347" s="5">
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="E347" s="5">
         <v>0</v>
@@ -10152,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="H347" s="5">
-        <v>300</v>
+        <v>525</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10166,7 +10169,7 @@
         <v>216</v>
       </c>
       <c r="D348" s="5">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="E348" s="5">
         <v>0</v>
@@ -10178,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="H348" s="5">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10192,7 +10195,7 @@
         <v>217</v>
       </c>
       <c r="D349" s="5">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="E349" s="5">
         <v>0</v>
@@ -10204,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="H349" s="5">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10244,7 +10247,7 @@
         <v>219</v>
       </c>
       <c r="D351" s="5">
-        <v>1075.2</v>
+        <v>75</v>
       </c>
       <c r="E351" s="5">
         <v>0</v>
@@ -10256,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="H351" s="5">
-        <v>1075.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10270,7 +10273,7 @@
         <v>220</v>
       </c>
       <c r="D352" s="5">
-        <v>5255</v>
+        <v>1075.2</v>
       </c>
       <c r="E352" s="5">
         <v>0</v>
@@ -10282,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="H352" s="5">
-        <v>5255</v>
+        <v>1075.2</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10296,18 +10299,44 @@
         <v>221</v>
       </c>
       <c r="D353" s="5">
+        <v>5255</v>
+      </c>
+      <c r="E353" s="5">
+        <v>0</v>
+      </c>
+      <c r="F353" s="5">
+        <v>0</v>
+      </c>
+      <c r="G353" s="5">
+        <v>0</v>
+      </c>
+      <c r="H353" s="5">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D354" s="5">
         <v>75</v>
       </c>
-      <c r="E353" s="5">
-        <v>0</v>
-      </c>
-      <c r="F353" s="5">
-        <v>0</v>
-      </c>
-      <c r="G353" s="5">
-        <v>0</v>
-      </c>
-      <c r="H353" s="5">
+      <c r="E354" s="5">
+        <v>0</v>
+      </c>
+      <c r="F354" s="5">
+        <v>0</v>
+      </c>
+      <c r="G354" s="5">
+        <v>0</v>
+      </c>
+      <c r="H354" s="5">
         <v>75</v>
       </c>
     </row>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="C335" sqref="C335"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3981,19 +3981,19 @@
         <v>9</v>
       </c>
       <c r="D110" s="5">
-        <v>50544.58</v>
+        <v>50611.54</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <v>22732.880000000001</v>
+        <v>22765.73</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>73277.460000000006</v>
+        <v>73377.27</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4085,19 +4085,19 @@
         <v>7</v>
       </c>
       <c r="D114" s="5">
-        <v>114128.76</v>
+        <v>114282.59</v>
       </c>
       <c r="E114" s="5">
         <v>2736.24</v>
       </c>
       <c r="F114" s="5">
-        <v>51627.18</v>
+        <v>51702.52</v>
       </c>
       <c r="G114" s="5">
         <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>168492.18</v>
+        <v>168721.35</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4189,19 +4189,19 @@
         <v>9</v>
       </c>
       <c r="D118" s="5">
-        <v>90109.25</v>
+        <v>90177.05</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <v>29221.81</v>
+        <v>29247.1</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>119331.06</v>
+        <v>119424.15</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4293,19 +4293,19 @@
         <v>7</v>
       </c>
       <c r="D122" s="5">
-        <v>188109.18</v>
+        <v>188266.05</v>
       </c>
       <c r="E122" s="5">
         <v>4365.2</v>
       </c>
       <c r="F122" s="5">
-        <v>78093.36</v>
+        <v>78162.960000000006</v>
       </c>
       <c r="G122" s="5">
         <v>0</v>
       </c>
       <c r="H122" s="5">
-        <v>270567.74</v>
+        <v>270794.21000000002</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4397,19 +4397,19 @@
         <v>9</v>
       </c>
       <c r="D126" s="5">
-        <v>174122.12</v>
+        <v>174191.24</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <v>36507.14</v>
+        <v>36525.33</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>210629.26</v>
+        <v>210716.57</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4501,19 +4501,19 @@
         <v>7</v>
       </c>
       <c r="D130" s="5">
-        <v>415787.84</v>
+        <v>415957.99</v>
       </c>
       <c r="E130" s="5">
         <v>8163.92</v>
       </c>
       <c r="F130" s="5">
-        <v>118253.16</v>
+        <v>118308.29</v>
       </c>
       <c r="G130" s="5">
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>542204.92000000004</v>
+        <v>542430.19999999995</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4579,19 +4579,19 @@
         <v>12</v>
       </c>
       <c r="D133" s="5">
-        <v>285965.90000000002</v>
+        <v>285986.67</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
       <c r="F133" s="5">
-        <v>25677.23</v>
+        <v>25679.4</v>
       </c>
       <c r="G133" s="5">
         <v>0.04</v>
       </c>
       <c r="H133" s="5">
-        <v>311643.09000000003</v>
+        <v>311666.03000000003</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4605,19 +4605,19 @@
         <v>9</v>
       </c>
       <c r="D134" s="5">
-        <v>632026.04</v>
+        <v>632124.05000000005</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
       <c r="F134" s="5">
-        <v>60116.41</v>
+        <v>60130.16</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>692142.45</v>
+        <v>692254.21</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4631,19 +4631,19 @@
         <v>10</v>
       </c>
       <c r="D135" s="5">
-        <v>688722.5</v>
+        <v>688744.44</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
       <c r="F135" s="5">
-        <v>61069.02</v>
+        <v>61071.32</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>749791.52</v>
+        <v>749815.76</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4683,10 +4683,10 @@
         <v>13</v>
       </c>
       <c r="D137" s="5">
-        <v>128103.91</v>
+        <v>128155.91</v>
       </c>
       <c r="E137" s="5">
-        <v>183959.22</v>
+        <v>184039.22</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>312063.13</v>
+        <v>312195.13</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4709,19 +4709,19 @@
         <v>7</v>
       </c>
       <c r="D138" s="5">
-        <v>1458392.45</v>
+        <v>1458578.41</v>
       </c>
       <c r="E138" s="5">
         <v>21309.4</v>
       </c>
       <c r="F138" s="5">
-        <v>137542.60999999999</v>
+        <v>137571.76999999999</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>1617244.46</v>
+        <v>1617459.58</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>470445</v>
+        <v>470605</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>470445</v>
+        <v>470605</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,19 +5177,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2429710.9</v>
+        <v>2430126.09</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14404.16</v>
+        <v>14414.53</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2370775.65</v>
+        <v>2371201.21</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,19 +5203,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4346499.9400000004</v>
+        <v>4347262.26</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27110.48</v>
+        <v>27137.64</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4249338.26</v>
+        <v>4250127.74</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5229,19 +5229,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4575902.3099999996</v>
+        <v>4576828.1500000004</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31067.77</v>
+        <v>31096.240000000002</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4416349.3499999996</v>
+        <v>4417303.66</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5255,19 +5255,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9230318.8100000005</v>
+        <v>9232369.1600000001</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64653.94</v>
+        <v>64722.87</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8971167.0500000007</v>
+        <v>8973286.3300000001</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6477,7 +6477,7 @@
         <v>78</v>
       </c>
       <c r="D206" s="5">
-        <v>41353.1</v>
+        <v>41369.4</v>
       </c>
       <c r="E206" s="5">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="5">
-        <v>41353.1</v>
+        <v>41369.4</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6633,10 +6633,10 @@
         <v>13</v>
       </c>
       <c r="D212" s="5">
-        <v>230722.04</v>
+        <v>230913.04</v>
       </c>
       <c r="E212" s="5">
-        <v>255704.8</v>
+        <v>255894.8</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>486426.84</v>
+        <v>486807.84</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7205,7 +7205,7 @@
         <v>105</v>
       </c>
       <c r="D234" s="5">
-        <v>39610</v>
+        <v>39695</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>39610</v>
+        <v>39695</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7361,19 +7361,19 @@
         <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>14879787.779999999</v>
+        <v>14883104.890000001</v>
       </c>
       <c r="E240" s="5">
-        <v>215489.86</v>
+        <v>215503.13</v>
       </c>
       <c r="F240" s="5">
-        <v>75293.210000000006</v>
+        <v>75343.67</v>
       </c>
       <c r="G240" s="5">
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>15170570.85</v>
+        <v>15173951.689999999</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7517,7 +7517,7 @@
         <v>116</v>
       </c>
       <c r="D246" s="5">
-        <v>98670.399999999994</v>
+        <v>98936</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="5">
-        <v>98670.399999999994</v>
+        <v>98936</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8973,7 +8973,7 @@
         <v>15</v>
       </c>
       <c r="D302" s="5">
-        <v>2524607.0299999998</v>
+        <v>2525637.0299999998</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5">
-        <v>1190399.82</v>
+        <v>1190914.82</v>
       </c>
       <c r="H302" s="5">
-        <v>1334207.21</v>
+        <v>1334722.21</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
         <v>190</v>
       </c>
       <c r="D322" s="5">
-        <v>856.8</v>
+        <v>857.5</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="5">
-        <v>856.8</v>
+        <v>857.5</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9519,7 +9519,7 @@
         <v>191</v>
       </c>
       <c r="D323" s="5">
-        <v>8158.5</v>
+        <v>8163.4</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="H323" s="5">
-        <v>8158.5</v>
+        <v>8163.4</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
         <v>199</v>
       </c>
       <c r="D331" s="5">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="E331" s="5">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="5">
-        <v>2310</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9753,7 +9753,7 @@
         <v>200</v>
       </c>
       <c r="D332" s="5">
-        <v>63376</v>
+        <v>63512</v>
       </c>
       <c r="E332" s="5">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H332" s="5">
-        <v>63376</v>
+        <v>63512</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9883,7 +9883,7 @@
         <v>205</v>
       </c>
       <c r="D337" s="5">
-        <v>19008</v>
+        <v>19087.2</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="H337" s="5">
-        <v>19008</v>
+        <v>19087.2</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:H354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A354"/>
+      <selection activeCell="E329" sqref="E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4969,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>470605</v>
+        <v>470685</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>470605</v>
+        <v>470685</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,19 +5177,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2430126.09</v>
+        <v>2430590.56</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14414.53</v>
+        <v>14426.15</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2371201.21</v>
+        <v>2371677.2999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,19 +5203,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4347262.26</v>
+        <v>4348271.1900000004</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27137.64</v>
+        <v>27160.25</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4250127.74</v>
+        <v>4251159.28</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5229,19 +5229,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4576828.1500000004</v>
+        <v>4578186.57</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31096.240000000002</v>
+        <v>31128.84</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4417303.66</v>
+        <v>4418694.68</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5255,19 +5255,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9232369.1600000001</v>
+        <v>9235563.1899999995</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64722.87</v>
+        <v>64805.69</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8973286.3300000001</v>
+        <v>8976563.1799999997</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6633,10 +6633,10 @@
         <v>13</v>
       </c>
       <c r="D212" s="5">
-        <v>230913.04</v>
+        <v>231204.04</v>
       </c>
       <c r="E212" s="5">
-        <v>255894.8</v>
+        <v>256134.8</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>486807.84</v>
+        <v>487338.84</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7205,7 +7205,7 @@
         <v>105</v>
       </c>
       <c r="D234" s="5">
-        <v>39695</v>
+        <v>39780</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>39695</v>
+        <v>39780</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7361,19 +7361,19 @@
         <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>14883104.890000001</v>
+        <v>14886995.65</v>
       </c>
       <c r="E240" s="5">
-        <v>215503.13</v>
+        <v>215515.25</v>
       </c>
       <c r="F240" s="5">
-        <v>75343.67</v>
+        <v>75405.91</v>
       </c>
       <c r="G240" s="5">
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>15173951.689999999</v>
+        <v>15177916.810000001</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7517,7 +7517,7 @@
         <v>116</v>
       </c>
       <c r="D246" s="5">
-        <v>98936</v>
+        <v>99068.800000000003</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="5">
-        <v>98936</v>
+        <v>99068.800000000003</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7569,7 +7569,7 @@
         <v>118</v>
       </c>
       <c r="D248" s="5">
-        <v>98064.8</v>
+        <v>98727.4</v>
       </c>
       <c r="E248" s="5">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="5">
-        <v>98064.8</v>
+        <v>98727.4</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8427,7 +8427,7 @@
         <v>151</v>
       </c>
       <c r="D281" s="5">
-        <v>3983.5</v>
+        <v>4780.2</v>
       </c>
       <c r="E281" s="5">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="5">
-        <v>3983.5</v>
+        <v>4780.2</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8973,7 +8973,7 @@
         <v>15</v>
       </c>
       <c r="D302" s="5">
-        <v>2525637.0299999998</v>
+        <v>2526667.0299999998</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5">
-        <v>1190914.82</v>
+        <v>1191429.82</v>
       </c>
       <c r="H302" s="5">
-        <v>1334722.21</v>
+        <v>1335237.21</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
         <v>199</v>
       </c>
       <c r="D331" s="5">
-        <v>2320</v>
+        <v>2330</v>
       </c>
       <c r="E331" s="5">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="5">
-        <v>2320</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9753,7 +9753,7 @@
         <v>200</v>
       </c>
       <c r="D332" s="5">
-        <v>63512</v>
+        <v>63648</v>
       </c>
       <c r="E332" s="5">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H332" s="5">
-        <v>63512</v>
+        <v>63648</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1120,9 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="E329" sqref="E329"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4969,7 +4967,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>470685</v>
+        <v>470725</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4981,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>470685</v>
+        <v>470725</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,19 +5175,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2430590.56</v>
+        <v>2430787.2599999998</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14426.15</v>
+        <v>14430.19</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2371677.2999999998</v>
+        <v>2371878.04</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,19 +5201,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4348271.1900000004</v>
+        <v>4348561.7</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27160.25</v>
+        <v>27166.28</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4251159.28</v>
+        <v>4251455.82</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5229,19 +5227,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4578186.57</v>
+        <v>4578588.05</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31128.84</v>
+        <v>31137.66</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4418694.68</v>
+        <v>4419104.9800000004</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5255,19 +5253,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9235563.1899999995</v>
+        <v>9236224.4199999999</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64805.69</v>
+        <v>64818.34</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8976563.1799999997</v>
+        <v>8977237.0600000005</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5567,7 +5565,7 @@
         <v>43</v>
       </c>
       <c r="D171" s="5">
-        <v>25358</v>
+        <v>25420</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -5579,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="5">
-        <v>25358</v>
+        <v>25420</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6477,7 +6475,7 @@
         <v>78</v>
       </c>
       <c r="D206" s="5">
-        <v>41369.4</v>
+        <v>41402</v>
       </c>
       <c r="E206" s="5">
         <v>0</v>
@@ -6489,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="5">
-        <v>41369.4</v>
+        <v>41402</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6633,10 +6631,10 @@
         <v>13</v>
       </c>
       <c r="D212" s="5">
-        <v>231204.04</v>
+        <v>231401.54</v>
       </c>
       <c r="E212" s="5">
-        <v>256134.8</v>
+        <v>256334.8</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -6645,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="5">
-        <v>487338.84</v>
+        <v>487736.34</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7205,7 +7203,7 @@
         <v>105</v>
       </c>
       <c r="D234" s="5">
-        <v>39780</v>
+        <v>39865</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -7217,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>39780</v>
+        <v>39865</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7361,19 +7359,19 @@
         <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>14886995.65</v>
+        <v>14890565.35</v>
       </c>
       <c r="E240" s="5">
-        <v>215515.25</v>
+        <v>215522.46</v>
       </c>
       <c r="F240" s="5">
-        <v>75405.91</v>
+        <v>75480.55</v>
       </c>
       <c r="G240" s="5">
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>15177916.810000001</v>
+        <v>15181568.359999999</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8505,7 +8503,7 @@
         <v>154</v>
       </c>
       <c r="D284" s="5">
-        <v>110331</v>
+        <v>110515.5</v>
       </c>
       <c r="E284" s="5">
         <v>0</v>
@@ -8517,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="5">
-        <v>110331</v>
+        <v>110515.5</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8973,7 +8971,7 @@
         <v>15</v>
       </c>
       <c r="D302" s="5">
-        <v>2526667.0299999998</v>
+        <v>2528727.0299999998</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8982,10 +8980,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5">
-        <v>1191429.82</v>
+        <v>1192459.82</v>
       </c>
       <c r="H302" s="5">
-        <v>1335237.21</v>
+        <v>1336267.21</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8999,7 +8997,7 @@
         <v>16</v>
       </c>
       <c r="D303" s="5">
-        <v>2032197.69</v>
+        <v>2032970.19</v>
       </c>
       <c r="E303" s="5">
         <v>0</v>
@@ -9008,10 +9006,10 @@
         <v>11604.26</v>
       </c>
       <c r="G303" s="5">
-        <v>1803367.63</v>
+        <v>1804062.88</v>
       </c>
       <c r="H303" s="5">
-        <v>240434.32</v>
+        <v>240511.57</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9701,7 +9699,7 @@
         <v>198</v>
       </c>
       <c r="D330" s="5">
-        <v>4356</v>
+        <v>4374</v>
       </c>
       <c r="E330" s="5">
         <v>0</v>
@@ -9713,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H330" s="5">
-        <v>4356</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9753,7 +9751,7 @@
         <v>200</v>
       </c>
       <c r="D332" s="5">
-        <v>63648</v>
+        <v>63784</v>
       </c>
       <c r="E332" s="5">
         <v>0</v>
@@ -9765,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="H332" s="5">
-        <v>63648</v>
+        <v>63784</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9883,7 +9881,7 @@
         <v>205</v>
       </c>
       <c r="D337" s="5">
-        <v>19087.2</v>
+        <v>19126.8</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -9895,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="H337" s="5">
-        <v>19087.2</v>
+        <v>19126.8</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1120,7 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4967,7 +4969,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>470725</v>
+        <v>471405</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -4979,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>470725</v>
+        <v>471405</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5175,19 +5177,19 @@
         <v>12</v>
       </c>
       <c r="D156" s="5">
-        <v>2430787.2599999998</v>
+        <v>2430791.4500000002</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>14430.19</v>
+        <v>14430.2</v>
       </c>
       <c r="G156" s="5">
         <v>73339.41</v>
       </c>
       <c r="H156" s="5">
-        <v>2371878.04</v>
+        <v>2371882.2400000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5201,19 +5203,19 @@
         <v>9</v>
       </c>
       <c r="D157" s="5">
-        <v>4348561.7</v>
+        <v>4348575.21</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
       <c r="F157" s="5">
-        <v>27166.28</v>
+        <v>27166.33</v>
       </c>
       <c r="G157" s="5">
         <v>124272.16</v>
       </c>
       <c r="H157" s="5">
-        <v>4251455.82</v>
+        <v>4251469.38</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5227,19 +5229,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="5">
-        <v>4578588.05</v>
+        <v>4578615.1500000004</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <v>31137.66</v>
+        <v>31137.759999999998</v>
       </c>
       <c r="G158" s="5">
         <v>190620.73</v>
       </c>
       <c r="H158" s="5">
-        <v>4419104.9800000004</v>
+        <v>4419132.18</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5253,19 +5255,19 @@
         <v>11</v>
       </c>
       <c r="D159" s="5">
-        <v>9236224.4199999999</v>
+        <v>9236277.6799999997</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
       <c r="F159" s="5">
-        <v>64818.34</v>
+        <v>64818.53</v>
       </c>
       <c r="G159" s="5">
         <v>323805.7</v>
       </c>
       <c r="H159" s="5">
-        <v>8977237.0600000005</v>
+        <v>8977290.5099999998</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7203,7 +7205,7 @@
         <v>105</v>
       </c>
       <c r="D234" s="5">
-        <v>39865</v>
+        <v>40375</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -7215,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="5">
-        <v>39865</v>
+        <v>40375</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7359,19 +7361,19 @@
         <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>14890565.35</v>
+        <v>14890841.289999999</v>
       </c>
       <c r="E240" s="5">
         <v>215522.46</v>
       </c>
       <c r="F240" s="5">
-        <v>75480.55</v>
+        <v>75481.539999999994</v>
       </c>
       <c r="G240" s="5">
         <v>0</v>
       </c>
       <c r="H240" s="5">
-        <v>15181568.359999999</v>
+        <v>15181845.289999999</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7801,7 +7803,7 @@
         <v>127</v>
       </c>
       <c r="D257" s="5">
-        <v>179318.26</v>
+        <v>181697.56</v>
       </c>
       <c r="E257" s="5">
         <v>0</v>
@@ -7813,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="5">
-        <v>179318.26</v>
+        <v>181697.56</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8971,7 +8973,7 @@
         <v>15</v>
       </c>
       <c r="D302" s="5">
-        <v>2528727.0299999998</v>
+        <v>2534907.0299999998</v>
       </c>
       <c r="E302" s="5">
         <v>0</v>
@@ -8980,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5">
-        <v>1192459.82</v>
+        <v>1195549.82</v>
       </c>
       <c r="H302" s="5">
-        <v>1336267.21</v>
+        <v>1339357.21</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9699,7 +9701,7 @@
         <v>198</v>
       </c>
       <c r="D330" s="5">
-        <v>4374</v>
+        <v>4464</v>
       </c>
       <c r="E330" s="5">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="H330" s="5">
-        <v>4374</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9725,7 +9727,7 @@
         <v>199</v>
       </c>
       <c r="D331" s="5">
-        <v>2330</v>
+        <v>2340</v>
       </c>
       <c r="E331" s="5">
         <v>0</v>
@@ -9737,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H331" s="5">
-        <v>2330</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9751,7 +9753,7 @@
         <v>200</v>
       </c>
       <c r="D332" s="5">
-        <v>63784</v>
+        <v>64600</v>
       </c>
       <c r="E332" s="5">
         <v>0</v>
@@ -9763,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H332" s="5">
-        <v>63784</v>
+        <v>64600</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>14890841.289999999</v>
+        <v>14890888.289999999</v>
       </c>
       <c r="E240" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:H354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+      <selection activeCell="M248" sqref="M248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="D240" s="5">
-        <v>14890888.289999999</v>
+        <v>14891209.01</v>
       </c>
       <c r="E240" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14892614.789999999</v>
+        <v>14893034.77</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14893034.77</v>
+        <v>14894217.85</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14894217.85</v>
+        <v>14896508.709999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14896508.709999999</v>
+        <v>14897412.439999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14897412.439999999</v>
+        <v>14900299.579999998</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14900299.579999998</v>
+        <v>14908983.949999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14908983.949999999</v>
+        <v>14913066.279999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14913066.279999999</v>
+        <v>14915079.68</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14915079.68</v>
+        <v>14915934.379999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14915934.379999999</v>
+        <v>14917129.129999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14917129.129999999</v>
+        <v>14920162.399999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14920162.399999999</v>
+        <v>14923609.689999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14923609.689999999</v>
+        <v>14925044.119999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14925044.119999999</v>
+        <v>14928111.689999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14928111.689999999</v>
+        <v>14932475.98</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14932475.98</v>
+        <v>14935906.289999999</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14935906.289999999</v>
+        <v>14938959.42</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14938959.42</v>
+        <v>14943864.42</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14943864.42</v>
+        <v>14951928.77</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14951928.77</v>
+        <v>14954106.77</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14954106.77</v>
+        <v>14955988.16</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14955988.16</v>
+        <v>14988774.489999998</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14988774.489999998</v>
+        <v>14991098.4</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14991098.4</v>
+        <v>14992884.17</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14992884.17</v>
+        <v>14996936.18</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>14996936.18</v>
+        <v>15000242.76</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15000242.76</v>
+        <v>15003317.770000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15003317.770000001</v>
+        <v>15004780.51</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15004780.51</v>
+        <v>15007806.300000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15007806.300000001</v>
+        <v>15011776.58</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15011776.58</v>
+        <v>15013584.620000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15013584.620000001</v>
+        <v>15015416.24</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15015416.24</v>
+        <v>15017858.960000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15017858.960000001</v>
+        <v>15019120.65</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15019120.65</v>
+        <v>15022306.870000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15022306.870000001</v>
+        <v>15026191.74</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15026191.74</v>
+        <v>15027493.130000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15027493.130000001</v>
+        <v>15031423.210000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15031423.210000001</v>
+        <v>15033952.110000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15033952.110000001</v>
+        <v>15036748.35</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15036748.35</v>
+        <v>15042083.67</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15042083.67</v>
+        <v>15042336.27</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15042336.27</v>
+        <v>15050548.030000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15050548.030000001</v>
+        <v>15052424.27</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15052424.27</v>
+        <v>15055672.76</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15055672.76</v>
+        <v>15058366.790000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15058366.790000001</v>
+        <v>15059398.550000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15059398.550000001</v>
+        <v>15060338.9</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15060338.9</v>
+        <v>15061394.630000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15061394.630000001</v>
+        <v>15064118.220000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15064118.220000001</v>
+        <v>15064616.810000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15064616.810000001</v>
+        <v>15065957.18</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15065957.18</v>
+        <v>15069146.57</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15069146.57</v>
+        <v>15070214.33</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15070214.33</v>
+        <v>15072288.92</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15072288.92</v>
+        <v>15088778.140000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15088778.140000001</v>
+        <v>15091094.310000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15091094.310000001</v>
+        <v>15093489.27</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15093489.27</v>
+        <v>15094874.460000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15094874.460000001</v>
+        <v>15098662.450000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15098662.450000001</v>
+        <v>15101004.770000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15101004.770000001</v>
+        <v>15102577.120000001</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15102577.120000001</v>
+        <v>15104875.59</v>
       </c>
       <c r="E3" s="5">
         <v>215522.46</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,7 @@
         <v>15104875.59</v>
       </c>
       <c r="E3" s="5">
-        <v>215522.46</v>
+        <v>15105548.140000001</v>
       </c>
       <c r="F3" s="5">
         <v>75481.539999999994</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15104875.59</v>
+        <v>15105548.140000001</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15105548.140000001</v>
+        <v>15106614.51</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15106614.51</v>
+        <v>15107991.25</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15107991.25</v>
+        <v>15108672</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15108672</v>
+        <v>15110059.960000001</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15110059.960000001</v>
+        <v>15110725.07</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15110725.07</v>
+        <v>15111530.18</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15111530.18</v>
+        <v>15112882.15</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15112882.15</v>
+        <v>15114022.200000001</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15114022.200000001</v>
+        <v>15116647.060000001</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15116647.060000001</v>
+        <v>15118661.460000001</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15118661.460000001</v>
+        <v>15120474.100000001</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15120474.100000001</v>
+        <v>15121517.67</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>

--- a/src/controller/archivo.xlsx
+++ b/src/controller/archivo.xlsx
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>15121517.67</v>
+        <v>15124227.740000002</v>
       </c>
       <c r="E3" s="5">
         <v>15105548.140000001</v>
